--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Marek\source\repos\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C223655-300B-4320-89B8-C38A2A69937E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5BE691-D78E-42E5-B9C7-710B4C18B27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -56,18 +56,6 @@
     <t>Linie</t>
   </si>
   <si>
-    <t>01.04.2025</t>
-  </si>
-  <si>
-    <t>clasa1.cs</t>
-  </si>
-  <si>
-    <t>clasa2.cs</t>
-  </si>
-  <si>
-    <t>clasa3.cs</t>
-  </si>
-  <si>
     <t>Marek Wójcik</t>
   </si>
   <si>
@@ -108,6 +96,18 @@
   </si>
   <si>
     <t>DbPrzychodnia.cs</t>
+  </si>
+  <si>
+    <t>diagram funkcjonalności</t>
+  </si>
+  <si>
+    <t>diagram klas</t>
+  </si>
+  <si>
+    <t>diagram PDM</t>
+  </si>
+  <si>
+    <t>diagram przypadków użycia</t>
   </si>
 </sst>
 </file>
@@ -171,14 +171,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,17 +668,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -702,22 +710,22 @@
       <c r="B3" s="1"/>
       <c r="D3">
         <f>SUM(D7:D1001)</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="P3">
-        <f>SUM(P7:P1001)</f>
+        <f>SUM(P8:P1001)</f>
         <v>229</v>
       </c>
     </row>
@@ -728,51 +736,51 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0</v>
+        <v>1.3957307060755337</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0</v>
+        <v>0.57471264367816088</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0</v>
+        <v>0.16420361247947454</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0</v>
+        <v>0.98522167487684731</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>5</v>
+        <v>1.8801313628899836</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" t="s">
@@ -822,137 +830,184 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="B7" s="3">
+        <v>45749</v>
       </c>
       <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45749</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3">
+        <v>45749</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="K7" s="3">
+        <v>45749</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7">
+        <v>20</v>
+      </c>
+      <c r="N7" s="3">
+        <v>45749</v>
+      </c>
+      <c r="O7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8" s="3">
+        <v>45756</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45756</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="K8" s="3">
+        <v>45756</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>45756</v>
+      </c>
+      <c r="O8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="B9" s="3">
+        <v>45756</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
+        <v>45756</v>
+      </c>
+      <c r="O9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="N10" s="3">
+        <v>45756</v>
+      </c>
+      <c r="O10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10">
         <v>8</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>45756</v>
-      </c>
-      <c r="O7" t="s">
+    </row>
+    <row r="11" spans="1:16">
+      <c r="N11" s="3">
+        <v>45756</v>
+      </c>
+      <c r="O11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="N12" s="3">
+        <v>45756</v>
+      </c>
+      <c r="O12" t="s">
         <v>16</v>
-      </c>
-      <c r="P7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="N8" s="5">
-        <v>45756</v>
-      </c>
-      <c r="O8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="N9" s="5">
-        <v>45756</v>
-      </c>
-      <c r="O9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="N10" s="5">
-        <v>45756</v>
-      </c>
-      <c r="O10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="N11" s="5">
-        <v>45756</v>
-      </c>
-      <c r="O11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="N12" s="5">
-        <v>45756</v>
-      </c>
-      <c r="O12" t="s">
-        <v>21</v>
       </c>
       <c r="P12">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="N13" s="5">
+      <c r="N13" s="3">
         <v>45756</v>
       </c>
       <c r="O13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="P13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="N14" s="3">
+        <v>45756</v>
+      </c>
+      <c r="O14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="N14" s="5">
-        <v>45756</v>
-      </c>
-      <c r="O14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14">
+    <row r="15" spans="1:16">
+      <c r="N15" s="3">
+        <v>45756</v>
+      </c>
+      <c r="O15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="N15" s="5">
-        <v>45756</v>
-      </c>
-      <c r="O15" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15">
+    <row r="16" spans="1:16">
+      <c r="N16" s="3">
+        <v>45756</v>
+      </c>
+      <c r="O16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16">
         <v>36</v>
       </c>
     </row>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Marek\source\repos\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5BE691-D78E-42E5-B9C7-710B4C18B27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C033E67B-9F41-4986-8C39-AC815127A724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>diagram przypadków użycia</t>
+  </si>
+  <si>
+    <t>poprawki w modelach</t>
   </si>
 </sst>
 </file>
@@ -668,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -726,7 +729,7 @@
       </c>
       <c r="P3">
         <f>SUM(P8:P1001)</f>
-        <v>229</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="24.95" customHeight="1">
@@ -736,23 +739,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>1.3957307060755337</v>
+        <v>1.3364779874213837</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.57471264367816088</v>
+        <v>0.55031446540880502</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.16420361247947454</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.98522167487684731</v>
+        <v>0.94339622641509435</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.8801313628899836</v>
+        <v>2.0125786163522013</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1010,6 +1013,53 @@
       <c r="P16">
         <v>36</v>
       </c>
+    </row>
+    <row r="17" spans="14:16">
+      <c r="N17" s="3">
+        <v>45762</v>
+      </c>
+      <c r="O17" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="14:16">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="14:16">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="14:16">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="14:16">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="14:16">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="14:16">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="14:16">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="14:16">
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="14:16">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="14:16">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="14:16">
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="14:16">
+      <c r="N29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\Documents\GitHub\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C033E67B-9F41-4986-8C39-AC815127A724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B9B047-CFDD-48C7-8927-0F7692047589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -111,6 +111,27 @@
   </si>
   <si>
     <t>poprawki w modelach</t>
+  </si>
+  <si>
+    <t>WizytaController.cs</t>
+  </si>
+  <si>
+    <t>WizytaService.cs</t>
+  </si>
+  <si>
+    <t>IWizytaService.cs</t>
+  </si>
+  <si>
+    <t>Program.cs</t>
+  </si>
+  <si>
+    <t>WykonaneBadaniaController.cs</t>
+  </si>
+  <si>
+    <t>WykonaneBadaniaService.cs</t>
+  </si>
+  <si>
+    <t>IWykonaneBadaniaService.cs</t>
   </si>
 </sst>
 </file>
@@ -674,7 +695,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -725,7 +746,7 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>120</v>
+        <v>331</v>
       </c>
       <c r="P3">
         <f>SUM(P8:P1001)</f>
@@ -739,23 +760,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>1.3364779874213837</v>
+        <v>1.0035419126328218</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.55031446540880502</v>
+        <v>0.41322314049586778</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.15723270440251572</v>
+        <v>0.1180637544273908</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.94339622641509435</v>
+        <v>1.9539551357733176</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>2.0125786163522013</v>
+        <v>1.5112160566706021</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -927,6 +948,15 @@
       <c r="D9">
         <v>100</v>
       </c>
+      <c r="K9" s="3">
+        <v>45765</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9">
+        <v>42</v>
+      </c>
       <c r="N9" s="3">
         <v>45756</v>
       </c>
@@ -938,6 +968,15 @@
       </c>
     </row>
     <row r="10" spans="1:16">
+      <c r="K10" s="3">
+        <v>45765</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10">
+        <v>57</v>
+      </c>
       <c r="N10" s="3">
         <v>45756</v>
       </c>
@@ -949,6 +988,15 @@
       </c>
     </row>
     <row r="11" spans="1:16">
+      <c r="K11" s="3">
+        <v>45765</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11">
+        <v>12</v>
+      </c>
       <c r="N11" s="3">
         <v>45756</v>
       </c>
@@ -960,6 +1008,15 @@
       </c>
     </row>
     <row r="12" spans="1:16">
+      <c r="K12" s="3">
+        <v>45765</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
       <c r="N12" s="3">
         <v>45756</v>
       </c>
@@ -971,6 +1028,15 @@
       </c>
     </row>
     <row r="13" spans="1:16">
+      <c r="K13" s="3">
+        <v>45765</v>
+      </c>
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13">
+        <v>35</v>
+      </c>
       <c r="N13" s="3">
         <v>45756</v>
       </c>
@@ -982,6 +1048,15 @@
       </c>
     </row>
     <row r="14" spans="1:16">
+      <c r="K14" s="3">
+        <v>45765</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14">
+        <v>51</v>
+      </c>
       <c r="N14" s="3">
         <v>45756</v>
       </c>
@@ -993,6 +1068,15 @@
       </c>
     </row>
     <row r="15" spans="1:16">
+      <c r="K15" s="3">
+        <v>45765</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
       <c r="N15" s="3">
         <v>45756</v>
       </c>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\Documents\GitHub\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubac\Documents\GitHub\AI\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C033E67B-9F41-4986-8C39-AC815127A724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E852AA6-A547-4DEF-990C-97FC372FB84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -111,6 +111,21 @@
   </si>
   <si>
     <t>poprawki w modelach</t>
+  </si>
+  <si>
+    <t>Program.cs</t>
+  </si>
+  <si>
+    <t>OsobaController.cs</t>
+  </si>
+  <si>
+    <t>IOsobaService.cs</t>
+  </si>
+  <si>
+    <t>OsobaService.cs</t>
+  </si>
+  <si>
+    <t>PasswordHasher.cs</t>
   </si>
 </sst>
 </file>
@@ -674,31 +689,31 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="10" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="13" max="14" width="12.5546875" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.5">
+    <row r="1" spans="1:16" ht="61.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.25">
+    <row r="2" spans="1:16" ht="23.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -706,7 +721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.5">
+    <row r="3" spans="1:16" ht="61.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -721,7 +736,7 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
@@ -732,30 +747,30 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1">
+    <row r="4" spans="1:16" ht="24.9" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>1.3364779874213837</v>
+        <v>1.0691823899371069</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.55031446540880502</v>
+        <v>0.44025157232704404</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.15723270440251572</v>
+        <v>1.1257861635220126</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.94339622641509435</v>
+        <v>0.75471698113207553</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>2.0125786163522013</v>
+        <v>1.6100628930817611</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -898,6 +913,15 @@
       <c r="G8">
         <v>50</v>
       </c>
+      <c r="H8" s="3">
+        <v>45765</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8">
+        <v>56</v>
+      </c>
       <c r="K8" s="3">
         <v>45756</v>
       </c>
@@ -927,6 +951,15 @@
       <c r="D9">
         <v>100</v>
       </c>
+      <c r="H9" s="3">
+        <v>45765</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
       <c r="N9" s="3">
         <v>45756</v>
       </c>
@@ -938,6 +971,15 @@
       </c>
     </row>
     <row r="10" spans="1:16">
+      <c r="H10" s="3">
+        <v>45765</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
       <c r="N10" s="3">
         <v>45756</v>
       </c>
@@ -949,6 +991,15 @@
       </c>
     </row>
     <row r="11" spans="1:16">
+      <c r="H11" s="3">
+        <v>45765</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
       <c r="N11" s="3">
         <v>45756</v>
       </c>
@@ -960,6 +1011,15 @@
       </c>
     </row>
     <row r="12" spans="1:16">
+      <c r="H12" s="3">
+        <v>45765</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12">
+        <v>69</v>
+      </c>
       <c r="N12" s="3">
         <v>45756</v>
       </c>
@@ -971,6 +1031,15 @@
       </c>
     </row>
     <row r="13" spans="1:16">
+      <c r="H13" s="3">
+        <v>45765</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
       <c r="N13" s="3">
         <v>45756</v>
       </c>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Documents\GitHub\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubac\Documents\GitHub\AI\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B9B047-CFDD-48C7-8927-0F7692047589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81044E29-3F37-4763-83DB-5CA756B4E729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>IWykonaneBadaniaService.cs</t>
+  </si>
+  <si>
+    <t>OsobaController.cs</t>
+  </si>
+  <si>
+    <t>IOsobaService.cs</t>
+  </si>
+  <si>
+    <t>OsobaService.cs</t>
+  </si>
+  <si>
+    <t>PasswordHasher.cs</t>
   </si>
 </sst>
 </file>
@@ -695,31 +707,31 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="10" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="13" max="14" width="12.5546875" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.5">
+    <row r="1" spans="1:16" ht="61.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.25">
+    <row r="2" spans="1:16" ht="23.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -727,7 +739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.5">
+    <row r="3" spans="1:16" ht="61.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -742,7 +754,7 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
@@ -753,30 +765,30 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1">
+    <row r="4" spans="1:16" ht="24.9" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0035419126328218</v>
+        <v>0.84493041749502984</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.41322314049586778</v>
+        <v>0.34791252485089463</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.1180637544273908</v>
+        <v>0.88966202783300197</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.9539551357733176</v>
+        <v>1.6451292246520874</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.5112160566706021</v>
+        <v>1.2723658051689861</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -919,6 +931,15 @@
       <c r="G8">
         <v>50</v>
       </c>
+      <c r="H8" s="3">
+        <v>45765</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8">
+        <v>56</v>
+      </c>
       <c r="K8" s="3">
         <v>45756</v>
       </c>
@@ -948,6 +969,15 @@
       <c r="D9">
         <v>100</v>
       </c>
+      <c r="H9" s="3">
+        <v>45765</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
       <c r="K9" s="3">
         <v>45765</v>
       </c>
@@ -968,6 +998,15 @@
       </c>
     </row>
     <row r="10" spans="1:16">
+      <c r="H10" s="3">
+        <v>45765</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
       <c r="K10" s="3">
         <v>45765</v>
       </c>
@@ -988,6 +1027,15 @@
       </c>
     </row>
     <row r="11" spans="1:16">
+      <c r="H11" s="3">
+        <v>45765</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
       <c r="K11" s="3">
         <v>45765</v>
       </c>
@@ -1008,6 +1056,15 @@
       </c>
     </row>
     <row r="12" spans="1:16">
+      <c r="H12" s="3">
+        <v>45765</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12">
+        <v>69</v>
+      </c>
       <c r="K12" s="3">
         <v>45765</v>
       </c>
@@ -1028,6 +1085,15 @@
       </c>
     </row>
     <row r="13" spans="1:16">
+      <c r="H13" s="3">
+        <v>45765</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
       <c r="K13" s="3">
         <v>45765</v>
       </c>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubac\Documents\GitHub\AI\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81044E29-3F37-4763-83DB-5CA756B4E729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FDB9AB-56F6-43FC-8F88-AD644F745A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>PasswordHasher.cs</t>
+  </si>
+  <si>
+    <t>IWykonaneBadaniaRepository.cs</t>
+  </si>
+  <si>
+    <t>IWizytaRepository.cs</t>
+  </si>
+  <si>
+    <t>IOsobaRepository.cs</t>
   </si>
 </sst>
 </file>
@@ -707,31 +716,31 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" customWidth="1"/>
-    <col min="13" max="14" width="12.5546875" customWidth="1"/>
-    <col min="15" max="15" width="23.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.2">
+    <row r="1" spans="1:16" ht="61.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.4">
+    <row r="2" spans="1:16" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -739,14 +748,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.2">
+    <row r="3" spans="1:16" ht="61.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="D3">
         <f>SUM(D7:D1001)</f>
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
@@ -765,30 +774,30 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.9" customHeight="1">
+    <row r="4" spans="1:16" ht="24.95" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.84493041749502984</v>
+        <v>0.98848368522072938</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.34791252485089463</v>
+        <v>0.33589251439539347</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.88966202783300197</v>
+        <v>0.85892514395393471</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.6451292246520874</v>
+        <v>1.5882917466410749</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2723658051689861</v>
+        <v>1.2284069097888675</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -998,6 +1007,15 @@
       </c>
     </row>
     <row r="10" spans="1:16">
+      <c r="B10" s="3">
+        <v>45769</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
       <c r="H10" s="3">
         <v>45765</v>
       </c>
@@ -1027,6 +1045,15 @@
       </c>
     </row>
     <row r="11" spans="1:16">
+      <c r="B11" s="3">
+        <v>45769</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
       <c r="H11" s="3">
         <v>45765</v>
       </c>
@@ -1056,6 +1083,15 @@
       </c>
     </row>
     <row r="12" spans="1:16">
+      <c r="B12" s="3">
+        <v>45769</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
       <c r="H12" s="3">
         <v>45765</v>
       </c>
@@ -1085,6 +1121,15 @@
       </c>
     </row>
     <row r="13" spans="1:16">
+      <c r="B13" s="3">
+        <v>45769</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
       <c r="H13" s="3">
         <v>45765</v>
       </c>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Projekt-Przychodnia\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FDB9AB-56F6-43FC-8F88-AD644F745A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -153,12 +147,21 @@
   </si>
   <si>
     <t>IOsobaRepository.cs</t>
+  </si>
+  <si>
+    <t>WykonaneBadaniaRepository.cs</t>
+  </si>
+  <si>
+    <t>WizytaRepository.cs</t>
+  </si>
+  <si>
+    <t>OsobaRepository.cs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -206,7 +209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,6 +227,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,7 +428,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -431,7 +437,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -712,11 +718,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -725,7 +731,7 @@
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
     <col min="7" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="11" width="12.5703125" customWidth="1"/>
@@ -759,7 +765,7 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
@@ -781,23 +787,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.98848368522072938</v>
+        <v>0.91555555555555557</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.33589251439539347</v>
+        <v>0.68</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.85892514395393471</v>
+        <v>0.79555555555555557</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.5882917466410749</v>
+        <v>1.471111111111111</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2284069097888675</v>
+        <v>1.1377777777777778</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -978,6 +984,15 @@
       <c r="D9">
         <v>100</v>
       </c>
+      <c r="E9" s="6">
+        <v>45769</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <v>27</v>
+      </c>
       <c r="H9" s="3">
         <v>45765</v>
       </c>
@@ -1016,6 +1031,15 @@
       <c r="D10">
         <v>3</v>
       </c>
+      <c r="E10" s="3">
+        <v>45769</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10">
+        <v>31</v>
+      </c>
       <c r="H10" s="3">
         <v>45765</v>
       </c>
@@ -1053,6 +1077,15 @@
       </c>
       <c r="D11">
         <v>11</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45769</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11">
+        <v>25</v>
       </c>
       <c r="H11" s="3">
         <v>45765</v>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbist\OneDrive\Dokumenty\GitHub\Projekt-Przychodnia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC235D8C-3F52-45A6-A486-5FEC96D93EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -161,7 +167,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -222,14 +228,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +434,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -437,7 +443,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -718,35 +724,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="10" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="13" max="14" width="12.5546875" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.5">
+    <row r="1" spans="1:16" ht="61.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.25">
+    <row r="2" spans="1:16" ht="23.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -754,7 +760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.5">
+    <row r="3" spans="1:16" ht="61.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -773,65 +779,65 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P3">
         <f>SUM(P8:P1001)</f>
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1">
+    <row r="4" spans="1:16" ht="24.9" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.91555555555555557</v>
+        <v>0.9196428571428571</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.68</v>
+        <v>0.6830357142857143</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.79555555555555557</v>
+        <v>0.7991071428571429</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.471111111111111</v>
+        <v>1.4553571428571428</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1377777777777778</v>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" t="s">
@@ -984,7 +990,7 @@
       <c r="D9">
         <v>100</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>45769</v>
       </c>
       <c r="F9" t="s">
@@ -1056,7 +1062,7 @@
         <v>27</v>
       </c>
       <c r="M10">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N10" s="3">
         <v>45756</v>
@@ -1103,7 +1109,7 @@
         <v>28</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N11" s="3">
         <v>45756</v>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbist\OneDrive\Dokumenty\GitHub\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubac\Documents\GitHub\AI\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC235D8C-3F52-45A6-A486-5FEC96D93EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B78A88-5A8A-4C10-BF49-7E34A0BBDFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>OsobaRepository.cs</t>
+  </si>
+  <si>
+    <t>PacjentServiceImpl.cs</t>
+  </si>
+  <si>
+    <t>IPacjentService.cs</t>
   </si>
 </sst>
 </file>
@@ -727,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -775,7 +781,7 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
@@ -793,23 +799,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.9196428571428571</v>
+        <v>0.94063926940639264</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.6830357142857143</v>
+        <v>0.69863013698630139</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.7991071428571429</v>
+        <v>0.70319634703196343</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.4553571428571428</v>
+        <v>1.4885844748858448</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1428571428571428</v>
+        <v>1.1689497716894977</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1100,7 +1106,7 @@
         <v>34</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K11" s="3">
         <v>45765</v>
@@ -1138,7 +1144,7 @@
         <v>35</v>
       </c>
       <c r="J12">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="K12" s="3">
         <v>45765</v>
@@ -1176,7 +1182,7 @@
         <v>36</v>
       </c>
       <c r="J13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K13" s="3">
         <v>45765</v>
@@ -1198,6 +1204,15 @@
       </c>
     </row>
     <row r="14" spans="1:16">
+      <c r="H14" s="3">
+        <v>45770</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
       <c r="K14" s="3">
         <v>45765</v>
       </c>
@@ -1218,6 +1233,15 @@
       </c>
     </row>
     <row r="15" spans="1:16">
+      <c r="H15" s="3">
+        <v>45770</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
       <c r="K15" s="3">
         <v>45765</v>
       </c>
@@ -1238,6 +1262,15 @@
       </c>
     </row>
     <row r="16" spans="1:16">
+      <c r="H16" s="3">
+        <v>45770</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
       <c r="N16" s="3">
         <v>45756</v>
       </c>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubac\Documents\GitHub\AI\Projekt-Przychodnia\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B78A88-5A8A-4C10-BF49-7E34A0BBDFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11430" yWindow="0" windowWidth="11715" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -173,7 +167,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -221,7 +215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,9 +226,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -440,7 +431,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -449,7 +440,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -730,35 +721,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" customWidth="1"/>
-    <col min="13" max="14" width="12.5546875" customWidth="1"/>
-    <col min="15" max="15" width="23.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.2">
+    <row r="1" spans="1:16" ht="61.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.4">
+    <row r="2" spans="1:16" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -766,7 +757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.2">
+    <row r="3" spans="1:16" ht="61.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -777,7 +768,7 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
@@ -792,58 +783,58 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.9" customHeight="1">
+    <row r="4" spans="1:16" ht="24.95" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.94063926940639264</v>
+        <v>0.97169811320754718</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.69863013698630139</v>
+        <v>0.55660377358490565</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.70319634703196343</v>
+        <v>0.72641509433962259</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.4885844748858448</v>
+        <v>1.5377358490566038</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1689497716894977</v>
+        <v>1.2075471698113207</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6" t="s">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6" t="s">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" t="s">
@@ -996,14 +987,14 @@
       <c r="D9">
         <v>100</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>45769</v>
       </c>
       <c r="F9" t="s">
         <v>40</v>
       </c>
       <c r="G9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H9" s="3">
         <v>45765</v>
@@ -1050,7 +1041,7 @@
         <v>41</v>
       </c>
       <c r="G10">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H10" s="3">
         <v>45765</v>
@@ -1097,7 +1088,7 @@
         <v>42</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H11" s="3">
         <v>45765</v>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Projekt-Przychodnia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B053DCC-A3B6-4C41-B5F6-5AA644D6F7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="0" windowWidth="11715" windowHeight="11760"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -167,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -431,7 +437,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -440,7 +446,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -721,11 +727,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -764,7 +770,7 @@
       <c r="B3" s="1"/>
       <c r="D3">
         <f>SUM(D7:D1001)</f>
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
@@ -779,8 +785,8 @@
         <v>326</v>
       </c>
       <c r="P3">
-        <f>SUM(P8:P1001)</f>
-        <v>256</v>
+        <f>SUM(P7:P1001)</f>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="24.95" customHeight="1">
@@ -790,23 +796,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.97169811320754718</v>
+        <v>0.93488372093023253</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.55660377358490565</v>
+        <v>0.5488372093023256</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.72641509433962259</v>
+        <v>0.71627906976744182</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.5377358490566038</v>
+        <v>1.5162790697674418</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2075471698113207</v>
+        <v>1.2837209302325581</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1079,7 +1085,7 @@
         <v>37</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E11" s="3">
         <v>45769</v>
@@ -1126,7 +1132,7 @@
         <v>38</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H12" s="3">
         <v>45765</v>
@@ -1164,7 +1170,7 @@
         <v>39</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H13" s="3">
         <v>45765</v>
@@ -1195,6 +1201,15 @@
       </c>
     </row>
     <row r="14" spans="1:16">
+      <c r="B14" s="3">
+        <v>45782</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
       <c r="H14" s="3">
         <v>45770</v>
       </c>
@@ -1224,6 +1239,15 @@
       </c>
     </row>
     <row r="15" spans="1:16">
+      <c r="B15" s="3">
+        <v>45782</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
       <c r="H15" s="3">
         <v>45770</v>
       </c>
@@ -1253,6 +1277,15 @@
       </c>
     </row>
     <row r="16" spans="1:16">
+      <c r="B16" s="3">
+        <v>45782</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
       <c r="H16" s="3">
         <v>45770</v>
       </c>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Projekt-Przychodnia\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B053DCC-A3B6-4C41-B5F6-5AA644D6F7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -173,7 +167,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -437,7 +431,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -446,7 +440,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -727,11 +721,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -774,7 +768,7 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
@@ -796,23 +790,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.93488372093023253</v>
+        <v>0.91197822141560803</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.5488372093023256</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.71627906976744182</v>
+        <v>0.69872958257713247</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.5162790697674418</v>
+        <v>1.4791288566243195</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2837209302325581</v>
+        <v>1.2522686025408349</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1134,6 +1128,15 @@
       <c r="D12">
         <v>3</v>
       </c>
+      <c r="E12" s="3">
+        <v>45782</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
       <c r="H12" s="3">
         <v>45765</v>
       </c>
@@ -1172,6 +1175,15 @@
       <c r="D13">
         <v>3</v>
       </c>
+      <c r="E13" s="3">
+        <v>45782</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
       <c r="H13" s="3">
         <v>45765</v>
       </c>
@@ -1209,6 +1221,15 @@
       </c>
       <c r="D14">
         <v>7</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45782</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
         <v>45770</v>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubac\Documents\GitHub\AI\Projekt-Przychodnia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF57A6D-0175-40D7-9339-0594E303690A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -162,12 +168,18 @@
   </si>
   <si>
     <t>IPacjentService.cs</t>
+  </si>
+  <si>
+    <t>PacjentService.cs</t>
+  </si>
+  <si>
+    <t>IWizytaService</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -431,7 +443,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -440,7 +452,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -721,35 +733,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="10" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="13" max="14" width="12.5546875" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.5">
+    <row r="1" spans="1:16" ht="61.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.25">
+    <row r="2" spans="1:16" ht="23.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -757,7 +769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.5">
+    <row r="3" spans="1:16" ht="61.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -772,7 +784,7 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
@@ -783,30 +795,30 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1">
+    <row r="4" spans="1:16" ht="24.9" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.91197822141560803</v>
+        <v>0.89812332439678288</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.65789473684210531</v>
+        <v>0.64789991063449504</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.69872958257713247</v>
+        <v>0.76407506702412864</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.4791288566243195</v>
+        <v>1.4566577301161752</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2522686025408349</v>
+        <v>1.2332439678284182</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1326,7 +1338,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="14:16">
+    <row r="17" spans="8:16">
+      <c r="H17" s="3">
+        <v>45783</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
       <c r="N17" s="3">
         <v>45762</v>
       </c>
@@ -1337,40 +1358,94 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="14:16">
+    <row r="18" spans="8:16">
+      <c r="H18" s="3">
+        <v>45783</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="14:16">
+    <row r="19" spans="8:16">
+      <c r="H19" s="3">
+        <v>45783</v>
+      </c>
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="14:16">
+    <row r="20" spans="8:16">
+      <c r="H20" s="3">
+        <v>45783</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="14:16">
+    <row r="21" spans="8:16">
+      <c r="H21" s="3">
+        <v>45783</v>
+      </c>
+      <c r="I21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="14:16">
+    <row r="22" spans="8:16">
+      <c r="H22" s="3">
+        <v>45783</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="14:16">
+    <row r="23" spans="8:16">
+      <c r="H23" s="3">
+        <v>45783</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="14:16">
+    <row r="24" spans="8:16">
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="14:16">
+    <row r="25" spans="8:16">
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="14:16">
+    <row r="26" spans="8:16">
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="14:16">
+    <row r="27" spans="8:16">
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="14:16">
+    <row r="28" spans="8:16">
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="14:16">
+    <row r="29" spans="8:16">
       <c r="N29" s="3"/>
     </row>
   </sheetData>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubac\Documents\GitHub\AI\Projekt-Przychodnia\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF57A6D-0175-40D7-9339-0594E303690A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="1530" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -174,12 +168,21 @@
   </si>
   <si>
     <t>IWizytaService</t>
+  </si>
+  <si>
+    <t>OsobaRepoTests.cs</t>
+  </si>
+  <si>
+    <t>WizytaRepoTests.cs</t>
+  </si>
+  <si>
+    <t>WykonaneBadanieRepoTests.cs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -443,7 +446,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -452,7 +455,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -733,35 +736,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" customWidth="1"/>
-    <col min="13" max="14" width="12.5546875" customWidth="1"/>
-    <col min="15" max="15" width="23.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.2">
+    <row r="1" spans="1:16" ht="61.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.4">
+    <row r="2" spans="1:16" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -769,7 +772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.2">
+    <row r="3" spans="1:16" ht="61.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -780,7 +783,7 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>145</v>
+        <v>256</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
@@ -795,30 +798,30 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.9" customHeight="1">
+    <row r="4" spans="1:16" ht="24.95" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.89812332439678288</v>
+        <v>0.81707317073170727</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.64789991063449504</v>
+        <v>1.0406504065040652</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.76407506702412864</v>
+        <v>0.69512195121951215</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.4566577301161752</v>
+        <v>1.3252032520325203</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2332439678284182</v>
+        <v>1.1219512195121952</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1281,6 +1284,15 @@
       <c r="D15">
         <v>6</v>
       </c>
+      <c r="E15" s="3">
+        <v>45783</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15">
+        <v>45</v>
+      </c>
       <c r="H15" s="3">
         <v>45770</v>
       </c>
@@ -1319,6 +1331,15 @@
       <c r="D16">
         <v>6</v>
       </c>
+      <c r="E16" s="3">
+        <v>45783</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16">
+        <v>24</v>
+      </c>
       <c r="H16" s="3">
         <v>45770</v>
       </c>
@@ -1338,7 +1359,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="8:16">
+    <row r="17" spans="5:16">
+      <c r="E17" s="3">
+        <v>45783</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17">
+        <v>42</v>
+      </c>
       <c r="H17" s="3">
         <v>45783</v>
       </c>
@@ -1358,7 +1388,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="8:16">
+    <row r="18" spans="5:16">
       <c r="H18" s="3">
         <v>45783</v>
       </c>
@@ -1370,7 +1400,7 @@
       </c>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="8:16">
+    <row r="19" spans="5:16">
       <c r="H19" s="3">
         <v>45783</v>
       </c>
@@ -1382,7 +1412,7 @@
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="8:16">
+    <row r="20" spans="5:16">
       <c r="H20" s="3">
         <v>45783</v>
       </c>
@@ -1394,7 +1424,7 @@
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="8:16">
+    <row r="21" spans="5:16">
       <c r="H21" s="3">
         <v>45783</v>
       </c>
@@ -1406,7 +1436,7 @@
       </c>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="8:16">
+    <row r="22" spans="5:16">
       <c r="H22" s="3">
         <v>45783</v>
       </c>
@@ -1418,7 +1448,7 @@
       </c>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="8:16">
+    <row r="23" spans="5:16">
       <c r="H23" s="3">
         <v>45783</v>
       </c>
@@ -1430,22 +1460,22 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="8:16">
+    <row r="24" spans="5:16">
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="8:16">
+    <row r="25" spans="5:16">
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="8:16">
+    <row r="26" spans="5:16">
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="8:16">
+    <row r="27" spans="5:16">
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="8:16">
+    <row r="28" spans="5:16">
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="8:16">
+    <row r="29" spans="5:16">
       <c r="N29" s="3"/>
     </row>
   </sheetData>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Projekt-Przychodnia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92713A15-2F2E-47FA-AD02-1CFF54FC9ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="1530" windowWidth="17280" windowHeight="8880"/>
+    <workbookView xWindow="39210" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -177,12 +183,27 @@
   </si>
   <si>
     <t>WykonaneBadanieRepoTests.cs</t>
+  </si>
+  <si>
+    <t>DummyPacjentService</t>
+  </si>
+  <si>
+    <t>StubOsobaService</t>
+  </si>
+  <si>
+    <t>FakePacjentService</t>
+  </si>
+  <si>
+    <t>SpyWykonaneBadaniaService</t>
+  </si>
+  <si>
+    <t>MockWizytaService</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -446,7 +467,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -455,7 +476,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -736,11 +757,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -779,7 +800,7 @@
       <c r="B3" s="1"/>
       <c r="D3">
         <f>SUM(D7:D1001)</f>
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
@@ -805,23 +826,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.81707317073170727</v>
+        <v>0.93280632411067199</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0406504065040652</v>
+        <v>1.0118577075098814</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.69512195121951215</v>
+        <v>0.67588932806324109</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.3252032520325203</v>
+        <v>1.2885375494071147</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1219512195121952</v>
+        <v>1.0909090909090908</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1359,7 +1380,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="5:16">
+    <row r="17" spans="2:16">
+      <c r="B17" s="3">
+        <v>45783</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
       <c r="E17" s="3">
         <v>45783</v>
       </c>
@@ -1388,7 +1418,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="5:16">
+    <row r="18" spans="2:16">
+      <c r="B18" s="3">
+        <v>45783</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
       <c r="H18" s="3">
         <v>45783</v>
       </c>
@@ -1400,7 +1439,16 @@
       </c>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="5:16">
+    <row r="19" spans="2:16">
+      <c r="B19" s="3">
+        <v>45783</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
       <c r="H19" s="3">
         <v>45783</v>
       </c>
@@ -1412,7 +1460,16 @@
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="5:16">
+    <row r="20" spans="2:16">
+      <c r="B20" s="3">
+        <v>45783</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
       <c r="H20" s="3">
         <v>45783</v>
       </c>
@@ -1424,7 +1481,16 @@
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="5:16">
+    <row r="21" spans="2:16">
+      <c r="B21" s="3">
+        <v>45783</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
       <c r="H21" s="3">
         <v>45783</v>
       </c>
@@ -1436,7 +1502,7 @@
       </c>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="5:16">
+    <row r="22" spans="2:16">
       <c r="H22" s="3">
         <v>45783</v>
       </c>
@@ -1448,7 +1514,7 @@
       </c>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="5:16">
+    <row r="23" spans="2:16">
       <c r="H23" s="3">
         <v>45783</v>
       </c>
@@ -1460,22 +1526,22 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="5:16">
+    <row r="24" spans="2:16">
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="5:16">
+    <row r="25" spans="2:16">
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="5:16">
+    <row r="26" spans="2:16">
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="5:16">
+    <row r="27" spans="2:16">
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="5:16">
+    <row r="28" spans="2:16">
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="5:16">
+    <row r="29" spans="2:16">
       <c r="N29" s="3"/>
     </row>
   </sheetData>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbist\OneDrive\Dokumenty\GitHub\Projekt-Przychodnia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4127D8-BE21-4B0A-A993-0ED1941D3BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="1530" windowWidth="17280" windowHeight="8880"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -177,12 +183,18 @@
   </si>
   <si>
     <t>WykonaneBadanieRepoTests.cs</t>
+  </si>
+  <si>
+    <t>RejestracjaWizytyDTO.cs</t>
+  </si>
+  <si>
+    <t>WykonaneBadaniaDTO.cs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -446,7 +458,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -455,7 +467,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -736,35 +748,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="10" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="27.77734375" customWidth="1"/>
+    <col min="13" max="14" width="12.5546875" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.5">
+    <row r="1" spans="1:16" ht="61.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.25">
+    <row r="2" spans="1:16" ht="23.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -772,7 +784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.5">
+    <row r="3" spans="1:16" ht="61.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -791,37 +803,37 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1">
+    <row r="4" spans="1:16" ht="24.9" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.81707317073170727</v>
+        <v>0.85970915312232676</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0406504065040652</v>
+        <v>1.0949529512403764</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.69512195121951215</v>
+        <v>0.73139435414884513</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.3252032520325203</v>
+        <v>1.133447390932421</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1219512195121952</v>
+        <v>1.1804961505560307</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1027,7 +1039,7 @@
         <v>26</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N9" s="3">
         <v>45756</v>
@@ -1074,7 +1086,7 @@
         <v>27</v>
       </c>
       <c r="M10">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="N10" s="3">
         <v>45756</v>
@@ -1121,7 +1133,7 @@
         <v>28</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N11" s="3">
         <v>45756</v>
@@ -1215,7 +1227,7 @@
         <v>30</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N13" s="3">
         <v>45756</v>
@@ -1262,7 +1274,7 @@
         <v>31</v>
       </c>
       <c r="M14">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="N14" s="3">
         <v>45756</v>
@@ -1309,7 +1321,7 @@
         <v>32</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>45756</v>
@@ -1349,6 +1361,15 @@
       <c r="J16">
         <v>1</v>
       </c>
+      <c r="K16" s="3">
+        <v>45765</v>
+      </c>
+      <c r="L16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16">
+        <v>16</v>
+      </c>
       <c r="N16" s="3">
         <v>45756</v>
       </c>
@@ -1377,6 +1398,15 @@
       </c>
       <c r="J17">
         <v>4</v>
+      </c>
+      <c r="K17" s="3">
+        <v>45765</v>
+      </c>
+      <c r="L17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17">
+        <v>15</v>
       </c>
       <c r="N17" s="3">
         <v>45762</v>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubac\Documents\GitHub\AI\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92713A15-2F2E-47FA-AD02-1CFF54FC9ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D52BBD-33A0-4FED-AB1C-4BEED1B6F09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39210" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t>MockWizytaService</t>
+  </si>
+  <si>
+    <t>MockTest.cs</t>
+  </si>
+  <si>
+    <t>DummyTest.cs</t>
+  </si>
+  <si>
+    <t>SpyTest.cs</t>
+  </si>
+  <si>
+    <t>StubTest.cs</t>
   </si>
 </sst>
 </file>
@@ -760,32 +772,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="10" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="13" max="14" width="12.5546875" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.5">
+    <row r="1" spans="1:16" ht="61.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.25">
+    <row r="2" spans="1:16" ht="23.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -793,7 +805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.5">
+    <row r="3" spans="1:16" ht="61.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -804,7 +816,7 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>256</v>
+        <v>345</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
@@ -819,30 +831,30 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1">
+    <row r="4" spans="1:16" ht="24.9" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.93280632411067199</v>
+        <v>0.87149187592319055</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0118577075098814</v>
+        <v>1.2740029542097489</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.67588932806324109</v>
+        <v>0.6314623338257016</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2885375494071147</v>
+        <v>1.2038404726735599</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0909090909090908</v>
+        <v>1.0192023633677991</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1428,6 +1440,15 @@
       <c r="D18">
         <v>6</v>
       </c>
+      <c r="E18" s="3">
+        <v>45784</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18">
+        <v>18</v>
+      </c>
       <c r="H18" s="3">
         <v>45783</v>
       </c>
@@ -1449,6 +1470,15 @@
       <c r="D19">
         <v>11</v>
       </c>
+      <c r="E19" s="3">
+        <v>45784</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19">
+        <v>13</v>
+      </c>
       <c r="H19" s="3">
         <v>45783</v>
       </c>
@@ -1470,6 +1500,15 @@
       <c r="D20">
         <v>5</v>
       </c>
+      <c r="E20" s="3">
+        <v>45784</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20">
+        <v>41</v>
+      </c>
       <c r="H20" s="3">
         <v>45783</v>
       </c>
@@ -1490,6 +1529,15 @@
       </c>
       <c r="D21">
         <v>11</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45784</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
       </c>
       <c r="H21" s="3">
         <v>45783</v>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubac\Documents\GitHub\AI\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D52BBD-33A0-4FED-AB1C-4BEED1B6F09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4515C2-1E5E-4A02-862F-CB6A6E60E15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>StubTest.cs</t>
+  </si>
+  <si>
+    <t>RejestracjaWizytyDTO.cs</t>
+  </si>
+  <si>
+    <t>WykonaneBadaniaDTO.cs</t>
   </si>
 </sst>
 </file>
@@ -772,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="J2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -816,15 +822,15 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>345</v>
+        <v>256</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
@@ -838,23 +844,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.87149187592319055</v>
+        <v>0.91260634184068057</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2740029542097489</v>
+        <v>0.98994586233565351</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.6314623338257016</v>
+        <v>1.0054137664346481</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2038404726735599</v>
+        <v>1.0247486465583913</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0192023633677991</v>
+        <v>1.0672853828306264</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1060,7 +1066,7 @@
         <v>26</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N9" s="3">
         <v>45756</v>
@@ -1107,7 +1113,7 @@
         <v>27</v>
       </c>
       <c r="M10">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="N10" s="3">
         <v>45756</v>
@@ -1154,7 +1160,7 @@
         <v>28</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N11" s="3">
         <v>45756</v>
@@ -1248,7 +1254,7 @@
         <v>30</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N13" s="3">
         <v>45756</v>
@@ -1295,7 +1301,7 @@
         <v>31</v>
       </c>
       <c r="M14">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="N14" s="3">
         <v>45756</v>
@@ -1342,7 +1348,7 @@
         <v>32</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>45756</v>
@@ -1382,6 +1388,15 @@
       <c r="J16">
         <v>1</v>
       </c>
+      <c r="K16" s="3">
+        <v>45765</v>
+      </c>
+      <c r="L16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16">
+        <v>16</v>
+      </c>
       <c r="N16" s="3">
         <v>45756</v>
       </c>
@@ -1420,6 +1435,15 @@
       <c r="J17">
         <v>4</v>
       </c>
+      <c r="K17" s="3">
+        <v>45765</v>
+      </c>
+      <c r="L17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
       <c r="N17" s="3">
         <v>45762</v>
       </c>
@@ -1440,15 +1464,6 @@
       <c r="D18">
         <v>6</v>
       </c>
-      <c r="E18" s="3">
-        <v>45784</v>
-      </c>
-      <c r="F18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18">
-        <v>18</v>
-      </c>
       <c r="H18" s="3">
         <v>45783</v>
       </c>
@@ -1470,15 +1485,6 @@
       <c r="D19">
         <v>11</v>
       </c>
-      <c r="E19" s="3">
-        <v>45784</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19">
-        <v>13</v>
-      </c>
       <c r="H19" s="3">
         <v>45783</v>
       </c>
@@ -1500,15 +1506,6 @@
       <c r="D20">
         <v>5</v>
       </c>
-      <c r="E20" s="3">
-        <v>45784</v>
-      </c>
-      <c r="F20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20">
-        <v>41</v>
-      </c>
       <c r="H20" s="3">
         <v>45783</v>
       </c>
@@ -1530,15 +1527,6 @@
       <c r="D21">
         <v>11</v>
       </c>
-      <c r="E21" s="3">
-        <v>45784</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21">
-        <v>17</v>
-      </c>
       <c r="H21" s="3">
         <v>45783</v>
       </c>
@@ -1575,15 +1563,51 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="2:16">
+      <c r="H24" s="3">
+        <v>45784</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24">
+        <v>18</v>
+      </c>
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="2:16">
+      <c r="H25" s="3">
+        <v>45784</v>
+      </c>
+      <c r="I25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25">
+        <v>13</v>
+      </c>
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="2:16">
+      <c r="H26" s="3">
+        <v>45784</v>
+      </c>
+      <c r="I26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26">
+        <v>41</v>
+      </c>
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="2:16">
+      <c r="H27" s="3">
+        <v>45784</v>
+      </c>
+      <c r="I27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27">
+        <v>17</v>
+      </c>
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="2:16">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubac\Documents\GitHub\AI\Projekt-Przychodnia\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4515C2-1E5E-4A02-862F-CB6A6E60E15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11430" yWindow="0" windowWidth="11715" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -221,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -485,7 +479,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -494,7 +488,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -775,35 +769,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" customWidth="1"/>
-    <col min="13" max="14" width="12.5546875" customWidth="1"/>
-    <col min="15" max="15" width="23.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.2">
+    <row r="1" spans="1:16" ht="61.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.4">
+    <row r="2" spans="1:16" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -811,7 +805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.2">
+    <row r="3" spans="1:16" ht="61.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -822,7 +816,7 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>256</v>
+        <v>406</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
@@ -837,30 +831,30 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.9" customHeight="1">
+    <row r="4" spans="1:16" ht="24.95" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.91260634184068057</v>
+        <v>0.81774081774081775</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.98994586233565351</v>
+        <v>1.4067914067914067</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0054137664346481</v>
+        <v>0.90090090090090091</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0247486465583913</v>
+        <v>0.91822591822591826</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0672853828306264</v>
+        <v>0.95634095634095639</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1464,6 +1458,15 @@
       <c r="D18">
         <v>6</v>
       </c>
+      <c r="E18" s="3">
+        <v>45785</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18">
+        <v>51</v>
+      </c>
       <c r="H18" s="3">
         <v>45783</v>
       </c>
@@ -1485,6 +1488,15 @@
       <c r="D19">
         <v>11</v>
       </c>
+      <c r="E19" s="3">
+        <v>45785</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19">
+        <v>39</v>
+      </c>
       <c r="H19" s="3">
         <v>45783</v>
       </c>
@@ -1505,6 +1517,15 @@
       </c>
       <c r="D20">
         <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45785</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20">
+        <v>60</v>
       </c>
       <c r="H20" s="3">
         <v>45783</v>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubac\Documents\GitHub\AI\Projekt-Przychodnia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9509DFF1-9778-4DFC-81F6-71826B81E86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="0" windowWidth="11715" windowHeight="11760"/>
+    <workbookView xWindow="28680" yWindow="-8280" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -215,7 +221,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -479,7 +485,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -488,7 +494,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -769,35 +775,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="10" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="13" max="14" width="12.5546875" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.5">
+    <row r="1" spans="1:16" ht="61.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.25">
+    <row r="2" spans="1:16" ht="23.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -805,7 +811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.5">
+    <row r="3" spans="1:16" ht="61.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -820,7 +826,7 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>260</v>
+        <v>353</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
@@ -831,30 +837,30 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1">
+    <row r="4" spans="1:16" ht="24.9" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.81774081774081775</v>
+        <v>0.76822916666666663</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.4067914067914067</v>
+        <v>1.3216145833333333</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.90090090090090091</v>
+        <v>1.1490885416666667</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.91822591822591826</v>
+        <v>0.86263020833333337</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>0.95634095634095639</v>
+        <v>0.8984375</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1632,10 +1638,72 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="2:16">
+      <c r="H28" s="3">
+        <v>45788</v>
+      </c>
+      <c r="I28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28">
+        <v>20</v>
+      </c>
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="2:16">
+      <c r="H29" s="3">
+        <v>45788</v>
+      </c>
+      <c r="I29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29">
+        <v>35</v>
+      </c>
       <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="H30" s="3">
+        <v>45788</v>
+      </c>
+      <c r="I30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="H31" s="3">
+        <v>45788</v>
+      </c>
+      <c r="I31" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="H32" s="3">
+        <v>45788</v>
+      </c>
+      <c r="I32" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="8:10">
+      <c r="H33" s="3">
+        <v>45788</v>
+      </c>
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubac\Documents\GitHub\AI\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D52BBD-33A0-4FED-AB1C-4BEED1B6F09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EE83F1-F8D5-415A-AE0C-391C58AF1A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39210" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -210,6 +210,51 @@
   </si>
   <si>
     <t>StubTest.cs</t>
+  </si>
+  <si>
+    <t>DummyPacjentRepository</t>
+  </si>
+  <si>
+    <t>StubOsobaRepository</t>
+  </si>
+  <si>
+    <t>FakePacjentRepository</t>
+  </si>
+  <si>
+    <t>SpyWykonaneBadaniaRepository</t>
+  </si>
+  <si>
+    <t>MockWizytaRepository</t>
+  </si>
+  <si>
+    <t>PacjentRepository</t>
+  </si>
+  <si>
+    <t>IPacjentRepository</t>
+  </si>
+  <si>
+    <t>LekarzRepository</t>
+  </si>
+  <si>
+    <t>ILekarzRepository</t>
+  </si>
+  <si>
+    <t>RecepcjonistkaRepository</t>
+  </si>
+  <si>
+    <t>IRecepcjonistkaRepository</t>
+  </si>
+  <si>
+    <t>BadanieRepository</t>
+  </si>
+  <si>
+    <t>IBadanieRepository</t>
+  </si>
+  <si>
+    <t>DummyLekarzRepository</t>
+  </si>
+  <si>
+    <t>FakeRecepcjonistkaRepository</t>
   </si>
 </sst>
 </file>
@@ -770,34 +815,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" customWidth="1"/>
-    <col min="13" max="14" width="12.5546875" customWidth="1"/>
-    <col min="15" max="15" width="23.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.2">
+    <row r="1" spans="1:16" ht="61.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.4">
+    <row r="2" spans="1:16" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -805,14 +850,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.2">
+    <row r="3" spans="1:16" ht="61.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="D3">
         <f>SUM(D7:D1001)</f>
-        <v>236</v>
+        <v>358</v>
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
@@ -831,30 +876,30 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.9" customHeight="1">
+    <row r="4" spans="1:16" ht="24.95" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.87149187592319055</v>
+        <v>1.2127371273712737</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2740029542097489</v>
+        <v>1.1686991869918699</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.6314623338257016</v>
+        <v>0.57926829268292679</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2038404726735599</v>
+        <v>1.1043360433604337</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0192023633677991</v>
+        <v>0.93495934959349591</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1551,6 +1596,15 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="2:16">
+      <c r="B22" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
       <c r="H22" s="3">
         <v>45783</v>
       </c>
@@ -1563,6 +1617,15 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="2:16">
+      <c r="B23" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
       <c r="H23" s="3">
         <v>45783</v>
       </c>
@@ -1575,22 +1638,163 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="2:16">
+      <c r="B24" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="2:16">
+      <c r="B25" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="2:16">
+      <c r="B26" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="2:16">
+      <c r="B27" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="2:16">
+      <c r="B28" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="2:16">
+      <c r="B29" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
       <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="3">
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="3">
+        <v>45790</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubac\Documents\GitHub\AI\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9509DFF1-9778-4DFC-81F6-71826B81E86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EE83F1-F8D5-415A-AE0C-391C58AF1A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8280" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39210" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -212,10 +212,49 @@
     <t>StubTest.cs</t>
   </si>
   <si>
-    <t>RejestracjaWizytyDTO.cs</t>
-  </si>
-  <si>
-    <t>WykonaneBadaniaDTO.cs</t>
+    <t>DummyPacjentRepository</t>
+  </si>
+  <si>
+    <t>StubOsobaRepository</t>
+  </si>
+  <si>
+    <t>FakePacjentRepository</t>
+  </si>
+  <si>
+    <t>SpyWykonaneBadaniaRepository</t>
+  </si>
+  <si>
+    <t>MockWizytaRepository</t>
+  </si>
+  <si>
+    <t>PacjentRepository</t>
+  </si>
+  <si>
+    <t>IPacjentRepository</t>
+  </si>
+  <si>
+    <t>LekarzRepository</t>
+  </si>
+  <si>
+    <t>ILekarzRepository</t>
+  </si>
+  <si>
+    <t>RecepcjonistkaRepository</t>
+  </si>
+  <si>
+    <t>IRecepcjonistkaRepository</t>
+  </si>
+  <si>
+    <t>BadanieRepository</t>
+  </si>
+  <si>
+    <t>IBadanieRepository</t>
+  </si>
+  <si>
+    <t>DummyLekarzRepository</t>
+  </si>
+  <si>
+    <t>FakeRecepcjonistkaRepository</t>
   </si>
 </sst>
 </file>
@@ -776,34 +815,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" customWidth="1"/>
-    <col min="13" max="14" width="12.5546875" customWidth="1"/>
-    <col min="15" max="15" width="23.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.2">
+    <row r="1" spans="1:16" ht="61.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.4">
+    <row r="2" spans="1:16" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -811,56 +850,56 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.2">
+    <row r="3" spans="1:16" ht="61.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="D3">
         <f>SUM(D7:D1001)</f>
-        <v>236</v>
+        <v>358</v>
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>406</v>
+        <v>345</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>353</v>
+        <v>171</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.9" customHeight="1">
+    <row r="4" spans="1:16" ht="24.95" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.76822916666666663</v>
+        <v>1.2127371273712737</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.3216145833333333</v>
+        <v>1.1686991869918699</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1490885416666667</v>
+        <v>0.57926829268292679</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.86263020833333337</v>
+        <v>1.1043360433604337</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>0.8984375</v>
+        <v>0.93495934959349591</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1066,7 +1105,7 @@
         <v>26</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N9" s="3">
         <v>45756</v>
@@ -1113,7 +1152,7 @@
         <v>27</v>
       </c>
       <c r="M10">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="N10" s="3">
         <v>45756</v>
@@ -1160,7 +1199,7 @@
         <v>28</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N11" s="3">
         <v>45756</v>
@@ -1254,7 +1293,7 @@
         <v>30</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N13" s="3">
         <v>45756</v>
@@ -1301,7 +1340,7 @@
         <v>31</v>
       </c>
       <c r="M14">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N14" s="3">
         <v>45756</v>
@@ -1348,7 +1387,7 @@
         <v>32</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N15" s="3">
         <v>45756</v>
@@ -1388,15 +1427,6 @@
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="K16" s="3">
-        <v>45765</v>
-      </c>
-      <c r="L16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16">
-        <v>16</v>
-      </c>
       <c r="N16" s="3">
         <v>45756</v>
       </c>
@@ -1435,15 +1465,6 @@
       <c r="J17">
         <v>4</v>
       </c>
-      <c r="K17" s="3">
-        <v>45765</v>
-      </c>
-      <c r="L17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M17">
-        <v>15</v>
-      </c>
       <c r="N17" s="3">
         <v>45762</v>
       </c>
@@ -1465,13 +1486,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="3">
-        <v>45785</v>
+        <v>45784</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G18">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H18" s="3">
         <v>45783</v>
@@ -1495,13 +1516,13 @@
         <v>11</v>
       </c>
       <c r="E19" s="3">
-        <v>45785</v>
+        <v>45784</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G19">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H19" s="3">
         <v>45783</v>
@@ -1525,13 +1546,13 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>45785</v>
+        <v>45784</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G20">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H20" s="3">
         <v>45783</v>
@@ -1554,6 +1575,15 @@
       <c r="D21">
         <v>11</v>
       </c>
+      <c r="E21" s="3">
+        <v>45784</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
+      </c>
       <c r="H21" s="3">
         <v>45783</v>
       </c>
@@ -1566,6 +1596,15 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="2:16">
+      <c r="B22" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
       <c r="H22" s="3">
         <v>45783</v>
       </c>
@@ -1578,6 +1617,15 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="2:16">
+      <c r="B23" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
       <c r="H23" s="3">
         <v>45783</v>
       </c>
@@ -1590,119 +1638,162 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="H24" s="3">
-        <v>45784</v>
-      </c>
-      <c r="I24" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24">
-        <v>18</v>
+      <c r="B24" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
       </c>
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="H25" s="3">
-        <v>45784</v>
-      </c>
-      <c r="I25" t="s">
-        <v>56</v>
-      </c>
-      <c r="J25">
-        <v>13</v>
+      <c r="B25" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
       </c>
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="H26" s="3">
-        <v>45784</v>
-      </c>
-      <c r="I26" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26">
-        <v>41</v>
+      <c r="B26" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
       </c>
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="H27" s="3">
-        <v>45784</v>
-      </c>
-      <c r="I27" t="s">
-        <v>58</v>
-      </c>
-      <c r="J27">
-        <v>17</v>
+      <c r="B27" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
       </c>
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="H28" s="3">
-        <v>45788</v>
-      </c>
-      <c r="I28" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28">
-        <v>20</v>
+      <c r="B28" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
       </c>
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="H29" s="3">
-        <v>45788</v>
-      </c>
-      <c r="I29" t="s">
-        <v>31</v>
-      </c>
-      <c r="J29">
-        <v>35</v>
+      <c r="B29" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
       </c>
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="H30" s="3">
-        <v>45788</v>
-      </c>
-      <c r="I30" t="s">
-        <v>35</v>
-      </c>
-      <c r="J30">
-        <v>20</v>
+      <c r="B30" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="2:16">
-      <c r="H31" s="3">
-        <v>45788</v>
-      </c>
-      <c r="I31" t="s">
-        <v>34</v>
-      </c>
-      <c r="J31">
+      <c r="B31" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
-      <c r="H32" s="3">
-        <v>45788</v>
-      </c>
-      <c r="I32" t="s">
-        <v>46</v>
-      </c>
-      <c r="J32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="8:10">
-      <c r="H33" s="3">
-        <v>45788</v>
-      </c>
-      <c r="I33" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33">
-        <v>6</v>
+    <row r="37" spans="2:4">
+      <c r="B37" s="3">
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="3">
+        <v>45790</v>
       </c>
     </row>
   </sheetData>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Projekt-Przychodnia\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EE83F1-F8D5-415A-AE0C-391C58AF1A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39210" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39210" yWindow="-120" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -255,12 +249,30 @@
   </si>
   <si>
     <t>FakeRecepcjonistkaRepository</t>
+  </si>
+  <si>
+    <t>BadanieRepositoryTests.cs</t>
+  </si>
+  <si>
+    <t>LekarzRepositoryTests.cs</t>
+  </si>
+  <si>
+    <t>PacjentRepositoryTests.cs</t>
+  </si>
+  <si>
+    <t>RecepjonistkaRepositoryTests.cs</t>
+  </si>
+  <si>
+    <t>RejestracjaWizytyDTO.cs</t>
+  </si>
+  <si>
+    <t>WykonaneBadaniaDTO.cs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -524,7 +536,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -533,7 +545,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -814,11 +826,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -861,15 +873,15 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>345</v>
+        <v>697</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>171</v>
+        <v>353</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
@@ -883,23 +895,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2127371273712737</v>
+        <v>0.91841970241149307</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1686991869918699</v>
+        <v>1.7880964597229347</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.57926829268292679</v>
+        <v>0.90559261159569004</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1043360433604337</v>
+        <v>0.67983581323755771</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>0.93495934959349591</v>
+        <v>0.70805541303232422</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1105,7 +1117,7 @@
         <v>26</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N9" s="3">
         <v>45756</v>
@@ -1152,7 +1164,7 @@
         <v>27</v>
       </c>
       <c r="M10">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="N10" s="3">
         <v>45756</v>
@@ -1199,7 +1211,7 @@
         <v>28</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N11" s="3">
         <v>45756</v>
@@ -1293,7 +1305,7 @@
         <v>30</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N13" s="3">
         <v>45756</v>
@@ -1340,7 +1352,7 @@
         <v>31</v>
       </c>
       <c r="M14">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="N14" s="3">
         <v>45756</v>
@@ -1387,7 +1399,7 @@
         <v>32</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>45756</v>
@@ -1427,6 +1439,15 @@
       <c r="J16">
         <v>1</v>
       </c>
+      <c r="K16" s="3">
+        <v>45765</v>
+      </c>
+      <c r="L16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16">
+        <v>16</v>
+      </c>
       <c r="N16" s="3">
         <v>45756</v>
       </c>
@@ -1465,6 +1486,15 @@
       <c r="J17">
         <v>4</v>
       </c>
+      <c r="K17" s="3">
+        <v>45765</v>
+      </c>
+      <c r="L17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
       <c r="N17" s="3">
         <v>45762</v>
       </c>
@@ -1486,13 +1516,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="3">
-        <v>45784</v>
+        <v>45785</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G18">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="H18" s="3">
         <v>45783</v>
@@ -1516,13 +1546,13 @@
         <v>11</v>
       </c>
       <c r="E19" s="3">
-        <v>45784</v>
+        <v>45785</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G19">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H19" s="3">
         <v>45783</v>
@@ -1546,13 +1576,13 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>45784</v>
+        <v>45785</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G20">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H20" s="3">
         <v>45783</v>
@@ -1576,13 +1606,13 @@
         <v>11</v>
       </c>
       <c r="E21" s="3">
-        <v>45784</v>
+        <v>45790</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="G21">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="H21" s="3">
         <v>45783</v>
@@ -1605,6 +1635,15 @@
       <c r="D22">
         <v>6</v>
       </c>
+      <c r="E22" s="3">
+        <v>45790</v>
+      </c>
+      <c r="F22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22">
+        <v>79</v>
+      </c>
       <c r="H22" s="3">
         <v>45783</v>
       </c>
@@ -1626,6 +1665,15 @@
       <c r="D23">
         <v>7</v>
       </c>
+      <c r="E23" s="3">
+        <v>45790</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23">
+        <v>72</v>
+      </c>
       <c r="H23" s="3">
         <v>45783</v>
       </c>
@@ -1647,6 +1695,24 @@
       <c r="D24">
         <v>10</v>
       </c>
+      <c r="E24" s="3">
+        <v>45790</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24">
+        <v>68</v>
+      </c>
+      <c r="H24" s="3">
+        <v>45784</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24">
+        <v>18</v>
+      </c>
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="2:16">
@@ -1659,6 +1725,15 @@
       <c r="D25">
         <v>10</v>
       </c>
+      <c r="H25" s="3">
+        <v>45784</v>
+      </c>
+      <c r="I25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25">
+        <v>13</v>
+      </c>
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="2:16">
@@ -1671,6 +1746,15 @@
       <c r="D26">
         <v>6</v>
       </c>
+      <c r="H26" s="3">
+        <v>45784</v>
+      </c>
+      <c r="I26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26">
+        <v>41</v>
+      </c>
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="2:16">
@@ -1683,6 +1767,15 @@
       <c r="D27">
         <v>11</v>
       </c>
+      <c r="H27" s="3">
+        <v>45784</v>
+      </c>
+      <c r="I27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27">
+        <v>17</v>
+      </c>
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="2:16">
@@ -1695,6 +1788,15 @@
       <c r="D28">
         <v>6</v>
       </c>
+      <c r="H28" s="3">
+        <v>45788</v>
+      </c>
+      <c r="I28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28">
+        <v>20</v>
+      </c>
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="2:16">
@@ -1707,6 +1809,15 @@
       <c r="D29">
         <v>11</v>
       </c>
+      <c r="H29" s="3">
+        <v>45788</v>
+      </c>
+      <c r="I29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29">
+        <v>35</v>
+      </c>
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="2:16">
@@ -1719,6 +1830,15 @@
       <c r="D30">
         <v>6</v>
       </c>
+      <c r="H30" s="3">
+        <v>45788</v>
+      </c>
+      <c r="I30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="3">
@@ -1730,6 +1850,15 @@
       <c r="D31">
         <v>11</v>
       </c>
+      <c r="H31" s="3">
+        <v>45788</v>
+      </c>
+      <c r="I31" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="3">
@@ -1741,8 +1870,17 @@
       <c r="D32">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="2:4">
+      <c r="H32" s="3">
+        <v>45788</v>
+      </c>
+      <c r="I32" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33" s="3">
         <v>45790</v>
       </c>
@@ -1752,8 +1890,17 @@
       <c r="D33">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:4">
+      <c r="H33" s="3">
+        <v>45788</v>
+      </c>
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34" s="3">
         <v>45790</v>
       </c>
@@ -1764,7 +1911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:10">
       <c r="B35" s="3">
         <v>45790</v>
       </c>
@@ -1775,7 +1922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:10">
       <c r="B36" s="3">
         <v>45790</v>
       </c>
@@ -1786,12 +1933,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:10">
       <c r="B37" s="3">
         <v>45790</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:10">
       <c r="B38" s="3">
         <v>45790</v>
       </c>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubac\Documents\GitHub\AI\Projekt-Przychodnia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C268B2E-E07C-4FC5-A424-5875D0EEA96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39210" yWindow="-120" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -267,12 +273,51 @@
   </si>
   <si>
     <t>WykonaneBadaniaDTO.cs</t>
+  </si>
+  <si>
+    <t>OsobaServiceTests.cs</t>
+  </si>
+  <si>
+    <t>LekarzServiceTests.cs</t>
+  </si>
+  <si>
+    <t>BadanieServiceTests.cs</t>
+  </si>
+  <si>
+    <t>RecepcjonistkaServiceTests.cs</t>
+  </si>
+  <si>
+    <t>PacjentServiceTests</t>
+  </si>
+  <si>
+    <t>WizytaServiceTests</t>
+  </si>
+  <si>
+    <t>WykonaneBadaniaServiceTests</t>
+  </si>
+  <si>
+    <t>BadaniaService</t>
+  </si>
+  <si>
+    <t>LekarzService.cs</t>
+  </si>
+  <si>
+    <t>RecepcjonistkaService.cs</t>
+  </si>
+  <si>
+    <t>IRecepcjonistkaService.cs</t>
+  </si>
+  <si>
+    <t>IBadaniaService</t>
+  </si>
+  <si>
+    <t>ILekarzService.cs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -536,7 +581,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -545,7 +590,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -826,35 +871,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="10" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="13" max="14" width="12.5546875" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.5">
+    <row r="1" spans="1:16" ht="61.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.25">
+    <row r="2" spans="1:16" ht="23.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -862,7 +907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.5">
+    <row r="3" spans="1:16" ht="61.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -877,7 +922,7 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>353</v>
+        <v>810</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
@@ -888,30 +933,30 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1">
+    <row r="4" spans="1:16" ht="24.9" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.91841970241149307</v>
+        <v>0.74397339983374899</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.7880964597229347</v>
+        <v>1.4484621778886118</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.90559261159569004</v>
+        <v>1.6832917705735662</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.67983581323755771</v>
+        <v>0.55070656691604325</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>0.70805541303232422</v>
+        <v>0.57356608478802995</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1910,6 +1955,15 @@
       <c r="D34">
         <v>6</v>
       </c>
+      <c r="H34" s="3">
+        <v>45790</v>
+      </c>
+      <c r="I34" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34">
+        <v>50</v>
+      </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="3">
@@ -1921,6 +1975,15 @@
       <c r="D35">
         <v>6</v>
       </c>
+      <c r="H35" s="3">
+        <v>45790</v>
+      </c>
+      <c r="I35" t="s">
+        <v>81</v>
+      </c>
+      <c r="J35">
+        <v>28</v>
+      </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="3">
@@ -1932,15 +1995,174 @@
       <c r="D36">
         <v>9</v>
       </c>
+      <c r="H36" s="3">
+        <v>45790</v>
+      </c>
+      <c r="I36" t="s">
+        <v>82</v>
+      </c>
+      <c r="J36">
+        <v>28</v>
+      </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="3">
         <v>45790</v>
       </c>
+      <c r="H37" s="3">
+        <v>45790</v>
+      </c>
+      <c r="I37" t="s">
+        <v>83</v>
+      </c>
+      <c r="J37">
+        <v>44</v>
+      </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="3">
         <v>45790</v>
+      </c>
+      <c r="H38" s="3">
+        <v>45790</v>
+      </c>
+      <c r="I38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J38">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="H39" s="3">
+        <v>45790</v>
+      </c>
+      <c r="I39" t="s">
+        <v>85</v>
+      </c>
+      <c r="J39">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="H40" s="3">
+        <v>45790</v>
+      </c>
+      <c r="I40" t="s">
+        <v>86</v>
+      </c>
+      <c r="J40">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="H41" s="3">
+        <v>45790</v>
+      </c>
+      <c r="I41" t="s">
+        <v>87</v>
+      </c>
+      <c r="J41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="H42" s="3">
+        <v>45790</v>
+      </c>
+      <c r="I42" t="s">
+        <v>88</v>
+      </c>
+      <c r="J42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="H43" s="3">
+        <v>45790</v>
+      </c>
+      <c r="I43" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="H44" s="3">
+        <v>45790</v>
+      </c>
+      <c r="I44" t="s">
+        <v>89</v>
+      </c>
+      <c r="J44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="H45" s="3">
+        <v>45790</v>
+      </c>
+      <c r="I45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="H46" s="3">
+        <v>45790</v>
+      </c>
+      <c r="I46" t="s">
+        <v>91</v>
+      </c>
+      <c r="J46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="H47" s="3">
+        <v>45790</v>
+      </c>
+      <c r="I47" t="s">
+        <v>92</v>
+      </c>
+      <c r="J47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="H48" s="3">
+        <v>45790</v>
+      </c>
+      <c r="I48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10">
+      <c r="H49" s="3">
+        <v>45790</v>
+      </c>
+      <c r="I49" t="s">
+        <v>90</v>
+      </c>
+      <c r="J49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="8:10">
+      <c r="H50" s="3">
+        <v>45790</v>
+      </c>
+      <c r="I50" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubac\Documents\GitHub\AI\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C268B2E-E07C-4FC5-A424-5875D0EEA96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDA5B91-01AB-4CAC-AC59-1FA50B7E8DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="97">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -312,6 +312,18 @@
   </si>
   <si>
     <t>ILekarzService.cs</t>
+  </si>
+  <si>
+    <t>program.cs</t>
+  </si>
+  <si>
+    <t>appsettings.json</t>
+  </si>
+  <si>
+    <t>BadanieController.cs</t>
+  </si>
+  <si>
+    <t>LekarzController.cs</t>
   </si>
 </sst>
 </file>
@@ -875,31 +887,31 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" customWidth="1"/>
-    <col min="13" max="14" width="12.5546875" customWidth="1"/>
-    <col min="15" max="15" width="23.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.2">
+    <row r="1" spans="1:16" ht="61.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.4">
+    <row r="2" spans="1:16" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -907,7 +919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.2">
+    <row r="3" spans="1:16" ht="61.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -930,33 +942,33 @@
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="24.9" customHeight="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="24.95" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.74397339983374899</v>
+        <v>0.69622714896927262</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.4484621778886118</v>
+        <v>1.3555036950602879</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.6832917705735662</v>
+        <v>1.5752625437572929</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.55070656691604325</v>
+        <v>0.51536367172306496</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>0.57356608478802995</v>
+        <v>0.85764294049008172</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1578,7 +1590,15 @@
       <c r="J18">
         <v>2</v>
       </c>
-      <c r="N18" s="3"/>
+      <c r="N18" s="3">
+        <v>45793</v>
+      </c>
+      <c r="O18" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="3">
@@ -1608,7 +1628,15 @@
       <c r="J19">
         <v>5</v>
       </c>
-      <c r="N19" s="3"/>
+      <c r="N19" s="3">
+        <v>45793</v>
+      </c>
+      <c r="O19" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="3">
@@ -1638,7 +1666,15 @@
       <c r="J20">
         <v>2</v>
       </c>
-      <c r="N20" s="3"/>
+      <c r="N20" s="3">
+        <v>45793</v>
+      </c>
+      <c r="O20" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20">
+        <v>43</v>
+      </c>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="3">
@@ -1668,7 +1704,15 @@
       <c r="J21">
         <v>2</v>
       </c>
-      <c r="N21" s="3"/>
+      <c r="N21" s="3">
+        <v>45793</v>
+      </c>
+      <c r="O21" t="s">
+        <v>96</v>
+      </c>
+      <c r="P21">
+        <v>37</v>
+      </c>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="3">
@@ -1698,7 +1742,15 @@
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="N22" s="3"/>
+      <c r="N22" s="3">
+        <v>45793</v>
+      </c>
+      <c r="O22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22">
+        <v>62</v>
+      </c>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="3">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,35 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\Documents\GitHub\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDA5B91-01AB-4CAC-AC59-1FA50B7E8DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAB97D5-39BF-4474-AF77-D8085EA65BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -324,6 +311,12 @@
   </si>
   <si>
     <t>LekarzController.cs</t>
+  </si>
+  <si>
+    <t>PacjentController.cs</t>
+  </si>
+  <si>
+    <t>RecepcjonistkaController.cs</t>
   </si>
 </sst>
 </file>
@@ -887,7 +880,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -938,7 +931,7 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>265</v>
+        <v>417</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
@@ -952,23 +945,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.69622714896927262</v>
+        <v>0.65736320235034884</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.3555036950602879</v>
+        <v>1.279838413514506</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.5752625437572929</v>
+        <v>1.4873301505692251</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.51536367172306496</v>
+        <v>0.76569959603378623</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>0.85764294049008172</v>
+        <v>0.80976863753213368</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1590,6 +1583,15 @@
       <c r="J18">
         <v>2</v>
       </c>
+      <c r="K18" s="3">
+        <v>45793</v>
+      </c>
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18">
+        <v>35</v>
+      </c>
       <c r="N18" s="3">
         <v>45793</v>
       </c>
@@ -1628,6 +1630,15 @@
       <c r="J19">
         <v>5</v>
       </c>
+      <c r="K19" s="3">
+        <v>45793</v>
+      </c>
+      <c r="L19" t="s">
+        <v>97</v>
+      </c>
+      <c r="M19">
+        <v>43</v>
+      </c>
       <c r="N19" s="3">
         <v>45793</v>
       </c>
@@ -1666,6 +1677,15 @@
       <c r="J20">
         <v>2</v>
       </c>
+      <c r="K20" s="3">
+        <v>45793</v>
+      </c>
+      <c r="L20" t="s">
+        <v>98</v>
+      </c>
+      <c r="M20">
+        <v>35</v>
+      </c>
       <c r="N20" s="3">
         <v>45793</v>
       </c>
@@ -1703,6 +1723,15 @@
       </c>
       <c r="J21">
         <v>2</v>
+      </c>
+      <c r="K21" s="3">
+        <v>45793</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21">
+        <v>39</v>
       </c>
       <c r="N21" s="3">
         <v>45793</v>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAB97D5-39BF-4474-AF77-D8085EA65BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A82EF79-50E5-4133-B60B-644F79EEA4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -317,6 +317,18 @@
   </si>
   <si>
     <t>RecepcjonistkaController.cs</t>
+  </si>
+  <si>
+    <t>WykonaneBadaniaControllerTests.cs</t>
+  </si>
+  <si>
+    <t>PacjentControllerTests.cs</t>
+  </si>
+  <si>
+    <t>RecepcjonistkaControllerTests.cs</t>
+  </si>
+  <si>
+    <t>WizytaControllerTests.cs</t>
   </si>
 </sst>
 </file>
@@ -880,7 +892,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -931,7 +943,7 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>417</v>
+        <v>607</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
@@ -945,23 +957,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.65736320235034884</v>
+        <v>0.61448678338482665</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.279838413514506</v>
+        <v>1.1963611397185032</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.4873301505692251</v>
+        <v>1.3903192584963955</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.76569959603378623</v>
+        <v>1.0418812221077927</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>0.80976863753213368</v>
+        <v>0.75695159629248199</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1771,6 +1783,15 @@
       <c r="J22">
         <v>1</v>
       </c>
+      <c r="K22" s="3">
+        <v>45793</v>
+      </c>
+      <c r="L22" t="s">
+        <v>99</v>
+      </c>
+      <c r="M22">
+        <v>44</v>
+      </c>
       <c r="N22" s="3">
         <v>45793</v>
       </c>
@@ -1809,6 +1830,15 @@
       <c r="J23">
         <v>1</v>
       </c>
+      <c r="K23" s="3">
+        <v>45793</v>
+      </c>
+      <c r="L23" t="s">
+        <v>100</v>
+      </c>
+      <c r="M23">
+        <v>41</v>
+      </c>
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="2:16">
@@ -1839,6 +1869,15 @@
       <c r="J24">
         <v>18</v>
       </c>
+      <c r="K24" s="3">
+        <v>45793</v>
+      </c>
+      <c r="L24" t="s">
+        <v>101</v>
+      </c>
+      <c r="M24">
+        <v>45</v>
+      </c>
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="2:16">
@@ -1859,6 +1898,15 @@
       </c>
       <c r="J25">
         <v>13</v>
+      </c>
+      <c r="K25" s="3">
+        <v>45793</v>
+      </c>
+      <c r="L25" t="s">
+        <v>102</v>
+      </c>
+      <c r="M25">
+        <v>60</v>
       </c>
       <c r="N25" s="3"/>
     </row>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A82EF79-50E5-4133-B60B-644F79EEA4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5EF6CA-26A0-41A2-99C8-E22301BAC175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>WizytaControllerTests.cs</t>
+  </si>
+  <si>
+    <t>BadanieControllerTests.cs</t>
   </si>
 </sst>
 </file>
@@ -943,7 +946,7 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>607</v>
+        <v>662</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
@@ -957,23 +960,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.61448678338482665</v>
+        <v>0.60309973045822107</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1963611397185032</v>
+        <v>1.1741913746630728</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.3903192584963955</v>
+        <v>1.3645552560646901</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0418812221077927</v>
+        <v>1.1152291105121295</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>0.75695159629248199</v>
+        <v>0.74292452830188682</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1928,6 +1931,15 @@
       </c>
       <c r="J26">
         <v>41</v>
+      </c>
+      <c r="K26" s="3">
+        <v>45793</v>
+      </c>
+      <c r="L26" t="s">
+        <v>103</v>
+      </c>
+      <c r="M26">
+        <v>55</v>
       </c>
       <c r="N26" s="3"/>
     </row>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Documents\GitHub\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5EF6CA-26A0-41A2-99C8-E22301BAC175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8A6E4F-F6A7-4C5D-9D4A-8288B7D911D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -332,6 +345,12 @@
   </si>
   <si>
     <t>BadanieControllerTests.cs</t>
+  </si>
+  <si>
+    <t>LekarzControllerTest.cs</t>
+  </si>
+  <si>
+    <t>OsobaControllerTest.cs</t>
   </si>
 </sst>
 </file>
@@ -895,7 +914,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -950,7 +969,7 @@
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
-        <v>441</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="24.95" customHeight="1">
@@ -960,23 +979,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.60309973045822107</v>
+        <v>0.56218592964824121</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1741913746630728</v>
+        <v>1.0945351758793971</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.3645552560646901</v>
+        <v>1.2719849246231156</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1152291105121295</v>
+        <v>1.039572864321608</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>0.74292452830188682</v>
+        <v>1.0317211055276383</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1842,7 +1861,15 @@
       <c r="M23">
         <v>41</v>
       </c>
-      <c r="N23" s="3"/>
+      <c r="N23" s="3">
+        <v>45793</v>
+      </c>
+      <c r="O23" t="s">
+        <v>104</v>
+      </c>
+      <c r="P23">
+        <v>90</v>
+      </c>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="3">
@@ -1881,7 +1908,15 @@
       <c r="M24">
         <v>45</v>
       </c>
-      <c r="N24" s="3"/>
+      <c r="N24" s="3">
+        <v>45793</v>
+      </c>
+      <c r="O24" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24">
+        <v>126</v>
+      </c>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="3">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\Documents\GitHub\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8A6E4F-F6A7-4C5D-9D4A-8288B7D911D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E365F34-73FD-4B5D-A256-A64F813D9F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="107">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>OsobaControllerTest.cs</t>
+  </si>
+  <si>
+    <t>host aplikacji na serwerze</t>
   </si>
 </sst>
 </file>
@@ -913,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -953,7 +956,7 @@
       <c r="B3" s="1"/>
       <c r="D3">
         <f>SUM(D7:D1001)</f>
-        <v>358</v>
+        <v>658</v>
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
@@ -979,23 +982,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.56218592964824121</v>
+        <v>0.94431687715269808</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0945351758793971</v>
+        <v>1.0002870264064294</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2719849246231156</v>
+        <v>1.1624569460390355</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.039572864321608</v>
+        <v>0.9500574052812859</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0317211055276383</v>
+        <v>0.94288174512055112</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2183,7 +2186,13 @@
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="3">
-        <v>45790</v>
+        <v>45798</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37">
+        <v>300</v>
       </c>
       <c r="H37" s="3">
         <v>45790</v>
@@ -2196,9 +2205,7 @@
       </c>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="3">
-        <v>45790</v>
-      </c>
+      <c r="B38" s="3"/>
       <c r="H38" s="3">
         <v>45790</v>
       </c>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbist\OneDrive\Dokumenty\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E365F34-73FD-4B5D-A256-A64F813D9F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B0D325-AFC2-42F1-812C-19802F34990C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="108">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>host aplikacji na serwerze</t>
+  </si>
+  <si>
+    <t>dodanie rekordów do tabel w bazie</t>
   </si>
 </sst>
 </file>
@@ -916,32 +919,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="10" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="13" max="14" width="12.5546875" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.5">
+    <row r="1" spans="1:16" ht="61.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.25">
+    <row r="2" spans="1:16" ht="23.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -949,7 +952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.5">
+    <row r="3" spans="1:16" ht="61.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -968,37 +971,37 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
         <v>657</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1">
+    <row r="4" spans="1:16" ht="24.9" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.94431687715269808</v>
+        <v>0.93678815489749434</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0002870264064294</v>
+        <v>0.99231207289293855</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1624569460390355</v>
+        <v>1.1531890660592254</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.9500574052812859</v>
+        <v>0.98234624145785876</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>0.94288174512055112</v>
+        <v>0.93536446469248291</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1999,6 +2002,15 @@
       </c>
       <c r="J27">
         <v>17</v>
+      </c>
+      <c r="K27" s="3">
+        <v>45802</v>
+      </c>
+      <c r="L27" t="s">
+        <v>107</v>
+      </c>
+      <c r="M27">
+        <v>28</v>
       </c>
       <c r="N27" s="3"/>
     </row>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbist\OneDrive\Dokumenty\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B0D325-AFC2-42F1-812C-19802F34990C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB00356C-22B5-48D5-BA9A-B994603D9153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="109">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>dodanie rekordów do tabel w bazie</t>
+  </si>
+  <si>
+    <t>DbInit.cs</t>
   </si>
 </sst>
 </file>
@@ -919,7 +922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
@@ -971,7 +974,7 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>690</v>
+        <v>763</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
@@ -985,23 +988,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.93678815489749434</v>
+        <v>0.91771269177126913</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.99231207289293855</v>
+        <v>0.97210599721059976</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1531890660592254</v>
+        <v>1.1297071129707112</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.98234624145785876</v>
+        <v>1.0641562064156207</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>0.93536446469248291</v>
+        <v>0.91631799163179917</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1348,7 +1351,7 @@
         <v>29</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" s="3">
         <v>45756</v>
@@ -2032,6 +2035,15 @@
       </c>
       <c r="J28">
         <v>20</v>
+      </c>
+      <c r="K28" s="3">
+        <v>45805</v>
+      </c>
+      <c r="L28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M28">
+        <v>72</v>
       </c>
       <c r="N28" s="3"/>
     </row>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbist\OneDrive\Dokumenty\GitHub\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubac\Documents\GitHub\AI\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB00356C-22B5-48D5-BA9A-B994603D9153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82937333-4C98-422D-A1F2-B14F2AF415AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="111">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -360,6 +360,12 @@
   </si>
   <si>
     <t>DbInit.cs</t>
+  </si>
+  <si>
+    <t>Mapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controllers </t>
   </si>
 </sst>
 </file>
@@ -920,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -970,7 +976,7 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>810</v>
+        <v>987</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
@@ -988,23 +994,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.91771269177126913</v>
+        <v>0.87453482190324294</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.97210599721059976</v>
+        <v>0.92636895268474218</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1297071129707112</v>
+        <v>1.3118022328548644</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0641562064156207</v>
+        <v>1.0140882509303561</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>0.91631799163179917</v>
+        <v>0.87320574162679421</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2370,6 +2376,28 @@
       </c>
       <c r="J50">
         <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="8:10">
+      <c r="H51" s="3">
+        <v>45855</v>
+      </c>
+      <c r="I51" t="s">
+        <v>109</v>
+      </c>
+      <c r="J51">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="8:10">
+      <c r="H52" s="3">
+        <v>45855</v>
+      </c>
+      <c r="I52" t="s">
+        <v>110</v>
+      </c>
+      <c r="J52">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubac\Documents\GitHub\AI\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82937333-4C98-422D-A1F2-B14F2AF415AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35EED1A-7B96-46DD-8938-2B44C6EE9E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="112">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t xml:space="preserve">Controllers </t>
+  </si>
+  <si>
+    <t>Raport</t>
   </si>
 </sst>
 </file>
@@ -926,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -976,7 +979,7 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>987</v>
+        <v>1033</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
@@ -994,23 +997,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.87453482190324294</v>
+        <v>0.86397058823529416</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.92636895268474218</v>
+        <v>0.9151785714285714</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.3118022328548644</v>
+        <v>1.3563550420168067</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0140882509303561</v>
+        <v>1.0018382352941178</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>0.87320574162679421</v>
+        <v>0.86265756302521013</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2398,6 +2401,17 @@
       </c>
       <c r="J52">
         <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="8:10">
+      <c r="H53" s="3">
+        <v>45855</v>
+      </c>
+      <c r="I53" t="s">
+        <v>111</v>
+      </c>
+      <c r="J53">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubac\Documents\GitHub\AI\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35EED1A-7B96-46DD-8938-2B44C6EE9E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6989D184-16D4-4CFF-9732-24A4331ECA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="120">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -369,13 +369,37 @@
   </si>
   <si>
     <t>Raport</t>
+  </si>
+  <si>
+    <t>poprawki/deklaracje</t>
+  </si>
+  <si>
+    <t>LoginDTO.cs</t>
+  </si>
+  <si>
+    <t>RegisterDTO.cs</t>
+  </si>
+  <si>
+    <t>AuthResponseDTO.cs</t>
+  </si>
+  <si>
+    <t>ChangePasswordDTO.cs</t>
+  </si>
+  <si>
+    <t>IAuthService.cs</t>
+  </si>
+  <si>
+    <t>AuthService.cs</t>
+  </si>
+  <si>
+    <t>AuthController.cs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,11 +408,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="48"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,7 +429,8 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -422,14 +456,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -440,6 +474,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -931,32 +968,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" customWidth="1"/>
-    <col min="13" max="14" width="12.5546875" customWidth="1"/>
-    <col min="15" max="15" width="23.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.2">
+    <row r="1" spans="1:16" ht="61.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.4">
+    <row r="2" spans="1:16" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -964,7 +1001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.2">
+    <row r="3" spans="1:16" ht="61.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -987,33 +1024,33 @@
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
-        <v>657</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="24.9" customHeight="1">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="24.95" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.86397058823529416</v>
+        <v>0.78389325708839652</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.9151785714285714</v>
+        <v>0.83035501548725277</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.3563550420168067</v>
+        <v>1.2306409340004765</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0018382352941178</v>
+        <v>0.90898260662377894</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>0.86265756302521013</v>
+        <v>1.2461281868000953</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1964,7 +2001,15 @@
       <c r="M25">
         <v>60</v>
       </c>
-      <c r="N25" s="3"/>
+      <c r="N25" s="3">
+        <v>45862</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="3">
@@ -1994,7 +2039,15 @@
       <c r="M26">
         <v>55</v>
       </c>
-      <c r="N26" s="3"/>
+      <c r="N26" s="3">
+        <v>45862</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="3">
@@ -2024,7 +2077,15 @@
       <c r="M27">
         <v>28</v>
       </c>
-      <c r="N27" s="3"/>
+      <c r="N27" s="3">
+        <v>45862</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="P27">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="3">
@@ -2054,7 +2115,15 @@
       <c r="M28">
         <v>72</v>
       </c>
-      <c r="N28" s="3"/>
+      <c r="N28" s="3">
+        <v>45862</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="3">
@@ -2075,7 +2144,15 @@
       <c r="J29">
         <v>35</v>
       </c>
-      <c r="N29" s="3"/>
+      <c r="N29" s="3">
+        <v>45862</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P29">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="3">
@@ -2096,6 +2173,15 @@
       <c r="J30">
         <v>20</v>
       </c>
+      <c r="N30" s="3">
+        <v>45862</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="P30">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="3">
@@ -2116,6 +2202,15 @@
       <c r="J31">
         <v>9</v>
       </c>
+      <c r="N31" s="3">
+        <v>45862</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="P31">
+        <v>11</v>
+      </c>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="3">
@@ -2136,8 +2231,17 @@
       <c r="J32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="N32" s="3">
+        <v>45862</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="P32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
       <c r="B33" s="3">
         <v>45790</v>
       </c>
@@ -2156,8 +2260,17 @@
       <c r="J33">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="N33" s="3">
+        <v>45862</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="P33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16">
       <c r="B34" s="3">
         <v>45790</v>
       </c>
@@ -2176,8 +2289,17 @@
       <c r="J34">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="N34" s="3">
+        <v>45862</v>
+      </c>
+      <c r="O34" t="s">
+        <v>118</v>
+      </c>
+      <c r="P34">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16">
       <c r="B35" s="3">
         <v>45790</v>
       </c>
@@ -2196,8 +2318,17 @@
       <c r="J35">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="N35" s="3">
+        <v>45862</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="P35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16">
       <c r="B36" s="3">
         <v>45790</v>
       </c>
@@ -2216,8 +2347,17 @@
       <c r="J36">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="N36" s="3">
+        <v>45862</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P36">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16">
       <c r="B37" s="3">
         <v>45798</v>
       </c>
@@ -2237,7 +2377,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:16">
       <c r="B38" s="3"/>
       <c r="H38" s="3">
         <v>45790</v>
@@ -2249,7 +2389,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:16">
       <c r="H39" s="3">
         <v>45790</v>
       </c>
@@ -2260,7 +2400,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:16">
       <c r="H40" s="3">
         <v>45790</v>
       </c>
@@ -2271,7 +2411,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:16">
       <c r="H41" s="3">
         <v>45790</v>
       </c>
@@ -2282,7 +2422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:16">
       <c r="H42" s="3">
         <v>45790</v>
       </c>
@@ -2293,7 +2433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:16">
       <c r="H43" s="3">
         <v>45790</v>
       </c>
@@ -2304,7 +2444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:16">
       <c r="H44" s="3">
         <v>45790</v>
       </c>
@@ -2315,7 +2455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:16">
       <c r="H45" s="3">
         <v>45790</v>
       </c>
@@ -2326,7 +2466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:16">
       <c r="H46" s="3">
         <v>45790</v>
       </c>
@@ -2337,7 +2477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:16">
       <c r="H47" s="3">
         <v>45790</v>
       </c>
@@ -2348,7 +2488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:16">
       <c r="H48" s="3">
         <v>45790</v>
       </c>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\Documents\GitHub\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6989D184-16D4-4CFF-9732-24A4331ECA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CB40C3-158A-4295-A749-8A9C4EBB88C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39210" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="126">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -393,6 +393,24 @@
   </si>
   <si>
     <t>AuthController.cs</t>
+  </si>
+  <si>
+    <t>PdfGenratorService</t>
+  </si>
+  <si>
+    <t>wykonaneBadaniaService</t>
+  </si>
+  <si>
+    <t>wykonaneBadania.cs</t>
+  </si>
+  <si>
+    <t>wykonaneBadaniaDTO</t>
+  </si>
+  <si>
+    <t>DBInit.cs</t>
+  </si>
+  <si>
+    <t>wykonaneBadaniaControler</t>
   </si>
 </sst>
 </file>
@@ -469,14 +487,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1008,7 +1026,7 @@
       <c r="B3" s="1"/>
       <c r="D3">
         <f>SUM(D7:D1001)</f>
-        <v>658</v>
+        <v>725</v>
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
@@ -1034,51 +1052,51 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.78389325708839652</v>
+        <v>0.85014071294559101</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.83035501548725277</v>
+        <v>0.81730769230769229</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2306409340004765</v>
+        <v>1.2113039399624765</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.90898260662377894</v>
+        <v>0.89469981238273921</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2461281868000953</v>
+        <v>1.2265478424015008</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" t="s">
@@ -2004,7 +2022,7 @@
       <c r="N25" s="3">
         <v>45862</v>
       </c>
-      <c r="O25" s="6" t="s">
+      <c r="O25" s="4" t="s">
         <v>35</v>
       </c>
       <c r="P25">
@@ -2042,7 +2060,7 @@
       <c r="N26" s="3">
         <v>45862</v>
       </c>
-      <c r="O26" s="6" t="s">
+      <c r="O26" s="4" t="s">
         <v>42</v>
       </c>
       <c r="P26">
@@ -2080,7 +2098,7 @@
       <c r="N27" s="3">
         <v>45862</v>
       </c>
-      <c r="O27" s="6" t="s">
+      <c r="O27" s="4" t="s">
         <v>112</v>
       </c>
       <c r="P27">
@@ -2118,7 +2136,7 @@
       <c r="N28" s="3">
         <v>45862</v>
       </c>
-      <c r="O28" s="6" t="s">
+      <c r="O28" s="4" t="s">
         <v>94</v>
       </c>
       <c r="P28">
@@ -2147,7 +2165,7 @@
       <c r="N29" s="3">
         <v>45862</v>
       </c>
-      <c r="O29" s="6" t="s">
+      <c r="O29" s="4" t="s">
         <v>113</v>
       </c>
       <c r="P29">
@@ -2176,7 +2194,7 @@
       <c r="N30" s="3">
         <v>45862</v>
       </c>
-      <c r="O30" s="6" t="s">
+      <c r="O30" s="4" t="s">
         <v>114</v>
       </c>
       <c r="P30">
@@ -2205,7 +2223,7 @@
       <c r="N31" s="3">
         <v>45862</v>
       </c>
-      <c r="O31" s="6" t="s">
+      <c r="O31" s="4" t="s">
         <v>115</v>
       </c>
       <c r="P31">
@@ -2234,7 +2252,7 @@
       <c r="N32" s="3">
         <v>45862</v>
       </c>
-      <c r="O32" s="6" t="s">
+      <c r="O32" s="4" t="s">
         <v>116</v>
       </c>
       <c r="P32">
@@ -2263,7 +2281,7 @@
       <c r="N33" s="3">
         <v>45862</v>
       </c>
-      <c r="O33" s="6" t="s">
+      <c r="O33" s="4" t="s">
         <v>117</v>
       </c>
       <c r="P33">
@@ -2321,7 +2339,7 @@
       <c r="N35" s="3">
         <v>45862</v>
       </c>
-      <c r="O35" s="6" t="s">
+      <c r="O35" s="4" t="s">
         <v>93</v>
       </c>
       <c r="P35">
@@ -2350,7 +2368,7 @@
       <c r="N36" s="3">
         <v>45862</v>
       </c>
-      <c r="O36" s="6" t="s">
+      <c r="O36" s="4" t="s">
         <v>119</v>
       </c>
       <c r="P36">
@@ -2378,7 +2396,15 @@
       </c>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="3"/>
+      <c r="B38" s="3">
+        <v>45874</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38">
+        <v>28</v>
+      </c>
       <c r="H38" s="3">
         <v>45790</v>
       </c>
@@ -2390,6 +2416,15 @@
       </c>
     </row>
     <row r="39" spans="2:16">
+      <c r="B39" s="3">
+        <v>45874</v>
+      </c>
+      <c r="C39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39">
+        <v>25</v>
+      </c>
       <c r="H39" s="3">
         <v>45790</v>
       </c>
@@ -2401,6 +2436,15 @@
       </c>
     </row>
     <row r="40" spans="2:16">
+      <c r="B40" s="3">
+        <v>45874</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
       <c r="H40" s="3">
         <v>45790</v>
       </c>
@@ -2412,6 +2456,15 @@
       </c>
     </row>
     <row r="41" spans="2:16">
+      <c r="B41" s="3">
+        <v>45874</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
       <c r="H41" s="3">
         <v>45790</v>
       </c>
@@ -2423,6 +2476,15 @@
       </c>
     </row>
     <row r="42" spans="2:16">
+      <c r="B42" s="3">
+        <v>45874</v>
+      </c>
+      <c r="C42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
       <c r="H42" s="3">
         <v>45790</v>
       </c>
@@ -2434,6 +2496,15 @@
       </c>
     </row>
     <row r="43" spans="2:16">
+      <c r="B43" s="3">
+        <v>45874</v>
+      </c>
+      <c r="C43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
       <c r="H43" s="3">
         <v>45790</v>
       </c>
@@ -2445,6 +2516,15 @@
       </c>
     </row>
     <row r="44" spans="2:16">
+      <c r="B44" s="3">
+        <v>45874</v>
+      </c>
+      <c r="C44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
       <c r="H44" s="3">
         <v>45790</v>
       </c>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Projekt-Przychodnia\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CB40C3-158A-4295-A749-8A9C4EBB88C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39210" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39210" yWindow="-120" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="129">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -411,12 +405,21 @@
   </si>
   <si>
     <t>wykonaneBadaniaControler</t>
+  </si>
+  <si>
+    <t>LekarzRepository.cs</t>
+  </si>
+  <si>
+    <t>BadanieDTO.cs</t>
+  </si>
+  <si>
+    <t>ILekarzRepository.cs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -474,7 +477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -495,6 +498,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,7 +699,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -702,7 +708,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -983,11 +989,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1030,7 +1036,7 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>697</v>
+        <v>740</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
@@ -1052,23 +1058,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.85014071294559101</v>
+        <v>0.84165312282331084</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.81730769230769229</v>
+        <v>0.85906663570931041</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2113039399624765</v>
+        <v>1.1992105874158348</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.89469981238273921</v>
+        <v>0.88576735546784302</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2265478424015008</v>
+        <v>1.2143022985837009</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2001,6 +2007,15 @@
       <c r="D25">
         <v>10</v>
       </c>
+      <c r="E25" s="7">
+        <v>45879</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
       <c r="H25" s="3">
         <v>45784</v>
       </c>
@@ -2039,6 +2054,15 @@
       <c r="D26">
         <v>6</v>
       </c>
+      <c r="E26" s="3">
+        <v>45879</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
       <c r="H26" s="3">
         <v>45784</v>
       </c>
@@ -2077,6 +2101,15 @@
       <c r="D27">
         <v>11</v>
       </c>
+      <c r="E27" s="3">
+        <v>45879</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
       <c r="H27" s="3">
         <v>45784</v>
       </c>
@@ -2115,6 +2148,15 @@
       <c r="D28">
         <v>6</v>
       </c>
+      <c r="E28" s="3">
+        <v>45879</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
       <c r="H28" s="3">
         <v>45788</v>
       </c>
@@ -2153,6 +2195,15 @@
       <c r="D29">
         <v>11</v>
       </c>
+      <c r="E29" s="3">
+        <v>45879</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
       <c r="H29" s="3">
         <v>45788</v>
       </c>
@@ -2182,6 +2233,15 @@
       <c r="D30">
         <v>6</v>
       </c>
+      <c r="E30" s="3">
+        <v>45879</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
       <c r="H30" s="3">
         <v>45788</v>
       </c>
@@ -2211,6 +2271,15 @@
       <c r="D31">
         <v>11</v>
       </c>
+      <c r="E31" s="3">
+        <v>45879</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31">
+        <v>19</v>
+      </c>
       <c r="H31" s="3">
         <v>45788</v>
       </c>
@@ -2239,6 +2308,15 @@
       </c>
       <c r="D32">
         <v>6</v>
+      </c>
+      <c r="E32" s="3">
+        <v>45879</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
       </c>
       <c r="H32" s="3">
         <v>45788</v>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="155">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -414,13 +414,91 @@
   </si>
   <si>
     <t>ILekarzRepository.cs</t>
+  </si>
+  <si>
+    <t>app.config.ts</t>
+  </si>
+  <si>
+    <t>app.routes.ts</t>
+  </si>
+  <si>
+    <t>badanie-edit.component.html</t>
+  </si>
+  <si>
+    <t>badanie-edit.component.ts</t>
+  </si>
+  <si>
+    <t>harmonogram.component.html</t>
+  </si>
+  <si>
+    <t>harmonogram.component.ts</t>
+  </si>
+  <si>
+    <t>wizyty-anulowane.component.html</t>
+  </si>
+  <si>
+    <t>wizyty-anulowane.component.ts</t>
+  </si>
+  <si>
+    <t>badanie.model.ts</t>
+  </si>
+  <si>
+    <t>harmonogram.model.ts</t>
+  </si>
+  <si>
+    <t>lekarz.model.ts</t>
+  </si>
+  <si>
+    <t>wizyta.model.ts</t>
+  </si>
+  <si>
+    <t>badanie.service.ts</t>
+  </si>
+  <si>
+    <t>harmonogram.service.ts</t>
+  </si>
+  <si>
+    <t>lekarz.service.ts</t>
+  </si>
+  <si>
+    <t>wizyty.service.ts</t>
+  </si>
+  <si>
+    <t>HarmonogramService.cs</t>
+  </si>
+  <si>
+    <t>HarmonogramRepository.cs</t>
+  </si>
+  <si>
+    <t>HarmonogramDTO.cs</t>
+  </si>
+  <si>
+    <t>IHarmonogramService.cs</t>
+  </si>
+  <si>
+    <t>IHarmonogramRepository.cs</t>
+  </si>
+  <si>
+    <t>Harmonogram.cs</t>
+  </si>
+  <si>
+    <t>HarmonogramController.cs</t>
+  </si>
+  <si>
+    <t>lekarz.component.css</t>
+  </si>
+  <si>
+    <t>lekarz.component.html</t>
+  </si>
+  <si>
+    <t>lekarz.component.ts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +532,13 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -477,7 +562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -493,13 +578,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -990,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1036,7 +1124,7 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>740</v>
+        <v>1036</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
@@ -1058,51 +1146,51 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.84165312282331084</v>
+        <v>0.78752987182272427</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.85906663570931041</v>
+        <v>1.1253530306321964</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1992105874158348</v>
+        <v>1.122094286334999</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.88576735546784302</v>
+        <v>0.82880729958722577</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2143022985837009</v>
+        <v>1.1362155116228547</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6" t="s">
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" t="s">
@@ -2007,7 +2095,7 @@
       <c r="D25">
         <v>10</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>45879</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -2347,6 +2435,15 @@
       <c r="D33">
         <v>11</v>
       </c>
+      <c r="E33" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
       <c r="H33" s="3">
         <v>45788</v>
       </c>
@@ -2376,6 +2473,15 @@
       <c r="D34">
         <v>6</v>
       </c>
+      <c r="E34" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
       <c r="H34" s="3">
         <v>45790</v>
       </c>
@@ -2405,6 +2511,15 @@
       <c r="D35">
         <v>6</v>
       </c>
+      <c r="E35" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
       <c r="H35" s="3">
         <v>45790</v>
       </c>
@@ -2433,6 +2548,15 @@
       </c>
       <c r="D36">
         <v>9</v>
+      </c>
+      <c r="E36" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F36" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36">
+        <v>16</v>
       </c>
       <c r="H36" s="3">
         <v>45790</v>
@@ -2463,6 +2587,15 @@
       <c r="D37">
         <v>300</v>
       </c>
+      <c r="E37" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F37" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
       <c r="H37" s="3">
         <v>45790</v>
       </c>
@@ -2483,6 +2616,15 @@
       <c r="D38">
         <v>28</v>
       </c>
+      <c r="E38" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F38" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38">
+        <v>9</v>
+      </c>
       <c r="H38" s="3">
         <v>45790</v>
       </c>
@@ -2503,6 +2645,15 @@
       <c r="D39">
         <v>25</v>
       </c>
+      <c r="E39" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F39" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39">
+        <v>9</v>
+      </c>
       <c r="H39" s="3">
         <v>45790</v>
       </c>
@@ -2523,6 +2674,15 @@
       <c r="D40">
         <v>2</v>
       </c>
+      <c r="E40" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F40" t="s">
+        <v>136</v>
+      </c>
+      <c r="G40">
+        <v>9</v>
+      </c>
       <c r="H40" s="3">
         <v>45790</v>
       </c>
@@ -2543,6 +2703,15 @@
       <c r="D41">
         <v>2</v>
       </c>
+      <c r="E41" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
       <c r="H41" s="3">
         <v>45790</v>
       </c>
@@ -2563,6 +2732,15 @@
       <c r="D42">
         <v>2</v>
       </c>
+      <c r="E42" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F42" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
       <c r="H42" s="3">
         <v>45790</v>
       </c>
@@ -2583,6 +2761,15 @@
       <c r="D43">
         <v>4</v>
       </c>
+      <c r="E43" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F43" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
       <c r="H43" s="3">
         <v>45790</v>
       </c>
@@ -2603,6 +2790,15 @@
       <c r="D44">
         <v>4</v>
       </c>
+      <c r="E44" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
       <c r="H44" s="3">
         <v>45790</v>
       </c>
@@ -2614,6 +2810,15 @@
       </c>
     </row>
     <row r="45" spans="2:16">
+      <c r="E45" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F45" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45">
+        <v>7</v>
+      </c>
       <c r="H45" s="3">
         <v>45790</v>
       </c>
@@ -2625,6 +2830,15 @@
       </c>
     </row>
     <row r="46" spans="2:16">
+      <c r="E46" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
       <c r="H46" s="3">
         <v>45790</v>
       </c>
@@ -2636,6 +2850,15 @@
       </c>
     </row>
     <row r="47" spans="2:16">
+      <c r="E47" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F47" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
       <c r="H47" s="3">
         <v>45790</v>
       </c>
@@ -2647,6 +2870,15 @@
       </c>
     </row>
     <row r="48" spans="2:16">
+      <c r="E48" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F48" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
       <c r="H48" s="3">
         <v>45790</v>
       </c>
@@ -2657,7 +2889,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="8:10">
+    <row r="49" spans="5:10">
+      <c r="E49" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F49" t="s">
+        <v>145</v>
+      </c>
+      <c r="G49">
+        <v>47</v>
+      </c>
       <c r="H49" s="3">
         <v>45790</v>
       </c>
@@ -2668,7 +2909,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="8:10">
+    <row r="50" spans="5:10">
+      <c r="E50" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F50" t="s">
+        <v>146</v>
+      </c>
+      <c r="G50">
+        <v>18</v>
+      </c>
       <c r="H50" s="3">
         <v>45790</v>
       </c>
@@ -2679,7 +2929,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="8:10">
+    <row r="51" spans="5:10">
+      <c r="E51" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F51" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
       <c r="H51" s="3">
         <v>45855</v>
       </c>
@@ -2690,7 +2949,16 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="8:10">
+    <row r="52" spans="5:10">
+      <c r="E52" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F52" t="s">
+        <v>148</v>
+      </c>
+      <c r="G52">
+        <v>8</v>
+      </c>
       <c r="H52" s="3">
         <v>45855</v>
       </c>
@@ -2701,7 +2969,16 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="8:10">
+    <row r="53" spans="5:10">
+      <c r="E53" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F53" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53">
+        <v>7</v>
+      </c>
       <c r="H53" s="3">
         <v>45855</v>
       </c>
@@ -2710,6 +2987,83 @@
       </c>
       <c r="J53">
         <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="5:10">
+      <c r="E54" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="5:10">
+      <c r="E55" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="5:10">
+      <c r="E56" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G56">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="5:10">
+      <c r="E57" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F57" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="5:10">
+      <c r="E58" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G58">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="5:10">
+      <c r="E59" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="5:10">
+      <c r="E60" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Documents\GitHub\Projekt-Przychodnia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C05309-8D23-4B82-B84D-2B013FB53DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39210" yWindow="-120" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="156">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -492,12 +485,15 @@
   </si>
   <si>
     <t>lekarz.component.ts</t>
+  </si>
+  <si>
+    <t>MockWizytaRepository.cs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -581,14 +577,14 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,7 +783,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -796,7 +792,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -1077,11 +1073,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1132,7 +1128,7 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
@@ -1146,51 +1142,51 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.78752987182272427</v>
+        <v>0.78497184928540498</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1253530306321964</v>
+        <v>1.1216977046340406</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.122094286334999</v>
+        <v>1.1184495452576872</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.82880729958722577</v>
+        <v>0.84235599826764829</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1362155116228547</v>
+        <v>1.1325249025552186</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7" t="s">
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" t="s">
@@ -1462,7 +1458,7 @@
         <v>28</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" s="3">
         <v>45756</v>
@@ -2301,6 +2297,15 @@
       <c r="J29">
         <v>35</v>
       </c>
+      <c r="K29" s="3">
+        <v>45878</v>
+      </c>
+      <c r="L29" t="s">
+        <v>155</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
       <c r="N29" s="3">
         <v>45862</v>
       </c>
@@ -2339,6 +2344,15 @@
       <c r="J30">
         <v>20</v>
       </c>
+      <c r="K30" s="3">
+        <v>45878</v>
+      </c>
+      <c r="L30" t="s">
+        <v>38</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
       <c r="N30" s="3">
         <v>45862</v>
       </c>
@@ -2377,6 +2391,15 @@
       <c r="J31">
         <v>9</v>
       </c>
+      <c r="K31" s="3">
+        <v>45878</v>
+      </c>
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31">
+        <v>4</v>
+      </c>
       <c r="N31" s="3">
         <v>45862</v>
       </c>
@@ -2415,6 +2438,15 @@
       <c r="J32">
         <v>3</v>
       </c>
+      <c r="K32" s="3">
+        <v>45878</v>
+      </c>
+      <c r="L32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
       <c r="N32" s="3">
         <v>45862</v>
       </c>
@@ -2452,6 +2484,15 @@
       </c>
       <c r="J33">
         <v>6</v>
+      </c>
+      <c r="K33" s="3">
+        <v>45878</v>
+      </c>
+      <c r="L33" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
       </c>
       <c r="N33" s="3">
         <v>45862</v>
@@ -3037,7 +3078,7 @@
       <c r="E58" s="3">
         <v>45880</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="6" t="s">
         <v>152</v>
       </c>
       <c r="G58">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Documents\GitHub\Projekt-Przychodnia\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C05309-8D23-4B82-B84D-2B013FB53DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="158">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -488,12 +482,18 @@
   </si>
   <si>
     <t>MockWizytaRepository.cs</t>
+  </si>
+  <si>
+    <t>harmonogram.component.css</t>
+  </si>
+  <si>
+    <t>Mapper.cs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -783,7 +783,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -792,7 +792,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -1073,11 +1073,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>1036</v>
+        <v>1236</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
@@ -1142,23 +1142,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.78497184928540498</v>
+        <v>0.75238688252386887</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1216977046340406</v>
+        <v>1.2826899128268991</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1184495452576872</v>
+        <v>1.0720215857202158</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.84235599826764829</v>
+        <v>0.80738895807388955</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1325249025552186</v>
+        <v>1.0855126608551267</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3105,6 +3105,72 @@
       </c>
       <c r="G60">
         <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="5:10">
+      <c r="E61" s="3">
+        <v>45881</v>
+      </c>
+      <c r="F61" t="s">
+        <v>156</v>
+      </c>
+      <c r="G61">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="5:10">
+      <c r="E62" s="3">
+        <v>45881</v>
+      </c>
+      <c r="F62" t="s">
+        <v>133</v>
+      </c>
+      <c r="G62">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="5:10">
+      <c r="E63" s="3">
+        <v>45881</v>
+      </c>
+      <c r="F63" t="s">
+        <v>134</v>
+      </c>
+      <c r="G63">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="5:10">
+      <c r="E64" s="3">
+        <v>45881</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G64">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7">
+      <c r="E65" s="3">
+        <v>45881</v>
+      </c>
+      <c r="F65" t="s">
+        <v>142</v>
+      </c>
+      <c r="G65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7">
+      <c r="E66" s="3">
+        <v>45881</v>
+      </c>
+      <c r="F66" t="s">
+        <v>157</v>
+      </c>
+      <c r="G66">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="162">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -488,13 +488,25 @@
   </si>
   <si>
     <t>Mapper.cs</t>
+  </si>
+  <si>
+    <t>badania.component.css</t>
+  </si>
+  <si>
+    <t>badania.component.html</t>
+  </si>
+  <si>
+    <t>badania.component.ts</t>
+  </si>
+  <si>
+    <t>badanie-edit.component.css</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,6 +547,13 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -558,7 +577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -585,6 +604,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1074,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1120,7 +1142,7 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>1236</v>
+        <v>1389</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
@@ -1142,23 +1164,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.75238688252386887</v>
+        <v>0.72922953128143231</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2826899128268991</v>
+        <v>1.3971031985515994</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0720215857202158</v>
+        <v>1.0390263528465098</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.80738895807388955</v>
+        <v>0.78253872460269569</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0855126608551267</v>
+        <v>1.052102192717763</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3172,6 +3194,156 @@
       <c r="G66">
         <v>16</v>
       </c>
+    </row>
+    <row r="67" spans="5:7">
+      <c r="E67" s="3">
+        <v>45882</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G67">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7">
+      <c r="E68" s="3">
+        <v>45882</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G68">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7">
+      <c r="E69" s="3">
+        <v>45882</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7">
+      <c r="E70" s="3">
+        <v>45882</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G70">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7">
+      <c r="E71" s="3">
+        <v>45882</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7">
+      <c r="E72" s="3">
+        <v>45882</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G72">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="5:7">
+      <c r="E73" s="3">
+        <v>45882</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7">
+      <c r="E74" s="3">
+        <v>45882</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7">
+      <c r="E75" s="3">
+        <v>45882</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7">
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="5:7">
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="5:7">
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="5:7">
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="5:7">
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="6:6">
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="6:6">
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="6:6">
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="6:6">
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="6:6">
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="6:6">
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="6:6">
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="6:6">
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="6:6">
+      <c r="F92" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="168">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -500,6 +500,24 @@
   </si>
   <si>
     <t>badanie-edit.component.css</t>
+  </si>
+  <si>
+    <t>lekarz-home.component.css</t>
+  </si>
+  <si>
+    <t>lekarz-home.component.html</t>
+  </si>
+  <si>
+    <t>wizyty-anulowane.component.css</t>
+  </si>
+  <si>
+    <t>wizyty.component.css</t>
+  </si>
+  <si>
+    <t>wizyty.component.html</t>
+  </si>
+  <si>
+    <t>wizyty.component.ts</t>
   </si>
 </sst>
 </file>
@@ -599,14 +617,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1098,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1142,7 +1160,7 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>1389</v>
+        <v>1506</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
@@ -1164,51 +1182,51 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.72922953128143231</v>
+        <v>0.71246069182389937</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.3971031985515994</v>
+        <v>1.4799528301886793</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0390263528465098</v>
+        <v>1.015133647798742</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.78253872460269569</v>
+        <v>0.76454402515723274</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.052102192717763</v>
+        <v>1.0279088050314464</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8" t="s">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" t="s">
@@ -3199,7 +3217,7 @@
       <c r="E67" s="3">
         <v>45882</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="7" t="s">
         <v>158</v>
       </c>
       <c r="G67">
@@ -3210,7 +3228,7 @@
       <c r="E68" s="3">
         <v>45882</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="7" t="s">
         <v>159</v>
       </c>
       <c r="G68">
@@ -3221,7 +3239,7 @@
       <c r="E69" s="3">
         <v>45882</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="7" t="s">
         <v>160</v>
       </c>
       <c r="G69">
@@ -3232,7 +3250,7 @@
       <c r="E70" s="3">
         <v>45882</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="7" t="s">
         <v>161</v>
       </c>
       <c r="G70">
@@ -3243,7 +3261,7 @@
       <c r="E71" s="3">
         <v>45882</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="7" t="s">
         <v>131</v>
       </c>
       <c r="G71">
@@ -3254,7 +3272,7 @@
       <c r="E72" s="3">
         <v>45882</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="F72" s="7" t="s">
         <v>132</v>
       </c>
       <c r="G72">
@@ -3265,7 +3283,7 @@
       <c r="E73" s="3">
         <v>45882</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F73" s="7" t="s">
         <v>141</v>
       </c>
       <c r="G73">
@@ -3276,7 +3294,7 @@
       <c r="E74" s="3">
         <v>45882</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="7" t="s">
         <v>127</v>
       </c>
       <c r="G74">
@@ -3287,7 +3305,7 @@
       <c r="E75" s="3">
         <v>45882</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F75" s="7" t="s">
         <v>157</v>
       </c>
       <c r="G75">
@@ -3295,54 +3313,134 @@
       </c>
     </row>
     <row r="76" spans="5:7">
-      <c r="F76" s="4"/>
+      <c r="E76" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
     </row>
     <row r="77" spans="5:7">
-      <c r="F77" s="4"/>
+      <c r="E77" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G77">
+        <v>12</v>
+      </c>
     </row>
     <row r="78" spans="5:7">
-      <c r="F78" s="4"/>
+      <c r="E78" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
     </row>
     <row r="79" spans="5:7">
-      <c r="F79" s="4"/>
+      <c r="E79" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G79">
+        <v>30</v>
+      </c>
     </row>
     <row r="80" spans="5:7">
-      <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="6:6">
-      <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="6:6">
-      <c r="F82" s="4"/>
-    </row>
-    <row r="83" spans="6:6">
-      <c r="F83" s="4"/>
-    </row>
-    <row r="84" spans="6:6">
-      <c r="F84" s="4"/>
-    </row>
-    <row r="85" spans="6:6">
-      <c r="F85" s="4"/>
-    </row>
-    <row r="86" spans="6:6">
+      <c r="E80" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7">
+      <c r="E81" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7">
+      <c r="E82" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G82">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7">
+      <c r="E83" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G83">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7">
+      <c r="E84" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7">
+      <c r="E85" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7">
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="6:6">
+    <row r="87" spans="5:7">
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="6:6">
+    <row r="88" spans="5:7">
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="6:6">
+    <row r="89" spans="5:7">
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="6:6">
+    <row r="90" spans="5:7">
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="6:6">
+    <row r="91" spans="5:7">
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="6:6">
+    <row r="92" spans="5:7">
       <c r="F92" s="4"/>
     </row>
   </sheetData>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="169">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>wizyty.component.ts</t>
+  </si>
+  <si>
+    <t>home.component.css</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P92"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1160,7 +1163,7 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>1506</v>
+        <v>1599</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
@@ -1182,23 +1185,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.71246069182389937</v>
+        <v>0.69967187801582709</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.4799528301886793</v>
+        <v>1.5431383902721483</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.015133647798742</v>
+        <v>0.996911793090137</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.76454402515723274</v>
+        <v>0.75082030496043239</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0279088050314464</v>
+        <v>1.0094576336614554</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3423,25 +3426,109 @@
       </c>
     </row>
     <row r="86" spans="5:7">
-      <c r="F86" s="4"/>
+      <c r="E86" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G86">
+        <v>13</v>
+      </c>
     </row>
     <row r="87" spans="5:7">
-      <c r="F87" s="4"/>
+      <c r="E87" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G87">
+        <v>4</v>
+      </c>
     </row>
     <row r="88" spans="5:7">
-      <c r="F88" s="4"/>
+      <c r="E88" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G88">
+        <v>37</v>
+      </c>
     </row>
     <row r="89" spans="5:7">
-      <c r="F89" s="4"/>
+      <c r="E89" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G89">
+        <v>11</v>
+      </c>
     </row>
     <row r="90" spans="5:7">
-      <c r="F90" s="4"/>
+      <c r="E90" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G90">
+        <v>5</v>
+      </c>
     </row>
     <row r="91" spans="5:7">
-      <c r="F91" s="4"/>
+      <c r="E91" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
     </row>
     <row r="92" spans="5:7">
-      <c r="F92" s="4"/>
+      <c r="E92" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7">
+      <c r="E93" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7">
+      <c r="E94" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="5:7">
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="5:7">
+      <c r="E96" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Projekt-Przychodnia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A438CFAD-5FD0-42BB-823C-29CA05120640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="39210" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="169">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -526,7 +545,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -826,7 +845,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -835,7 +854,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -1116,11 +1135,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1159,7 +1178,7 @@
       <c r="B3" s="1"/>
       <c r="D3">
         <f>SUM(D7:D1001)</f>
-        <v>725</v>
+        <v>756</v>
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
@@ -1185,23 +1204,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.69967187801582709</v>
+        <v>0.72524942440521878</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.5431383902721483</v>
+        <v>1.533960092095165</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.996911793090137</v>
+        <v>0.99098234842670763</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.75082030496043239</v>
+        <v>0.74635456638526476</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0094576336614554</v>
+        <v>1.0034535686876438</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2894,6 +2913,12 @@
       </c>
     </row>
     <row r="45" spans="2:16">
+      <c r="C45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
       <c r="E45" s="3">
         <v>45880</v>
       </c>
@@ -2914,6 +2939,12 @@
       </c>
     </row>
     <row r="46" spans="2:16">
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
       <c r="E46" s="3">
         <v>45880</v>
       </c>
@@ -2934,6 +2965,12 @@
       </c>
     </row>
     <row r="47" spans="2:16">
+      <c r="C47" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
       <c r="E47" s="3">
         <v>45880</v>
       </c>
@@ -2954,6 +2991,12 @@
       </c>
     </row>
     <row r="48" spans="2:16">
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
       <c r="E48" s="3">
         <v>45880</v>
       </c>
@@ -2973,7 +3016,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="5:10">
+    <row r="49" spans="3:10">
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <v>14</v>
+      </c>
       <c r="E49" s="3">
         <v>45880</v>
       </c>
@@ -2993,7 +3042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="5:10">
+    <row r="50" spans="3:10">
       <c r="E50" s="3">
         <v>45880</v>
       </c>
@@ -3013,7 +3062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="5:10">
+    <row r="51" spans="3:10">
       <c r="E51" s="3">
         <v>45880</v>
       </c>
@@ -3033,7 +3082,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="5:10">
+    <row r="52" spans="3:10">
       <c r="E52" s="3">
         <v>45880</v>
       </c>
@@ -3053,7 +3102,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="5:10">
+    <row r="53" spans="3:10">
       <c r="E53" s="3">
         <v>45880</v>
       </c>
@@ -3073,7 +3122,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="5:10">
+    <row r="54" spans="3:10">
       <c r="E54" s="3">
         <v>45880</v>
       </c>
@@ -3084,7 +3133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="5:10">
+    <row r="55" spans="3:10">
       <c r="E55" s="3">
         <v>45880</v>
       </c>
@@ -3095,7 +3144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="5:10">
+    <row r="56" spans="3:10">
       <c r="E56" s="3">
         <v>45880</v>
       </c>
@@ -3106,7 +3155,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="5:10">
+    <row r="57" spans="3:10">
       <c r="E57" s="3">
         <v>45880</v>
       </c>
@@ -3117,7 +3166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="5:10">
+    <row r="58" spans="3:10">
       <c r="E58" s="3">
         <v>45880</v>
       </c>
@@ -3128,7 +3177,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="5:10">
+    <row r="59" spans="3:10">
       <c r="E59" s="3">
         <v>45880</v>
       </c>
@@ -3139,7 +3188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="5:10">
+    <row r="60" spans="3:10">
       <c r="E60" s="3">
         <v>45880</v>
       </c>
@@ -3150,7 +3199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="5:10">
+    <row r="61" spans="3:10">
       <c r="E61" s="3">
         <v>45881</v>
       </c>
@@ -3161,7 +3210,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="5:10">
+    <row r="62" spans="3:10">
       <c r="E62" s="3">
         <v>45881</v>
       </c>
@@ -3172,7 +3221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="5:10">
+    <row r="63" spans="3:10">
       <c r="E63" s="3">
         <v>45881</v>
       </c>
@@ -3183,7 +3232,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="5:10">
+    <row r="64" spans="3:10">
       <c r="E64" s="3">
         <v>45881</v>
       </c>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Documents\GitHub\Projekt-Przychodnia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B525A51-AA8A-4ED0-AC63-267095BB0AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="170">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -521,12 +527,15 @@
   </si>
   <si>
     <t>home.component.css</t>
+  </si>
+  <si>
+    <t>HarmonogramControllerTest.cs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -826,7 +835,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -835,7 +844,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -1116,11 +1125,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1171,7 +1180,7 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>778</v>
+        <v>848</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
@@ -1185,23 +1194,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.69967187801582709</v>
+        <v>0.69034469624833361</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.5431383902721483</v>
+        <v>1.5225671300704628</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.996911793090137</v>
+        <v>0.9836221672062464</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.75082030496043239</v>
+        <v>0.80746524471529235</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0094576336614554</v>
+        <v>0.99600076175966479</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2575,6 +2584,15 @@
       <c r="J34">
         <v>50</v>
       </c>
+      <c r="K34" s="3">
+        <v>45887</v>
+      </c>
+      <c r="L34" t="s">
+        <v>102</v>
+      </c>
+      <c r="M34">
+        <v>10</v>
+      </c>
       <c r="N34" s="3">
         <v>45862</v>
       </c>
@@ -2613,6 +2631,15 @@
       <c r="J35">
         <v>28</v>
       </c>
+      <c r="K35" s="3">
+        <v>45887</v>
+      </c>
+      <c r="L35" t="s">
+        <v>169</v>
+      </c>
+      <c r="M35">
+        <v>48</v>
+      </c>
       <c r="N35" s="3">
         <v>45862</v>
       </c>
@@ -2651,6 +2678,15 @@
       <c r="J36">
         <v>28</v>
       </c>
+      <c r="K36" s="3">
+        <v>45887</v>
+      </c>
+      <c r="L36" t="s">
+        <v>145</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
       <c r="N36" s="3">
         <v>45862</v>
       </c>
@@ -2689,6 +2725,15 @@
       <c r="J37">
         <v>44</v>
       </c>
+      <c r="K37" s="3">
+        <v>45887</v>
+      </c>
+      <c r="L37" t="s">
+        <v>151</v>
+      </c>
+      <c r="M37">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="3">
@@ -2718,6 +2763,15 @@
       <c r="J38">
         <v>52</v>
       </c>
+      <c r="K38" s="3">
+        <v>45887</v>
+      </c>
+      <c r="L38" t="s">
+        <v>155</v>
+      </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="3">
@@ -2747,6 +2801,7 @@
       <c r="J39">
         <v>75</v>
       </c>
+      <c r="K39" s="3"/>
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="3">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,35 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A438CFAD-5FD0-42BB-823C-29CA05120640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D37B46-B831-424C-B5C5-04E573997FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39210" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="170">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -540,6 +527,9 @@
   </si>
   <si>
     <t>home.component.css</t>
+  </si>
+  <si>
+    <t>HarmonogramControllerTests.cs</t>
   </si>
 </sst>
 </file>
@@ -1138,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1190,7 +1180,7 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>778</v>
+        <v>826</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
@@ -1204,23 +1194,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.72524942440521878</v>
+        <v>0.71863117870722437</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.533960092095165</v>
+        <v>1.5199619771863118</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.99098234842670763</v>
+        <v>0.98193916349809884</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.74635456638526476</v>
+        <v>0.78517110266159695</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0034535686876438</v>
+        <v>0.99429657794676807</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2593,6 +2583,15 @@
       </c>
       <c r="J34">
         <v>50</v>
+      </c>
+      <c r="K34" s="3">
+        <v>45887</v>
+      </c>
+      <c r="L34" t="s">
+        <v>169</v>
+      </c>
+      <c r="M34">
+        <v>48</v>
       </c>
       <c r="N34" s="3">
         <v>45862</v>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Documents\GitHub\Projekt-Przychodnia\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D37B46-B831-424C-B5C5-04E573997FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="173">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -530,12 +524,21 @@
   </si>
   <si>
     <t>HarmonogramControllerTests.cs</t>
+  </si>
+  <si>
+    <t>badanie-edit.component.t</t>
+  </si>
+  <si>
+    <t>BadanieRepository.cs</t>
+  </si>
+  <si>
+    <t>HarmonogramControllerTest.cs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -835,7 +838,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -844,7 +847,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -1125,11 +1128,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1172,7 +1175,7 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>1599</v>
+        <v>1652</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
@@ -1194,23 +1197,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.71863117870722437</v>
+        <v>0.71146245059288538</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.5199619771863118</v>
+        <v>1.5546772068511199</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.98193916349809884</v>
+        <v>0.97214379823075481</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.78517110266159695</v>
+        <v>0.77733860342555994</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>0.99429657794676807</v>
+        <v>0.98437794089968</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3573,10 +3576,109 @@
       </c>
     </row>
     <row r="95" spans="5:7">
-      <c r="E95" s="3"/>
+      <c r="E95" s="3">
+        <v>45895</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="5:7">
-      <c r="E96" s="3"/>
+      <c r="E96" s="3">
+        <v>45895</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="5:7">
+      <c r="E97" s="3">
+        <v>45895</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="5:7">
+      <c r="E98" s="3">
+        <v>45895</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G98">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="5:7">
+      <c r="E99" s="3">
+        <v>45895</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="5:7">
+      <c r="E100" s="3">
+        <v>45895</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="5:7">
+      <c r="E101" s="3">
+        <v>45895</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="5:7">
+      <c r="E102" s="3">
+        <v>45895</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="5:7">
+      <c r="E103" s="3">
+        <v>45895</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="5:7">
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="5:7">
+      <c r="E105" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateusz\Desktop\Projekt-Przychodnia-main\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1755AA-2F18-4F41-B726-698D424048D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="181">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -550,18 +544,6 @@
     <t>app.component.html</t>
   </si>
   <si>
-    <t>Suma</t>
-  </si>
-  <si>
-    <t>Średnia</t>
-  </si>
-  <si>
-    <t>Suma bieżąca</t>
-  </si>
-  <si>
-    <t>Liczba</t>
-  </si>
-  <si>
     <t>home.component.html</t>
   </si>
   <si>
@@ -572,12 +554,15 @@
   </si>
   <si>
     <t>register.component.ts</t>
+  </si>
+  <si>
+    <t>WizytaWidokDTO.cs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -682,17 +667,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -891,7 +876,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -900,7 +885,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -1181,11 +1166,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R50" sqref="R50"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1228,7 +1213,7 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>1652</v>
+        <v>1695</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
@@ -1250,51 +1235,51 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.68515497553017946</v>
+        <v>0.67985611510791366</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.4971905020844662</v>
+        <v>1.5242805755395683</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.93619720862787748</v>
+        <v>0.9289568345323741</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.74859525104223312</v>
+        <v>0.7428057553956835</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1328620627152437</v>
+        <v>1.1241007194244603</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9" t="s">
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" t="s">
@@ -2766,7 +2751,7 @@
       <c r="N37" s="3">
         <v>45869</v>
       </c>
-      <c r="O37" s="10" t="s">
+      <c r="O37" s="8" t="s">
         <v>175</v>
       </c>
       <c r="P37">
@@ -2804,7 +2789,7 @@
       <c r="N38" s="3">
         <v>45869</v>
       </c>
-      <c r="O38" s="10" t="s">
+      <c r="O38" s="8" t="s">
         <v>174</v>
       </c>
       <c r="P38">
@@ -2842,7 +2827,7 @@
       <c r="N39" s="3">
         <v>45869</v>
       </c>
-      <c r="O39" s="10" t="s">
+      <c r="O39" s="8" t="s">
         <v>129</v>
       </c>
       <c r="P39">
@@ -2880,7 +2865,7 @@
       <c r="N40" s="3">
         <v>45869</v>
       </c>
-      <c r="O40" s="10" t="s">
+      <c r="O40" s="8" t="s">
         <v>130</v>
       </c>
       <c r="P40">
@@ -2918,7 +2903,7 @@
       <c r="N41" s="3">
         <v>45869</v>
       </c>
-      <c r="O41" s="10" t="s">
+      <c r="O41" s="8" t="s">
         <v>173</v>
       </c>
       <c r="P41">
@@ -2956,8 +2941,8 @@
       <c r="N42" s="3">
         <v>45869</v>
       </c>
-      <c r="O42" s="11" t="s">
-        <v>180</v>
+      <c r="O42" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="P42">
         <v>4</v>
@@ -2994,8 +2979,8 @@
       <c r="N43" s="3">
         <v>45869</v>
       </c>
-      <c r="O43" s="11" t="s">
-        <v>181</v>
+      <c r="O43" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="P43">
         <v>9</v>
@@ -3032,8 +3017,8 @@
       <c r="N44" s="3">
         <v>45869</v>
       </c>
-      <c r="O44" s="10" t="s">
-        <v>182</v>
+      <c r="O44" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="P44">
         <v>76</v>
@@ -3067,8 +3052,8 @@
       <c r="N45" s="3">
         <v>45869</v>
       </c>
-      <c r="O45" s="10" t="s">
-        <v>183</v>
+      <c r="O45" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="P45">
         <v>78</v>
@@ -3813,10 +3798,82 @@
       </c>
     </row>
     <row r="104" spans="5:7">
-      <c r="E104" s="3"/>
+      <c r="E104" s="3">
+        <v>45896</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105" spans="5:7">
-      <c r="E105" s="3"/>
+      <c r="E105" s="3">
+        <v>45896</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="5:7">
+      <c r="E106" s="3">
+        <v>45896</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G106">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="5:7">
+      <c r="E107" s="3">
+        <v>45896</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="5:7">
+      <c r="E108" s="3">
+        <v>45896</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="5:7">
+      <c r="E109" s="3">
+        <v>45896</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="5:7">
+      <c r="E110" s="3"/>
+      <c r="F110" s="8"/>
+    </row>
+    <row r="111" spans="5:7">
+      <c r="E111" s="3"/>
+      <c r="F111" s="8"/>
+    </row>
+    <row r="112" spans="5:7">
+      <c r="E112" s="3"/>
+      <c r="F112" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\Documents\GitHub\Projekt-Przychodnia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8A7D34-CAC8-4576-869A-E99E9A2F8FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="185">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -557,18 +576,38 @@
   </si>
   <si>
     <t>WizytaWidokDTO.cs</t>
+  </si>
+  <si>
+    <t>login.component.ts</t>
+  </si>
+  <si>
+    <t>login.component.css</t>
+  </si>
+  <si>
+    <t>login.component.html</t>
+  </si>
+  <si>
+    <t>register.component.css</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -646,31 +685,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -678,6 +714,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,7 +915,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -885,7 +924,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -1166,11 +1205,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1225,7 +1264,7 @@
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
-        <v>1250</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="24.95" customHeight="1">
@@ -1235,51 +1274,51 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.67985611510791366</v>
+        <v>0.65693430656934304</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.5242805755395683</v>
+        <v>1.47288842544317</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.9289568345323741</v>
+        <v>0.89763642683350708</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.7428057553956835</v>
+        <v>0.71776155717761558</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1241007194244603</v>
+        <v>1.2547792839763643</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11" t="s">
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" t="s">
@@ -2755,7 +2794,7 @@
         <v>175</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:16">
@@ -2869,7 +2908,7 @@
         <v>130</v>
       </c>
       <c r="P40">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="2:16">
@@ -2941,11 +2980,11 @@
       <c r="N42" s="3">
         <v>45869</v>
       </c>
-      <c r="O42" s="9" t="s">
+      <c r="O42" t="s">
         <v>176</v>
       </c>
       <c r="P42">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="2:16">
@@ -2979,7 +3018,7 @@
       <c r="N43" s="3">
         <v>45869</v>
       </c>
-      <c r="O43" s="9" t="s">
+      <c r="O43" t="s">
         <v>177</v>
       </c>
       <c r="P43">
@@ -3084,7 +3123,15 @@
       <c r="J46">
         <v>6</v>
       </c>
-      <c r="N46" s="3"/>
+      <c r="N46" s="3">
+        <v>45896</v>
+      </c>
+      <c r="O46" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="P46">
+        <v>50</v>
+      </c>
     </row>
     <row r="47" spans="2:16">
       <c r="C47" t="s">
@@ -3111,7 +3158,15 @@
       <c r="J47">
         <v>6</v>
       </c>
-      <c r="N47" s="3"/>
+      <c r="N47" s="3">
+        <v>45896</v>
+      </c>
+      <c r="O47" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="P47">
+        <v>19</v>
+      </c>
     </row>
     <row r="48" spans="2:16">
       <c r="C48" t="s">
@@ -3138,9 +3193,17 @@
       <c r="J48">
         <v>6</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14">
+      <c r="N48" s="3">
+        <v>45896</v>
+      </c>
+      <c r="O48" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="P48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -3165,9 +3228,17 @@
       <c r="J49">
         <v>6</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14">
+      <c r="N49" s="3">
+        <v>45896</v>
+      </c>
+      <c r="O49" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="P49">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16">
       <c r="E50" s="3">
         <v>45880</v>
       </c>
@@ -3186,8 +3257,17 @@
       <c r="J50">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="3:14">
+      <c r="N50" s="3">
+        <v>45896</v>
+      </c>
+      <c r="O50" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="P50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16">
       <c r="E51" s="3">
         <v>45880</v>
       </c>
@@ -3207,7 +3287,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="3:14">
+    <row r="52" spans="3:16">
       <c r="E52" s="3">
         <v>45880</v>
       </c>
@@ -3227,7 +3307,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="3:14">
+    <row r="53" spans="3:16">
       <c r="E53" s="3">
         <v>45880</v>
       </c>
@@ -3247,7 +3327,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="3:14">
+    <row r="54" spans="3:16">
       <c r="E54" s="3">
         <v>45880</v>
       </c>
@@ -3258,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="3:14">
+    <row r="55" spans="3:16">
       <c r="E55" s="3">
         <v>45880</v>
       </c>
@@ -3269,7 +3349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="3:14">
+    <row r="56" spans="3:16">
       <c r="E56" s="3">
         <v>45880</v>
       </c>
@@ -3280,7 +3360,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="3:14">
+    <row r="57" spans="3:16">
       <c r="E57" s="3">
         <v>45880</v>
       </c>
@@ -3291,7 +3371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="3:14">
+    <row r="58" spans="3:16">
       <c r="E58" s="3">
         <v>45880</v>
       </c>
@@ -3302,7 +3382,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="3:14">
+    <row r="59" spans="3:16">
       <c r="E59" s="3">
         <v>45880</v>
       </c>
@@ -3313,7 +3393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="3:14">
+    <row r="60" spans="3:16">
       <c r="E60" s="3">
         <v>45880</v>
       </c>
@@ -3324,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="3:14">
+    <row r="61" spans="3:16">
       <c r="E61" s="3">
         <v>45881</v>
       </c>
@@ -3335,7 +3415,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="3:14">
+    <row r="62" spans="3:16">
       <c r="E62" s="3">
         <v>45881</v>
       </c>
@@ -3346,7 +3426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="3:14">
+    <row r="63" spans="3:16">
       <c r="E63" s="3">
         <v>45881</v>
       </c>
@@ -3357,7 +3437,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="3:14">
+    <row r="64" spans="3:16">
       <c r="E64" s="3">
         <v>45881</v>
       </c>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,35 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\Documents\GitHub\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8A7D34-CAC8-4576-869A-E99E9A2F8FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F8183C-7127-4321-BCDF-788B0149BCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="188">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -588,6 +575,15 @@
   </si>
   <si>
     <t>register.component.css</t>
+  </si>
+  <si>
+    <t>wizyta-add.component.ts</t>
+  </si>
+  <si>
+    <t>wizyta-add.component.html</t>
+  </si>
+  <si>
+    <t>wizyta-add.component.css</t>
   </si>
 </sst>
 </file>
@@ -709,14 +705,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1208,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1260,7 +1256,7 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>826</v>
+        <v>930</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
@@ -1274,51 +1270,51 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.65693430656934304</v>
+        <v>0.64527142369409352</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.47288842544317</v>
+        <v>1.4467395015363604</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.89763642683350708</v>
+        <v>0.88170023898941619</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.71776155717761558</v>
+        <v>0.79378627517924205</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2547792839763643</v>
+        <v>1.2325025606008877</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10" t="s">
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" t="s">
@@ -2711,6 +2707,15 @@
       <c r="J35">
         <v>28</v>
       </c>
+      <c r="K35" s="3">
+        <v>45900</v>
+      </c>
+      <c r="L35" t="s">
+        <v>185</v>
+      </c>
+      <c r="M35">
+        <v>27</v>
+      </c>
       <c r="N35" s="3">
         <v>45862</v>
       </c>
@@ -2749,6 +2754,15 @@
       <c r="J36">
         <v>28</v>
       </c>
+      <c r="K36" s="3">
+        <v>45900</v>
+      </c>
+      <c r="L36" t="s">
+        <v>186</v>
+      </c>
+      <c r="M36">
+        <v>16</v>
+      </c>
       <c r="N36" s="3">
         <v>45862</v>
       </c>
@@ -2787,6 +2801,15 @@
       <c r="J37">
         <v>44</v>
       </c>
+      <c r="K37" s="3">
+        <v>45900</v>
+      </c>
+      <c r="L37" t="s">
+        <v>187</v>
+      </c>
+      <c r="M37">
+        <v>53</v>
+      </c>
       <c r="N37" s="3">
         <v>45869</v>
       </c>
@@ -2825,6 +2848,15 @@
       <c r="J38">
         <v>52</v>
       </c>
+      <c r="K38" s="3">
+        <v>45900</v>
+      </c>
+      <c r="L38" t="s">
+        <v>130</v>
+      </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
       <c r="N38" s="3">
         <v>45869</v>
       </c>
@@ -2863,6 +2895,15 @@
       <c r="J39">
         <v>75</v>
       </c>
+      <c r="K39" s="3">
+        <v>45900</v>
+      </c>
+      <c r="L39" t="s">
+        <v>166</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
       <c r="N39" s="3">
         <v>45869</v>
       </c>
@@ -2901,6 +2942,15 @@
       <c r="J40">
         <v>61</v>
       </c>
+      <c r="K40" s="3">
+        <v>45900</v>
+      </c>
+      <c r="L40" t="s">
+        <v>133</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
       <c r="N40" s="3">
         <v>45869</v>
       </c>
@@ -2939,6 +2989,7 @@
       <c r="J41">
         <v>20</v>
       </c>
+      <c r="K41" s="3"/>
       <c r="N41" s="3">
         <v>45869</v>
       </c>
@@ -3126,7 +3177,7 @@
       <c r="N46" s="3">
         <v>45896</v>
       </c>
-      <c r="O46" s="11" t="s">
+      <c r="O46" s="9" t="s">
         <v>181</v>
       </c>
       <c r="P46">
@@ -3161,7 +3212,7 @@
       <c r="N47" s="3">
         <v>45896</v>
       </c>
-      <c r="O47" s="11" t="s">
+      <c r="O47" s="9" t="s">
         <v>183</v>
       </c>
       <c r="P47">
@@ -3196,7 +3247,7 @@
       <c r="N48" s="3">
         <v>45896</v>
       </c>
-      <c r="O48" s="11" t="s">
+      <c r="O48" s="9" t="s">
         <v>182</v>
       </c>
       <c r="P48">
@@ -3231,7 +3282,7 @@
       <c r="N49" s="3">
         <v>45896</v>
       </c>
-      <c r="O49" s="11" t="s">
+      <c r="O49" s="9" t="s">
         <v>178</v>
       </c>
       <c r="P49">
@@ -3260,7 +3311,7 @@
       <c r="N50" s="3">
         <v>45896</v>
       </c>
-      <c r="O50" s="11" t="s">
+      <c r="O50" s="9" t="s">
         <v>184</v>
       </c>
       <c r="P50">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F8183C-7127-4321-BCDF-788B0149BCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E087AA5F-A04A-4AF8-872E-DFF0326EFE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="188">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -1204,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>930</v>
+        <v>964</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
@@ -1270,23 +1270,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.64527142369409352</v>
+        <v>0.64154786150712828</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.4467395015363604</v>
+        <v>1.4383910386965377</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.88170023898941619</v>
+        <v>0.87661235573659202</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.79378627517924205</v>
+        <v>0.81805838424983024</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2325025606008877</v>
+        <v>1.2253903598099118</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2989,7 +2989,15 @@
       <c r="J41">
         <v>20</v>
       </c>
-      <c r="K41" s="3"/>
+      <c r="K41" s="3">
+        <v>45903</v>
+      </c>
+      <c r="L41" t="s">
+        <v>134</v>
+      </c>
+      <c r="M41">
+        <v>13</v>
+      </c>
       <c r="N41" s="3">
         <v>45869</v>
       </c>
@@ -3028,6 +3036,15 @@
       <c r="J42">
         <v>14</v>
       </c>
+      <c r="K42" s="3">
+        <v>45903</v>
+      </c>
+      <c r="L42" t="s">
+        <v>167</v>
+      </c>
+      <c r="M42">
+        <v>7</v>
+      </c>
       <c r="N42" s="3">
         <v>45869</v>
       </c>
@@ -3066,6 +3083,15 @@
       <c r="J43">
         <v>16</v>
       </c>
+      <c r="K43" s="3">
+        <v>45903</v>
+      </c>
+      <c r="L43" t="s">
+        <v>166</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
       <c r="N43" s="3">
         <v>45869</v>
       </c>
@@ -3104,6 +3130,15 @@
       <c r="J44">
         <v>14</v>
       </c>
+      <c r="K44" s="3">
+        <v>45903</v>
+      </c>
+      <c r="L44" t="s">
+        <v>136</v>
+      </c>
+      <c r="M44">
+        <v>10</v>
+      </c>
       <c r="N44" s="3">
         <v>45869</v>
       </c>
@@ -3139,6 +3174,15 @@
       <c r="J45">
         <v>25</v>
       </c>
+      <c r="K45" s="3">
+        <v>45903</v>
+      </c>
+      <c r="L45" t="s">
+        <v>144</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
       <c r="N45" s="3">
         <v>45869</v>
       </c>
@@ -3174,6 +3218,7 @@
       <c r="J46">
         <v>6</v>
       </c>
+      <c r="K46" s="3"/>
       <c r="N46" s="3">
         <v>45896</v>
       </c>
@@ -3209,6 +3254,7 @@
       <c r="J47">
         <v>6</v>
       </c>
+      <c r="K47" s="3"/>
       <c r="N47" s="3">
         <v>45896</v>
       </c>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E087AA5F-A04A-4AF8-872E-DFF0326EFE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE58BB4B-EB26-4C07-81B2-77C9193DE281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="193">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -584,6 +584,21 @@
   </si>
   <si>
     <t>wizyta-add.component.css</t>
+  </si>
+  <si>
+    <t>recepcja.component.ts</t>
+  </si>
+  <si>
+    <t>recepcja.component.html</t>
+  </si>
+  <si>
+    <t>recepcja.component.css</t>
+  </si>
+  <si>
+    <t>recepcja-home.component.html</t>
+  </si>
+  <si>
+    <t>recepcja-home.component.css</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1220,7 @@
   <dimension ref="A1:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1256,7 +1271,7 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>964</v>
+        <v>1080</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
@@ -1270,23 +1285,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.64154786150712828</v>
+        <v>0.62916111850865508</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.4383910386965377</v>
+        <v>1.4106191744340879</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.87661235573659202</v>
+        <v>0.85968708388814918</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.81805838424983024</v>
+        <v>0.89880159786950731</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2253903598099118</v>
+        <v>1.2017310252996005</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3218,7 +3233,15 @@
       <c r="J46">
         <v>6</v>
       </c>
-      <c r="K46" s="3"/>
+      <c r="K46" s="3">
+        <v>45903</v>
+      </c>
+      <c r="L46" t="s">
+        <v>188</v>
+      </c>
+      <c r="M46">
+        <v>5</v>
+      </c>
       <c r="N46" s="3">
         <v>45896</v>
       </c>
@@ -3254,7 +3277,15 @@
       <c r="J47">
         <v>6</v>
       </c>
-      <c r="K47" s="3"/>
+      <c r="K47" s="3">
+        <v>45903</v>
+      </c>
+      <c r="L47" t="s">
+        <v>189</v>
+      </c>
+      <c r="M47">
+        <v>10</v>
+      </c>
       <c r="N47" s="3">
         <v>45896</v>
       </c>
@@ -3290,6 +3321,15 @@
       <c r="J48">
         <v>6</v>
       </c>
+      <c r="K48" s="3">
+        <v>45903</v>
+      </c>
+      <c r="L48" t="s">
+        <v>190</v>
+      </c>
+      <c r="M48">
+        <v>79</v>
+      </c>
       <c r="N48" s="3">
         <v>45896</v>
       </c>
@@ -3325,6 +3365,15 @@
       <c r="J49">
         <v>6</v>
       </c>
+      <c r="K49" s="3">
+        <v>45903</v>
+      </c>
+      <c r="L49" t="s">
+        <v>191</v>
+      </c>
+      <c r="M49">
+        <v>3</v>
+      </c>
       <c r="N49" s="3">
         <v>45896</v>
       </c>
@@ -3354,6 +3403,15 @@
       <c r="J50">
         <v>6</v>
       </c>
+      <c r="K50" s="3">
+        <v>45903</v>
+      </c>
+      <c r="L50" t="s">
+        <v>192</v>
+      </c>
+      <c r="M50">
+        <v>12</v>
+      </c>
       <c r="N50" s="3">
         <v>45896</v>
       </c>
@@ -3383,6 +3441,15 @@
       <c r="J51">
         <v>144</v>
       </c>
+      <c r="K51" s="3">
+        <v>45903</v>
+      </c>
+      <c r="L51" t="s">
+        <v>130</v>
+      </c>
+      <c r="M51">
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="3:16">
       <c r="E52" s="3">
@@ -3403,6 +3470,15 @@
       <c r="J52">
         <v>33</v>
       </c>
+      <c r="K52" s="3">
+        <v>45903</v>
+      </c>
+      <c r="L52" t="s">
+        <v>176</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="3:16">
       <c r="E53" s="3">
@@ -3422,6 +3498,15 @@
       </c>
       <c r="J53">
         <v>46</v>
+      </c>
+      <c r="K53" s="3">
+        <v>45903</v>
+      </c>
+      <c r="L53" t="s">
+        <v>177</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="3:16">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE58BB4B-EB26-4C07-81B2-77C9193DE281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566E432A-8A62-41C9-8650-08572EB2D4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="193">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>1080</v>
+        <v>1087</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
@@ -1285,23 +1285,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.62916111850865508</v>
+        <v>0.62842892768079806</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.4106191744340879</v>
+        <v>1.4089775561097257</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.85968708388814918</v>
+        <v>0.85868661679135494</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.89880159786950731</v>
+        <v>0.90357439733998335</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2017310252996005</v>
+        <v>1.2003325020781379</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2917,7 +2917,7 @@
         <v>166</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N39" s="3">
         <v>45869</v>
@@ -3448,7 +3448,7 @@
         <v>130</v>
       </c>
       <c r="M51">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="3:16">
@@ -3519,6 +3519,15 @@
       <c r="G54">
         <v>1</v>
       </c>
+      <c r="K54" s="3">
+        <v>45906</v>
+      </c>
+      <c r="L54" t="s">
+        <v>189</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
     </row>
     <row r="55" spans="3:16">
       <c r="E55" s="3">
@@ -3530,6 +3539,9 @@
       <c r="G55">
         <v>5</v>
       </c>
+      <c r="K55" s="3">
+        <v>45906</v>
+      </c>
     </row>
     <row r="56" spans="3:16">
       <c r="E56" s="3">
@@ -3541,6 +3553,7 @@
       <c r="G56">
         <v>49</v>
       </c>
+      <c r="K56" s="3"/>
     </row>
     <row r="57" spans="3:16">
       <c r="E57" s="3">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Documents\GitHub\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566E432A-8A62-41C9-8650-08572EB2D4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB5E122-EF35-464D-ACD3-7DB6FF75D625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39210" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="209">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -599,6 +612,54 @@
   </si>
   <si>
     <t>recepcja-home.component.css</t>
+  </si>
+  <si>
+    <t>pacjent.model.ts</t>
+  </si>
+  <si>
+    <t>WykonaneBadanie.cs</t>
+  </si>
+  <si>
+    <t>WykonaneBadanieRepository.cs</t>
+  </si>
+  <si>
+    <t>IWykonaneBadanieRepository.cs</t>
+  </si>
+  <si>
+    <t>IWykonaneBadanieService.cs</t>
+  </si>
+  <si>
+    <t>WykonaneBadanieService.cs</t>
+  </si>
+  <si>
+    <t>WykonaneBadanieController.cs</t>
+  </si>
+  <si>
+    <t>WykonaneBadanieDTO.cs</t>
+  </si>
+  <si>
+    <t>wykonane-badania.model.ts</t>
+  </si>
+  <si>
+    <t>pacjent.service.ts</t>
+  </si>
+  <si>
+    <t>wykonane-badania.service.ts</t>
+  </si>
+  <si>
+    <t>pacjent-home</t>
+  </si>
+  <si>
+    <t>pacjent-dane</t>
+  </si>
+  <si>
+    <t>pacjent-shell</t>
+  </si>
+  <si>
+    <t>pacjent-wizyty</t>
+  </si>
+  <si>
+    <t>pacjent-badania</t>
   </si>
 </sst>
 </file>
@@ -1219,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1259,7 +1320,7 @@
       <c r="B3" s="1"/>
       <c r="D3">
         <f>SUM(D7:D1001)</f>
-        <v>756</v>
+        <v>1008</v>
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
@@ -1285,23 +1346,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.62842892768079806</v>
+        <v>0.80421254188606994</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.4089775561097257</v>
+        <v>1.3523216850167545</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.85868661679135494</v>
+        <v>0.82415828945268865</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.90357439733998335</v>
+        <v>0.86724110419658529</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2003325020781379</v>
+        <v>1.1520663794479018</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3165,6 +3226,9 @@
       </c>
     </row>
     <row r="45" spans="2:16">
+      <c r="B45" s="3">
+        <v>45887</v>
+      </c>
       <c r="C45" t="s">
         <v>155</v>
       </c>
@@ -3209,6 +3273,9 @@
       </c>
     </row>
     <row r="46" spans="2:16">
+      <c r="B46" s="3">
+        <v>45887</v>
+      </c>
       <c r="C46" t="s">
         <v>99</v>
       </c>
@@ -3253,6 +3320,9 @@
       </c>
     </row>
     <row r="47" spans="2:16">
+      <c r="B47" s="3">
+        <v>45887</v>
+      </c>
       <c r="C47" t="s">
         <v>150</v>
       </c>
@@ -3297,6 +3367,9 @@
       </c>
     </row>
     <row r="48" spans="2:16">
+      <c r="B48" s="3">
+        <v>45887</v>
+      </c>
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -3340,7 +3413,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="3:16">
+    <row r="49" spans="2:16">
+      <c r="B49" s="3">
+        <v>45887</v>
+      </c>
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -3384,7 +3460,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="3:16">
+    <row r="50" spans="2:16">
+      <c r="B50" s="3">
+        <v>45905</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
       <c r="E50" s="3">
         <v>45880</v>
       </c>
@@ -3422,7 +3507,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="3:16">
+    <row r="51" spans="2:16">
+      <c r="B51" s="3">
+        <v>45905</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
       <c r="E51" s="3">
         <v>45880</v>
       </c>
@@ -3451,7 +3545,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="3:16">
+    <row r="52" spans="2:16">
+      <c r="B52" s="3">
+        <v>45905</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
       <c r="E52" s="3">
         <v>45880</v>
       </c>
@@ -3480,7 +3583,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:16">
+    <row r="53" spans="2:16">
+      <c r="B53" s="3">
+        <v>45905</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
       <c r="E53" s="3">
         <v>45880</v>
       </c>
@@ -3509,7 +3621,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="3:16">
+    <row r="54" spans="2:16">
+      <c r="B54" s="3">
+        <v>45905</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
       <c r="E54" s="3">
         <v>45880</v>
       </c>
@@ -3529,7 +3650,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="3:16">
+    <row r="55" spans="2:16">
+      <c r="B55" s="3">
+        <v>45905</v>
+      </c>
+      <c r="C55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
       <c r="E55" s="3">
         <v>45880</v>
       </c>
@@ -3543,7 +3673,16 @@
         <v>45906</v>
       </c>
     </row>
-    <row r="56" spans="3:16">
+    <row r="56" spans="2:16">
+      <c r="B56" s="3">
+        <v>45905</v>
+      </c>
+      <c r="C56" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
       <c r="E56" s="3">
         <v>45880</v>
       </c>
@@ -3555,7 +3694,16 @@
       </c>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:16">
+    <row r="57" spans="2:16">
+      <c r="B57" s="3">
+        <v>45906</v>
+      </c>
+      <c r="C57" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
       <c r="E57" s="3">
         <v>45880</v>
       </c>
@@ -3566,7 +3714,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="3:16">
+    <row r="58" spans="2:16">
+      <c r="B58" s="3">
+        <v>45906</v>
+      </c>
+      <c r="C58" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
       <c r="E58" s="3">
         <v>45880</v>
       </c>
@@ -3577,7 +3734,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="3:16">
+    <row r="59" spans="2:16">
+      <c r="B59" s="3">
+        <v>45906</v>
+      </c>
+      <c r="C59" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
       <c r="E59" s="3">
         <v>45880</v>
       </c>
@@ -3588,7 +3754,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="3:16">
+    <row r="60" spans="2:16">
+      <c r="B60" s="3">
+        <v>45906</v>
+      </c>
+      <c r="C60" t="s">
+        <v>197</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
       <c r="E60" s="3">
         <v>45880</v>
       </c>
@@ -3599,7 +3774,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="3:16">
+    <row r="61" spans="2:16">
+      <c r="B61" s="3">
+        <v>45906</v>
+      </c>
+      <c r="C61" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
       <c r="E61" s="3">
         <v>45881</v>
       </c>
@@ -3610,7 +3794,16 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="3:16">
+    <row r="62" spans="2:16">
+      <c r="B62" s="3">
+        <v>45906</v>
+      </c>
+      <c r="C62" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
       <c r="E62" s="3">
         <v>45881</v>
       </c>
@@ -3621,7 +3814,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="3:16">
+    <row r="63" spans="2:16">
+      <c r="B63" s="3">
+        <v>45906</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
       <c r="E63" s="3">
         <v>45881</v>
       </c>
@@ -3632,7 +3834,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="3:16">
+    <row r="64" spans="2:16">
+      <c r="B64" s="3">
+        <v>45906</v>
+      </c>
+      <c r="C64" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
       <c r="E64" s="3">
         <v>45881</v>
       </c>
@@ -3643,7 +3854,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="5:7">
+    <row r="65" spans="2:7">
+      <c r="B65" s="3">
+        <v>45906</v>
+      </c>
+      <c r="C65" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
       <c r="E65" s="3">
         <v>45881</v>
       </c>
@@ -3654,7 +3874,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="5:7">
+    <row r="66" spans="2:7">
+      <c r="B66" s="3">
+        <v>45906</v>
+      </c>
+      <c r="C66" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
       <c r="E66" s="3">
         <v>45881</v>
       </c>
@@ -3665,7 +3894,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="5:7">
+    <row r="67" spans="2:7">
+      <c r="B67" s="3">
+        <v>45906</v>
+      </c>
+      <c r="C67" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67">
+        <v>13</v>
+      </c>
       <c r="E67" s="3">
         <v>45882</v>
       </c>
@@ -3676,7 +3914,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="5:7">
+    <row r="68" spans="2:7">
+      <c r="B68" s="3">
+        <v>45906</v>
+      </c>
+      <c r="C68" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68">
+        <v>29</v>
+      </c>
       <c r="E68" s="3">
         <v>45882</v>
       </c>
@@ -3687,7 +3934,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="5:7">
+    <row r="69" spans="2:7">
+      <c r="B69" s="3">
+        <v>45906</v>
+      </c>
+      <c r="C69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69">
+        <v>8</v>
+      </c>
       <c r="E69" s="3">
         <v>45882</v>
       </c>
@@ -3698,7 +3954,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="5:7">
+    <row r="70" spans="2:7">
+      <c r="B70" s="3">
+        <v>45906</v>
+      </c>
+      <c r="C70" t="s">
+        <v>204</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
       <c r="E70" s="3">
         <v>45882</v>
       </c>
@@ -3709,7 +3974,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="5:7">
+    <row r="71" spans="2:7">
+      <c r="B71" s="3">
+        <v>45906</v>
+      </c>
+      <c r="C71" t="s">
+        <v>205</v>
+      </c>
+      <c r="D71">
+        <v>15</v>
+      </c>
       <c r="E71" s="3">
         <v>45882</v>
       </c>
@@ -3720,7 +3994,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="5:7">
+    <row r="72" spans="2:7">
+      <c r="B72" s="3">
+        <v>45906</v>
+      </c>
+      <c r="C72" t="s">
+        <v>206</v>
+      </c>
+      <c r="D72">
+        <v>62</v>
+      </c>
       <c r="E72" s="3">
         <v>45882</v>
       </c>
@@ -3731,7 +4014,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="5:7">
+    <row r="73" spans="2:7">
+      <c r="B73" s="3">
+        <v>45906</v>
+      </c>
+      <c r="C73" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73">
+        <v>38</v>
+      </c>
       <c r="E73" s="3">
         <v>45882</v>
       </c>
@@ -3742,7 +4034,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="5:7">
+    <row r="74" spans="2:7">
+      <c r="B74" s="3">
+        <v>45906</v>
+      </c>
+      <c r="C74" t="s">
+        <v>208</v>
+      </c>
+      <c r="D74">
+        <v>31</v>
+      </c>
       <c r="E74" s="3">
         <v>45882</v>
       </c>
@@ -3753,7 +4054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="5:7">
+    <row r="75" spans="2:7">
       <c r="E75" s="3">
         <v>45882</v>
       </c>
@@ -3764,7 +4065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="5:7">
+    <row r="76" spans="2:7">
       <c r="E76" s="3">
         <v>45883</v>
       </c>
@@ -3775,7 +4076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="5:7">
+    <row r="77" spans="2:7">
       <c r="E77" s="3">
         <v>45883</v>
       </c>
@@ -3786,7 +4087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="5:7">
+    <row r="78" spans="2:7">
       <c r="E78" s="3">
         <v>45883</v>
       </c>
@@ -3797,7 +4098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="5:7">
+    <row r="79" spans="2:7">
       <c r="E79" s="3">
         <v>45883</v>
       </c>
@@ -3808,7 +4109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="5:7">
+    <row r="80" spans="2:7">
       <c r="E80" s="3">
         <v>45883</v>
       </c>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,35 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB5E122-EF35-464D-ACD3-7DB6FF75D625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278A739F-F855-4456-8D64-3167D54A67E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39210" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="209">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -1280,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1332,7 +1319,7 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>1087</v>
+        <v>1153</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
@@ -1346,23 +1333,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.80421254188606994</v>
+        <v>0.7958313595452392</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.3523216850167545</v>
+        <v>1.3382283278067266</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.82415828945268865</v>
+        <v>0.81556924048634138</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.86724110419658529</v>
+        <v>0.91031106900363179</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1520663794479018</v>
+        <v>1.140060003158061</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3670,7 +3657,13 @@
         <v>5</v>
       </c>
       <c r="K55" s="3">
-        <v>45906</v>
+        <v>45907</v>
+      </c>
+      <c r="L55" t="s">
+        <v>176</v>
+      </c>
+      <c r="M55">
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="2:16">
@@ -3692,7 +3685,15 @@
       <c r="G56">
         <v>49</v>
       </c>
-      <c r="K56" s="3"/>
+      <c r="K56" s="3">
+        <v>45907</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M56">
+        <v>47</v>
+      </c>
     </row>
     <row r="57" spans="2:16">
       <c r="B57" s="3">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Documents\GitHub\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubac\Documents\GitHub\AI\przych\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278A739F-F855-4456-8D64-3167D54A67E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AEBA37-20A2-4D25-9F40-9EFFD71014C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="212">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -647,6 +660,15 @@
   </si>
   <si>
     <t>pacjent-badania</t>
+  </si>
+  <si>
+    <t>Fixy-Logowanie + html głowny</t>
+  </si>
+  <si>
+    <t>Tekst sprawozdanie</t>
+  </si>
+  <si>
+    <t>diagramy</t>
   </si>
 </sst>
 </file>
@@ -1267,32 +1289,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="10" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="13" max="14" width="12.5546875" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.5">
+    <row r="1" spans="1:16" ht="61.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.25">
+    <row r="2" spans="1:16" ht="23.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1300,7 +1322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.5">
+    <row r="3" spans="1:16" ht="61.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1315,7 +1337,7 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>1033</v>
+        <v>1425</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
@@ -1326,30 +1348,30 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1">
+    <row r="4" spans="1:16" ht="24.9" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.7958313595452392</v>
+        <v>0.74944237918215617</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.3382283278067266</v>
+        <v>1.2602230483271375</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.81556924048634138</v>
+        <v>1.0594795539033457</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.91031106900363179</v>
+        <v>0.85724907063197031</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.140060003158061</v>
+        <v>1.0736059479553903</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3627,6 +3649,15 @@
       <c r="G54">
         <v>1</v>
       </c>
+      <c r="H54" s="3">
+        <v>45909</v>
+      </c>
+      <c r="I54" t="s">
+        <v>209</v>
+      </c>
+      <c r="J54">
+        <v>96</v>
+      </c>
       <c r="K54" s="3">
         <v>45906</v>
       </c>
@@ -3656,6 +3687,15 @@
       <c r="G55">
         <v>5</v>
       </c>
+      <c r="H55" s="3">
+        <v>45909</v>
+      </c>
+      <c r="I55" t="s">
+        <v>210</v>
+      </c>
+      <c r="J55">
+        <v>96</v>
+      </c>
       <c r="K55" s="3">
         <v>45907</v>
       </c>
@@ -3685,6 +3725,15 @@
       <c r="G56">
         <v>49</v>
       </c>
+      <c r="H56" s="3">
+        <v>45909</v>
+      </c>
+      <c r="I56" t="s">
+        <v>211</v>
+      </c>
+      <c r="J56">
+        <v>200</v>
+      </c>
       <c r="K56" s="3">
         <v>45907</v>
       </c>
@@ -3715,7 +3764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="2:16">
+    <row r="58" spans="2:16" ht="15">
       <c r="B58" s="3">
         <v>45906</v>
       </c>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,35 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubac\Documents\GitHub\AI\przych\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AEBA37-20A2-4D25-9F40-9EFFD71014C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBD6152-31F4-4AA4-85A7-379271AA0B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="214">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -669,6 +656,12 @@
   </si>
   <si>
     <t>diagramy</t>
+  </si>
+  <si>
+    <t>sprawozdanie</t>
+  </si>
+  <si>
+    <t>diagram PDM poprawa</t>
   </si>
 </sst>
 </file>
@@ -1289,32 +1282,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" customWidth="1"/>
-    <col min="13" max="14" width="12.5546875" customWidth="1"/>
-    <col min="15" max="15" width="23.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.2">
+    <row r="1" spans="1:16" ht="61.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.4">
+    <row r="2" spans="1:16" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1322,7 +1315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.2">
+    <row r="3" spans="1:16" ht="61.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1341,37 +1334,37 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>1153</v>
+        <v>1330</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
         <v>1444</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.9" customHeight="1">
+    <row r="4" spans="1:16" ht="24.95" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.74944237918215617</v>
+        <v>0.73022312373225151</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2602230483271375</v>
+        <v>1.2279049550854824</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0594795539033457</v>
+        <v>1.0323094755143436</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.85724907063197031</v>
+        <v>0.9634888438133874</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0736059479553903</v>
+        <v>1.0460736018545349</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3763,8 +3756,17 @@
       <c r="G57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="2:16" ht="15">
+      <c r="K57" s="3">
+        <v>45909</v>
+      </c>
+      <c r="L57" t="s">
+        <v>212</v>
+      </c>
+      <c r="M57">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16">
       <c r="B58" s="3">
         <v>45906</v>
       </c>
@@ -3782,6 +3784,15 @@
       </c>
       <c r="G58">
         <v>38</v>
+      </c>
+      <c r="K58" s="3">
+        <v>45909</v>
+      </c>
+      <c r="L58" t="s">
+        <v>213</v>
+      </c>
+      <c r="M58">
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="2:16">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Documents\GitHub\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbist\OneDrive\Dokumenty\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBD6152-31F4-4AA4-85A7-379271AA0B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33FBA70-68C7-4DC7-AACA-EC80E398E341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="214">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -1282,32 +1295,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="10" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="13" max="14" width="12.5546875" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.5">
+    <row r="1" spans="1:16" ht="61.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.25">
+    <row r="2" spans="1:16" ht="23.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1315,7 +1328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.5">
+    <row r="3" spans="1:16" ht="61.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1334,37 +1347,37 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>1330</v>
+        <v>1348</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
         <v>1444</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1">
+    <row r="4" spans="1:16" ht="24.9" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.73022312373225151</v>
+        <v>0.72832369942196529</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2279049550854824</v>
+        <v>1.2247109826589595</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0323094755143436</v>
+        <v>1.0296242774566473</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.9634888438133874</v>
+        <v>0.97398843930635837</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0460736018545349</v>
+        <v>1.0433526011560694</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3766,7 +3779,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="2:16">
+    <row r="58" spans="2:16" ht="15">
       <c r="B58" s="3">
         <v>45906</v>
       </c>
@@ -3814,6 +3827,15 @@
       <c r="G59">
         <v>6</v>
       </c>
+      <c r="K59" s="3">
+        <v>45910</v>
+      </c>
+      <c r="L59" t="s">
+        <v>154</v>
+      </c>
+      <c r="M59">
+        <v>3</v>
+      </c>
     </row>
     <row r="60" spans="2:16">
       <c r="B60" s="3">
@@ -3834,6 +3856,15 @@
       <c r="G60">
         <v>1</v>
       </c>
+      <c r="K60" s="3">
+        <v>45910</v>
+      </c>
+      <c r="L60" t="s">
+        <v>153</v>
+      </c>
+      <c r="M60">
+        <v>3</v>
+      </c>
     </row>
     <row r="61" spans="2:16">
       <c r="B61" s="3">
@@ -3854,6 +3885,15 @@
       <c r="G61">
         <v>63</v>
       </c>
+      <c r="K61" s="3">
+        <v>45910</v>
+      </c>
+      <c r="L61" t="s">
+        <v>189</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
     </row>
     <row r="62" spans="2:16">
       <c r="B62" s="3">
@@ -3874,6 +3914,15 @@
       <c r="G62">
         <v>27</v>
       </c>
+      <c r="K62" s="3">
+        <v>45910</v>
+      </c>
+      <c r="L62" t="s">
+        <v>190</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" spans="2:16">
       <c r="B63" s="3">
@@ -3894,6 +3943,15 @@
       <c r="G63">
         <v>43</v>
       </c>
+      <c r="K63" s="3">
+        <v>45910</v>
+      </c>
+      <c r="L63" t="s">
+        <v>134</v>
+      </c>
+      <c r="M63">
+        <v>4</v>
+      </c>
     </row>
     <row r="64" spans="2:16">
       <c r="B64" s="3">
@@ -3913,6 +3971,15 @@
       </c>
       <c r="G64">
         <v>40</v>
+      </c>
+      <c r="K64" s="3">
+        <v>45910</v>
+      </c>
+      <c r="L64" t="s">
+        <v>133</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="2:7">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbist\OneDrive\Dokumenty\GitHub\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33FBA70-68C7-4DC7-AACA-EC80E398E341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B889A8-1B86-448C-8C0F-617311050B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="219">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -675,6 +675,21 @@
   </si>
   <si>
     <t>diagram PDM poprawa</t>
+  </si>
+  <si>
+    <t>badania.component</t>
+  </si>
+  <si>
+    <t>harmonogramService.cs</t>
+  </si>
+  <si>
+    <t>lekarz-home</t>
+  </si>
+  <si>
+    <t>recepca-home</t>
+  </si>
+  <si>
+    <t>login</t>
   </si>
 </sst>
 </file>
@@ -1295,32 +1310,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L67" sqref="L67"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" customWidth="1"/>
-    <col min="13" max="14" width="12.5546875" customWidth="1"/>
-    <col min="15" max="15" width="23.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.2">
+    <row r="1" spans="1:16" ht="61.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.4">
+    <row r="2" spans="1:16" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1328,14 +1343,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.2">
+    <row r="3" spans="1:16" ht="61.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="D3">
         <f>SUM(D7:D1001)</f>
-        <v>1008</v>
+        <v>1517</v>
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
@@ -1354,30 +1369,30 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.9" customHeight="1">
+    <row r="4" spans="1:16" ht="24.95" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.72832369942196529</v>
+        <v>1.0209987885314309</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2247109826589595</v>
+        <v>1.1407995692556199</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0296242774566473</v>
+        <v>0.95907928388746799</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.97398843930635837</v>
+        <v>0.9072553506528469</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0433526011560694</v>
+        <v>0.97186700767263423</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3779,7 +3794,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="2:16" ht="15">
+    <row r="58" spans="2:16">
       <c r="B58" s="3">
         <v>45906</v>
       </c>
@@ -4183,6 +4198,15 @@
       </c>
     </row>
     <row r="75" spans="2:7">
+      <c r="B75" s="3">
+        <v>45910</v>
+      </c>
+      <c r="C75" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75">
+        <v>53</v>
+      </c>
       <c r="E75" s="3">
         <v>45882</v>
       </c>
@@ -4194,6 +4218,15 @@
       </c>
     </row>
     <row r="76" spans="2:7">
+      <c r="B76" s="3">
+        <v>45910</v>
+      </c>
+      <c r="C76" t="s">
+        <v>205</v>
+      </c>
+      <c r="D76">
+        <v>69</v>
+      </c>
       <c r="E76" s="3">
         <v>45883</v>
       </c>
@@ -4205,6 +4238,15 @@
       </c>
     </row>
     <row r="77" spans="2:7">
+      <c r="B77" s="3">
+        <v>45910</v>
+      </c>
+      <c r="C77" t="s">
+        <v>204</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
       <c r="E77" s="3">
         <v>45883</v>
       </c>
@@ -4216,6 +4258,15 @@
       </c>
     </row>
     <row r="78" spans="2:7">
+      <c r="B78" s="3">
+        <v>45910</v>
+      </c>
+      <c r="C78" t="s">
+        <v>206</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
       <c r="E78" s="3">
         <v>45883</v>
       </c>
@@ -4227,6 +4278,15 @@
       </c>
     </row>
     <row r="79" spans="2:7">
+      <c r="B79" s="3">
+        <v>45910</v>
+      </c>
+      <c r="C79" t="s">
+        <v>207</v>
+      </c>
+      <c r="D79">
+        <v>230</v>
+      </c>
       <c r="E79" s="3">
         <v>45883</v>
       </c>
@@ -4238,6 +4298,15 @@
       </c>
     </row>
     <row r="80" spans="2:7">
+      <c r="B80" s="3">
+        <v>45910</v>
+      </c>
+      <c r="C80" t="s">
+        <v>215</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
       <c r="E80" s="3">
         <v>45883</v>
       </c>
@@ -4248,7 +4317,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="5:7">
+    <row r="81" spans="2:7">
+      <c r="B81" s="3">
+        <v>45910</v>
+      </c>
+      <c r="C81" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
       <c r="E81" s="3">
         <v>45883</v>
       </c>
@@ -4259,7 +4337,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="5:7">
+    <row r="82" spans="2:7">
+      <c r="B82" s="3">
+        <v>45910</v>
+      </c>
+      <c r="C82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
       <c r="E82" s="3">
         <v>45883</v>
       </c>
@@ -4270,7 +4357,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="5:7">
+    <row r="83" spans="2:7">
+      <c r="B83" s="3">
+        <v>45910</v>
+      </c>
+      <c r="C83" t="s">
+        <v>216</v>
+      </c>
+      <c r="D83">
+        <v>24</v>
+      </c>
       <c r="E83" s="3">
         <v>45883</v>
       </c>
@@ -4281,7 +4377,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="5:7">
+    <row r="84" spans="2:7">
+      <c r="B84" s="3">
+        <v>45910</v>
+      </c>
+      <c r="C84" t="s">
+        <v>208</v>
+      </c>
+      <c r="D84">
+        <v>24</v>
+      </c>
       <c r="E84" s="3">
         <v>45883</v>
       </c>
@@ -4292,7 +4397,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="5:7">
+    <row r="85" spans="2:7">
+      <c r="B85" s="3">
+        <v>45910</v>
+      </c>
+      <c r="C85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D85">
+        <v>27</v>
+      </c>
       <c r="E85" s="3">
         <v>45883</v>
       </c>
@@ -4303,7 +4417,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="5:7">
+    <row r="86" spans="2:7">
+      <c r="B86" s="3">
+        <v>45910</v>
+      </c>
+      <c r="C86" t="s">
+        <v>217</v>
+      </c>
+      <c r="D86">
+        <v>15</v>
+      </c>
       <c r="E86" s="3">
         <v>45883</v>
       </c>
@@ -4314,7 +4437,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="5:7">
+    <row r="87" spans="2:7">
+      <c r="B87" s="3">
+        <v>45910</v>
+      </c>
+      <c r="C87" t="s">
+        <v>218</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
       <c r="E87" s="3">
         <v>45883</v>
       </c>
@@ -4325,7 +4457,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="5:7">
+    <row r="88" spans="2:7">
+      <c r="B88" s="3">
+        <v>45910</v>
+      </c>
+      <c r="C88" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88">
+        <v>47</v>
+      </c>
       <c r="E88" s="3">
         <v>45883</v>
       </c>
@@ -4336,7 +4477,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="5:7">
+    <row r="89" spans="2:7">
       <c r="E89" s="3">
         <v>45883</v>
       </c>
@@ -4347,7 +4488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="5:7">
+    <row r="90" spans="2:7">
       <c r="E90" s="3">
         <v>45883</v>
       </c>
@@ -4358,7 +4499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="5:7">
+    <row r="91" spans="2:7">
       <c r="E91" s="3">
         <v>45883</v>
       </c>
@@ -4369,7 +4510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="5:7">
+    <row r="92" spans="2:7">
       <c r="E92" s="3">
         <v>45883</v>
       </c>
@@ -4380,7 +4521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="5:7">
+    <row r="93" spans="2:7">
       <c r="E93" s="3">
         <v>45883</v>
       </c>
@@ -4391,7 +4532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="5:7">
+    <row r="94" spans="2:7">
       <c r="E94" s="3">
         <v>45883</v>
       </c>
@@ -4402,7 +4543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="5:7">
+    <row r="95" spans="2:7">
       <c r="E95" s="3">
         <v>45895</v>
       </c>
@@ -4413,7 +4554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="5:7">
+    <row r="96" spans="2:7">
       <c r="E96" s="3">
         <v>45895</v>
       </c>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbist\OneDrive\Dokumenty\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B889A8-1B86-448C-8C0F-617311050B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F2CB12-2C0E-43B0-9247-118B5275E19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="221">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -690,6 +690,12 @@
   </si>
   <si>
     <t>login</t>
+  </si>
+  <si>
+    <t>lekarz-home.component.ts</t>
+  </si>
+  <si>
+    <t>recepcja-home.component.ts</t>
   </si>
 </sst>
 </file>
@@ -1310,32 +1316,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="D58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="10" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" customWidth="1"/>
+    <col min="13" max="14" width="12.5546875" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.5">
+    <row r="1" spans="1:16" ht="61.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.25">
+    <row r="2" spans="1:16" ht="23.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1343,7 +1349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.5">
+    <row r="3" spans="1:16" ht="61.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1362,37 +1368,37 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>1348</v>
+        <v>1399</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
         <v>1444</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1">
+    <row r="4" spans="1:16" ht="24.9" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0209987885314309</v>
+        <v>1.0140374331550801</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1407995692556199</v>
+        <v>1.1330213903743316</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.95907928388746799</v>
+        <v>0.95254010695187163</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.9072553506528469</v>
+        <v>0.93516042780748665</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>0.97186700767263423</v>
+        <v>0.96524064171122992</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3794,7 +3800,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="2:16">
+    <row r="58" spans="2:16" ht="15">
       <c r="B58" s="3">
         <v>45906</v>
       </c>
@@ -3997,7 +4003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:13">
       <c r="B65" s="3">
         <v>45906</v>
       </c>
@@ -4016,8 +4022,17 @@
       <c r="G65">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="2:7">
+      <c r="K65" s="3">
+        <v>45911</v>
+      </c>
+      <c r="L65" t="s">
+        <v>163</v>
+      </c>
+      <c r="M65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13">
       <c r="B66" s="3">
         <v>45906</v>
       </c>
@@ -4036,8 +4051,17 @@
       <c r="G66">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:7">
+      <c r="K66" s="3">
+        <v>45911</v>
+      </c>
+      <c r="L66" t="s">
+        <v>219</v>
+      </c>
+      <c r="M66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13">
       <c r="B67" s="3">
         <v>45906</v>
       </c>
@@ -4056,8 +4080,17 @@
       <c r="G67">
         <v>75</v>
       </c>
-    </row>
-    <row r="68" spans="2:7">
+      <c r="K67" s="3">
+        <v>45911</v>
+      </c>
+      <c r="L67" t="s">
+        <v>191</v>
+      </c>
+      <c r="M67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13">
       <c r="B68" s="3">
         <v>45906</v>
       </c>
@@ -4076,8 +4109,17 @@
       <c r="G68">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="2:7">
+      <c r="K68" s="3">
+        <v>45911</v>
+      </c>
+      <c r="L68" t="s">
+        <v>220</v>
+      </c>
+      <c r="M68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13">
       <c r="B69" s="3">
         <v>45906</v>
       </c>
@@ -4096,8 +4138,17 @@
       <c r="G69">
         <v>20</v>
       </c>
-    </row>
-    <row r="70" spans="2:7">
+      <c r="K69" s="3">
+        <v>45911</v>
+      </c>
+      <c r="L69" t="s">
+        <v>181</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13">
       <c r="B70" s="3">
         <v>45906</v>
       </c>
@@ -4116,8 +4167,17 @@
       <c r="G70">
         <v>19</v>
       </c>
-    </row>
-    <row r="71" spans="2:7">
+      <c r="K70" s="3">
+        <v>45911</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13">
       <c r="B71" s="3">
         <v>45906</v>
       </c>
@@ -4137,7 +4197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:13">
       <c r="B72" s="3">
         <v>45906</v>
       </c>
@@ -4157,7 +4217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:13">
       <c r="B73" s="3">
         <v>45906</v>
       </c>
@@ -4177,7 +4237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:13">
       <c r="B74" s="3">
         <v>45906</v>
       </c>
@@ -4197,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:13">
       <c r="B75" s="3">
         <v>45910</v>
       </c>
@@ -4217,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:13">
       <c r="B76" s="3">
         <v>45910</v>
       </c>
@@ -4237,7 +4297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:13">
       <c r="B77" s="3">
         <v>45910</v>
       </c>
@@ -4257,7 +4317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:13">
       <c r="B78" s="3">
         <v>45910</v>
       </c>
@@ -4277,7 +4337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:13">
       <c r="B79" s="3">
         <v>45910</v>
       </c>
@@ -4297,7 +4357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:13">
       <c r="B80" s="3">
         <v>45910</v>
       </c>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbist\OneDrive\Dokumenty\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F2CB12-2C0E-43B0-9247-118B5275E19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A0863B-EF8D-4AD3-856F-7A9BCD77D849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="221">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -1317,7 +1317,7 @@
   <dimension ref="A1:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L71" sqref="L71"/>
+      <selection activeCell="M77" sqref="M77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>1399</v>
+        <v>1494</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
@@ -1382,23 +1382,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0140374331550801</v>
+        <v>1.0013201320132012</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1330213903743316</v>
+        <v>1.1188118811881189</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.95254010695187163</v>
+        <v>0.94059405940594054</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.93516042780748665</v>
+        <v>0.98613861386138613</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>0.96524064171122992</v>
+        <v>0.95313531353135317</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -4196,6 +4196,15 @@
       <c r="G71">
         <v>4</v>
       </c>
+      <c r="K71" s="3">
+        <v>45911</v>
+      </c>
+      <c r="L71" t="s">
+        <v>134</v>
+      </c>
+      <c r="M71">
+        <v>5</v>
+      </c>
     </row>
     <row r="72" spans="2:13">
       <c r="B72" s="3">
@@ -4216,6 +4225,15 @@
       <c r="G72">
         <v>11</v>
       </c>
+      <c r="K72" s="3">
+        <v>45911</v>
+      </c>
+      <c r="L72" t="s">
+        <v>182</v>
+      </c>
+      <c r="M72">
+        <v>35</v>
+      </c>
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="3">
@@ -4236,6 +4254,15 @@
       <c r="G73">
         <v>6</v>
       </c>
+      <c r="K73" s="3">
+        <v>45911</v>
+      </c>
+      <c r="L73" t="s">
+        <v>183</v>
+      </c>
+      <c r="M73">
+        <v>4</v>
+      </c>
     </row>
     <row r="74" spans="2:13">
       <c r="B74" s="3">
@@ -4256,6 +4283,15 @@
       <c r="G74">
         <v>1</v>
       </c>
+      <c r="K74" s="3">
+        <v>45911</v>
+      </c>
+      <c r="L74" t="s">
+        <v>184</v>
+      </c>
+      <c r="M74">
+        <v>47</v>
+      </c>
     </row>
     <row r="75" spans="2:13">
       <c r="B75" s="3">
@@ -4275,6 +4311,15 @@
       </c>
       <c r="G75">
         <v>1</v>
+      </c>
+      <c r="K75" s="3">
+        <v>45911</v>
+      </c>
+      <c r="L75" t="s">
+        <v>178</v>
+      </c>
+      <c r="M75">
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="2:13">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbist\OneDrive\Dokumenty\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A0863B-EF8D-4AD3-856F-7A9BCD77D849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE2BF74-76BA-49B3-B0BC-AEF3E1CF1946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="224">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -696,6 +696,15 @@
   </si>
   <si>
     <t>recepcja-home.component.ts</t>
+  </si>
+  <si>
+    <t>pacjent-wizyta-add.component.css</t>
+  </si>
+  <si>
+    <t>pacjent-wizyta-add.component.html</t>
+  </si>
+  <si>
+    <t>pacjent-wizyta-add.component.ts</t>
   </si>
 </sst>
 </file>
@@ -1316,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M77" sqref="M77"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1368,7 +1377,7 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>1494</v>
+        <v>1612</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
@@ -1382,23 +1391,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0013201320132012</v>
+        <v>0.98596126348628621</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1188118811881189</v>
+        <v>1.1016508514233718</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.94059405940594054</v>
+        <v>0.92616664500194978</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.98613861386138613</v>
+        <v>1.0477057064864161</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>0.95313531353135317</v>
+        <v>0.93851553360197582</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -4341,6 +4350,15 @@
       <c r="G76">
         <v>2</v>
       </c>
+      <c r="K76" s="3">
+        <v>45911</v>
+      </c>
+      <c r="L76" t="s">
+        <v>221</v>
+      </c>
+      <c r="M76">
+        <v>69</v>
+      </c>
     </row>
     <row r="77" spans="2:13">
       <c r="B77" s="3">
@@ -4361,6 +4379,15 @@
       <c r="G77">
         <v>12</v>
       </c>
+      <c r="K77" s="3">
+        <v>45911</v>
+      </c>
+      <c r="L77" t="s">
+        <v>222</v>
+      </c>
+      <c r="M77">
+        <v>21</v>
+      </c>
     </row>
     <row r="78" spans="2:13">
       <c r="B78" s="3">
@@ -4381,6 +4408,15 @@
       <c r="G78">
         <v>3</v>
       </c>
+      <c r="K78" s="3">
+        <v>45911</v>
+      </c>
+      <c r="L78" t="s">
+        <v>223</v>
+      </c>
+      <c r="M78">
+        <v>26</v>
+      </c>
     </row>
     <row r="79" spans="2:13">
       <c r="B79" s="3">
@@ -4401,6 +4437,15 @@
       <c r="G79">
         <v>30</v>
       </c>
+      <c r="K79" s="3">
+        <v>45911</v>
+      </c>
+      <c r="L79" t="s">
+        <v>130</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="2:13">
       <c r="B80" s="3">
@@ -4421,8 +4466,9 @@
       <c r="G80">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="2:7">
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" spans="2:11">
       <c r="B81" s="3">
         <v>45910</v>
       </c>
@@ -4441,8 +4487,9 @@
       <c r="G81">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="2:7">
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" spans="2:11">
       <c r="B82" s="3">
         <v>45910</v>
       </c>
@@ -4462,7 +4509,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:11">
       <c r="B83" s="3">
         <v>45910</v>
       </c>
@@ -4482,7 +4529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:11">
       <c r="B84" s="3">
         <v>45910</v>
       </c>
@@ -4502,7 +4549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:11">
       <c r="B85" s="3">
         <v>45910</v>
       </c>
@@ -4522,7 +4569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:11">
       <c r="B86" s="3">
         <v>45910</v>
       </c>
@@ -4542,7 +4589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:11">
       <c r="B87" s="3">
         <v>45910</v>
       </c>
@@ -4562,7 +4609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="2:11">
       <c r="B88" s="3">
         <v>45910</v>
       </c>
@@ -4582,7 +4629,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="2:11">
       <c r="E89" s="3">
         <v>45883</v>
       </c>
@@ -4593,7 +4640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="2:11">
       <c r="E90" s="3">
         <v>45883</v>
       </c>
@@ -4604,7 +4651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="2:7">
+    <row r="91" spans="2:11">
       <c r="E91" s="3">
         <v>45883</v>
       </c>
@@ -4615,7 +4662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="2:11">
       <c r="E92" s="3">
         <v>45883</v>
       </c>
@@ -4626,7 +4673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="2:11">
       <c r="E93" s="3">
         <v>45883</v>
       </c>
@@ -4637,7 +4684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="2:11">
       <c r="E94" s="3">
         <v>45883</v>
       </c>
@@ -4648,7 +4695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="2:11">
       <c r="E95" s="3">
         <v>45895</v>
       </c>
@@ -4659,7 +4706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:11">
       <c r="E96" s="3">
         <v>45895</v>
       </c>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbist\OneDrive\Dokumenty\GitHub\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubac\Documents\GitHub\AI\przych\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE2BF74-76BA-49B3-B0BC-AEF3E1CF1946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D81DB51-E46A-4977-B5A2-268DD14CB029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="225">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -705,6 +705,9 @@
   </si>
   <si>
     <t>pacjent-wizyta-add.component.ts</t>
+  </si>
+  <si>
+    <t>css-y</t>
   </si>
 </sst>
 </file>
@@ -1325,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L80" sqref="L80"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1373,7 +1376,7 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>1425</v>
+        <v>1567</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
@@ -1391,23 +1394,23 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.98596126348628621</v>
+        <v>0.96809189534141671</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.1016508514233718</v>
+        <v>1.0816847479259732</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.92616664500194978</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0477057064864161</v>
+        <v>1.028717294192725</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>0.93851553360197582</v>
+        <v>0.9215060625398851</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3799,6 +3802,15 @@
       <c r="G57">
         <v>2</v>
       </c>
+      <c r="H57" s="3">
+        <v>45911</v>
+      </c>
+      <c r="I57" t="s">
+        <v>224</v>
+      </c>
+      <c r="J57">
+        <v>142</v>
+      </c>
       <c r="K57" s="3">
         <v>45909</v>
       </c>
@@ -4466,7 +4478,6 @@
       <c r="G80">
         <v>10</v>
       </c>
-      <c r="K80" s="3"/>
     </row>
     <row r="81" spans="2:11">
       <c r="B81" s="3">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubac\Documents\GitHub\AI\przych\Projekt-Przychodnia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Projekt-Przychodnia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D81DB51-E46A-4977-B5A2-268DD14CB029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C4134B-3922-454A-B2FF-E2597FF77C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="226">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -708,6 +708,9 @@
   </si>
   <si>
     <t>css-y</t>
+  </si>
+  <si>
+    <t>ocena za projekt</t>
   </si>
 </sst>
 </file>
@@ -1326,34 +1329,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P112"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="25.33203125" customWidth="1"/>
-    <col min="13" max="14" width="12.5546875" customWidth="1"/>
-    <col min="15" max="15" width="23.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" customWidth="1"/>
+    <col min="13" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.2">
+    <row r="1" spans="1:16" ht="61.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.4">
+    <row r="2" spans="1:16" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1361,365 +1364,302 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:16" ht="23.25">
+      <c r="A3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="61.5">
+      <c r="A4" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="D3">
-        <f>SUM(D7:D1001)</f>
-        <v>1517</v>
-      </c>
-      <c r="G3">
-        <f>SUM(G7:G1001)</f>
-        <v>1695</v>
-      </c>
-      <c r="J3">
-        <f>SUM(J7:J1001)</f>
-        <v>1567</v>
-      </c>
-      <c r="M3">
-        <f>SUM(M7:M1001)</f>
-        <v>1612</v>
-      </c>
-      <c r="P3">
-        <f>SUM(P7:P1001)</f>
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="24.9" customHeight="1">
-      <c r="A4" t="s">
-        <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
-        <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
+        <f>SUM(D9:D1003)</f>
+        <v>1517</v>
+      </c>
+      <c r="G4">
+        <f>SUM(G9:G1003)</f>
+        <v>1695</v>
+      </c>
+      <c r="J4">
+        <f>SUM(J9:J1003)</f>
+        <v>1567</v>
+      </c>
+      <c r="M4">
+        <f>SUM(M9:M1003)</f>
+        <v>1612</v>
+      </c>
+      <c r="P4">
+        <f>SUM(P9:P1003)</f>
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="61.5">
+      <c r="B5" s="1"/>
+      <c r="D5">
+        <f>$B$3*D6</f>
+        <v>3.8723675813656668</v>
+      </c>
+      <c r="G5">
+        <f>$B$3*G6</f>
+        <v>4.326738991703893</v>
+      </c>
+      <c r="J5">
+        <f>$B$3*J6</f>
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <f>$B$3*M6</f>
+        <v>4.1148691767708998</v>
+      </c>
+      <c r="P5">
+        <f>$B$3*P6</f>
+        <v>3.6860242501595404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="24.95" customHeight="1">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="D6">
+        <f>($B$2*D$4)/SUM($D$4:$AK$4)</f>
         <v>0.96809189534141671</v>
       </c>
-      <c r="G4">
-        <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
+      <c r="G6">
+        <f>($B$2*G$4)/SUM($D$4:$AK$4)</f>
         <v>1.0816847479259732</v>
       </c>
-      <c r="J4">
-        <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
+      <c r="J6">
+        <f>($B$2*J$4)/SUM($D$4:$AK$4)</f>
         <v>1</v>
       </c>
-      <c r="M4">
-        <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
+      <c r="M6">
+        <f>($B$2*M$4)/SUM($D$4:$AK$4)</f>
         <v>1.028717294192725</v>
       </c>
-      <c r="P4">
-        <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
+      <c r="P6">
+        <f>($B$2*P$4)/SUM($D$4:$AK$4)</f>
         <v>0.9215060625398851</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="B5" s="10" t="s">
+    <row r="7" spans="1:16">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11" t="s">
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="B6" t="s">
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H8" t="s">
         <v>4</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I8" t="s">
         <v>5</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J8" t="s">
         <v>6</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K8" t="s">
         <v>4</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L8" t="s">
         <v>5</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M8" t="s">
         <v>6</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N8" t="s">
         <v>4</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O8" t="s">
         <v>5</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P8" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="B7" s="3">
-        <v>45749</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3">
-        <v>45749</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7">
-        <v>20</v>
-      </c>
-      <c r="H7" s="3">
-        <v>45749</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7">
-        <v>20</v>
-      </c>
-      <c r="K7" s="3">
-        <v>45749</v>
-      </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7">
-        <v>20</v>
-      </c>
-      <c r="N7" s="3">
-        <v>45749</v>
-      </c>
-      <c r="O7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="B8" s="3">
-        <v>45756</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>50</v>
-      </c>
-      <c r="E8" s="3">
-        <v>45756</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8">
-        <v>50</v>
-      </c>
-      <c r="H8" s="3">
-        <v>45765</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8">
-        <v>56</v>
-      </c>
-      <c r="K8" s="3">
-        <v>45756</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8">
-        <v>100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>45756</v>
-      </c>
-      <c r="O8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8">
-        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="B9" s="3">
-        <v>45756</v>
+        <v>45749</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E9" s="3">
-        <v>45769</v>
+        <v>45749</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H9" s="3">
-        <v>45765</v>
+        <v>45749</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K9" s="3">
-        <v>45765</v>
+        <v>45749</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N9" s="3">
-        <v>45756</v>
+        <v>45749</v>
       </c>
       <c r="O9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P9">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="B10" s="3">
-        <v>45769</v>
+        <v>45756</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3">
-        <v>45769</v>
+        <v>45756</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H10" s="3">
         <v>45765</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="K10" s="3">
-        <v>45765</v>
+        <v>45756</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>45756</v>
       </c>
       <c r="O10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P10">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="B11" s="3">
-        <v>45769</v>
+        <v>45756</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E11" s="3">
         <v>45769</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H11" s="3">
         <v>45765</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11" s="3">
         <v>45765</v>
       </c>
       <c r="L11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="N11" s="3">
         <v>45756</v>
       </c>
       <c r="O11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P11">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1727,43 +1667,43 @@
         <v>45769</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" s="3">
-        <v>45782</v>
+        <v>45769</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H12" s="3">
         <v>45765</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J12">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="K12" s="3">
         <v>45765</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="N12" s="3">
         <v>45756</v>
       </c>
       <c r="O12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P12">
         <v>8</v>
@@ -1774,140 +1714,140 @@
         <v>45769</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>45782</v>
+        <v>45769</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H13" s="3">
         <v>45765</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K13" s="3">
         <v>45765</v>
       </c>
       <c r="L13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="N13" s="3">
         <v>45756</v>
       </c>
       <c r="O13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P13">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="B14" s="3">
-        <v>45782</v>
+        <v>45769</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>45782</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H14" s="3">
-        <v>45770</v>
+        <v>45765</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J14">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K14" s="3">
         <v>45765</v>
       </c>
       <c r="L14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="N14" s="3">
         <v>45756</v>
       </c>
       <c r="O14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P14">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="B15" s="3">
+        <v>45769</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>45782</v>
       </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15" s="3">
-        <v>45783</v>
-      </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G15">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="H15" s="3">
-        <v>45770</v>
+        <v>45765</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K15" s="3">
         <v>45765</v>
       </c>
       <c r="L15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N15" s="3">
         <v>45756</v>
       </c>
       <c r="O15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P15">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1915,140 +1855,140 @@
         <v>45782</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" s="3">
-        <v>45783</v>
+        <v>45782</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G16">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H16" s="3">
         <v>45770</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K16" s="3">
         <v>45765</v>
       </c>
       <c r="L16" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N16" s="3">
         <v>45756</v>
       </c>
       <c r="O16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P16">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="3">
-        <v>45783</v>
+        <v>45782</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E17" s="3">
         <v>45783</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G17">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H17" s="3">
-        <v>45783</v>
+        <v>45770</v>
       </c>
       <c r="I17" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K17" s="3">
         <v>45765</v>
       </c>
       <c r="L17" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N17" s="3">
-        <v>45762</v>
+        <v>45756</v>
       </c>
       <c r="O17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P17">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="3">
-        <v>45783</v>
+        <v>45782</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D18">
         <v>6</v>
       </c>
       <c r="E18" s="3">
-        <v>45785</v>
+        <v>45783</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="H18" s="3">
-        <v>45783</v>
+        <v>45770</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" s="3">
-        <v>45793</v>
+        <v>45765</v>
       </c>
       <c r="L18" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N18" s="3">
-        <v>45793</v>
+        <v>45756</v>
       </c>
       <c r="O18" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="P18">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:16">
@@ -2056,46 +1996,46 @@
         <v>45783</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E19" s="3">
-        <v>45785</v>
+        <v>45783</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G19">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H19" s="3">
         <v>45783</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K19" s="3">
-        <v>45793</v>
+        <v>45765</v>
       </c>
       <c r="L19" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="N19" s="3">
-        <v>45793</v>
+        <v>45762</v>
       </c>
       <c r="O19" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="P19">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:16">
@@ -2103,25 +2043,25 @@
         <v>45783</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" s="3">
         <v>45785</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G20">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H20" s="3">
         <v>45783</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -2130,7 +2070,7 @@
         <v>45793</v>
       </c>
       <c r="L20" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="M20">
         <v>35</v>
@@ -2139,10 +2079,10 @@
         <v>45793</v>
       </c>
       <c r="O20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P20">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:16">
@@ -2150,110 +2090,110 @@
         <v>45783</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21">
         <v>11</v>
       </c>
       <c r="E21" s="3">
-        <v>45790</v>
+        <v>45785</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="G21">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H21" s="3">
         <v>45783</v>
       </c>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K21" s="3">
         <v>45793</v>
       </c>
       <c r="L21" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N21" s="3">
         <v>45793</v>
       </c>
       <c r="O21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P21">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="3">
-        <v>45790</v>
+        <v>45783</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>45790</v>
+        <v>45785</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="G22">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H22" s="3">
         <v>45783</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" s="3">
         <v>45793</v>
       </c>
       <c r="L22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M22">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N22" s="3">
         <v>45793</v>
       </c>
       <c r="O22" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="P22">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="3">
-        <v>45790</v>
+        <v>45783</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E23" s="3">
         <v>45790</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G23">
         <v>72</v>
@@ -2262,28 +2202,28 @@
         <v>45783</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" s="3">
         <v>45793</v>
       </c>
       <c r="L23" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N23" s="3">
         <v>45793</v>
       </c>
       <c r="O23" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="P23">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:16">
@@ -2291,46 +2231,46 @@
         <v>45790</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E24" s="3">
         <v>45790</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G24">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="H24" s="3">
-        <v>45784</v>
+        <v>45783</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J24">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="K24" s="3">
         <v>45793</v>
       </c>
       <c r="L24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M24">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N24" s="3">
         <v>45793</v>
       </c>
       <c r="O24" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="P24">
-        <v>126</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:16">
@@ -2338,46 +2278,46 @@
         <v>45790</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25" s="5">
-        <v>45879</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>88</v>
+        <v>7</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45790</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="H25" s="3">
-        <v>45784</v>
+        <v>45783</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J25">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K25" s="3">
         <v>45793</v>
       </c>
       <c r="L25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M25">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="N25" s="3">
-        <v>45862</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>35</v>
+        <v>45793</v>
+      </c>
+      <c r="O25" t="s">
+        <v>104</v>
       </c>
       <c r="P25">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:16">
@@ -2385,46 +2325,46 @@
         <v>45790</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E26" s="3">
-        <v>45879</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>126</v>
+        <v>45790</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="H26" s="3">
         <v>45784</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J26">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="K26" s="3">
         <v>45793</v>
       </c>
       <c r="L26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M26">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N26" s="3">
-        <v>45862</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>42</v>
+        <v>45793</v>
+      </c>
+      <c r="O26" t="s">
+        <v>105</v>
       </c>
       <c r="P26">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -2432,46 +2372,46 @@
         <v>45790</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D27">
-        <v>11</v>
-      </c>
-      <c r="E27" s="3">
+        <v>10</v>
+      </c>
+      <c r="E27" s="5">
         <v>45879</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H27" s="3">
         <v>45784</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K27" s="3">
-        <v>45802</v>
+        <v>45793</v>
       </c>
       <c r="L27" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="N27" s="3">
         <v>45862</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="P27">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:16">
@@ -2479,7 +2419,7 @@
         <v>45790</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28">
         <v>6</v>
@@ -2488,37 +2428,37 @@
         <v>45879</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H28" s="3">
-        <v>45788</v>
+        <v>45784</v>
       </c>
       <c r="I28" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="J28">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="K28" s="3">
-        <v>45805</v>
+        <v>45793</v>
       </c>
       <c r="L28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M28">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="N28" s="3">
         <v>45862</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="P28">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="2:16">
@@ -2526,7 +2466,7 @@
         <v>45790</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D29">
         <v>11</v>
@@ -2535,37 +2475,37 @@
         <v>45879</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" s="3">
-        <v>45788</v>
+        <v>45784</v>
       </c>
       <c r="I29" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="J29">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="K29" s="3">
-        <v>45878</v>
+        <v>45802</v>
       </c>
       <c r="L29" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="N29" s="3">
         <v>45862</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P29">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="2:16">
@@ -2573,7 +2513,7 @@
         <v>45790</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30">
         <v>6</v>
@@ -2582,7 +2522,7 @@
         <v>45879</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -2591,28 +2531,28 @@
         <v>45788</v>
       </c>
       <c r="I30" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J30">
         <v>20</v>
       </c>
       <c r="K30" s="3">
-        <v>45878</v>
+        <v>45805</v>
       </c>
       <c r="L30" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="N30" s="3">
         <v>45862</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="P30">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="2:16">
@@ -2620,7 +2560,7 @@
         <v>45790</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D31">
         <v>11</v>
@@ -2629,25 +2569,25 @@
         <v>45879</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="G31">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H31" s="3">
         <v>45788</v>
       </c>
       <c r="I31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J31">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="K31" s="3">
         <v>45878</v>
       </c>
       <c r="L31" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="M31">
         <v>4</v>
@@ -2656,10 +2596,10 @@
         <v>45862</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P31">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="2:16">
@@ -2667,7 +2607,7 @@
         <v>45790</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D32">
         <v>6</v>
@@ -2676,37 +2616,37 @@
         <v>45879</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" s="3">
         <v>45788</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K32" s="3">
         <v>45878</v>
       </c>
       <c r="L32" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N32" s="3">
         <v>45862</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P32">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:16">
@@ -2714,43 +2654,43 @@
         <v>45790</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D33">
         <v>11</v>
       </c>
       <c r="E33" s="3">
-        <v>45880</v>
-      </c>
-      <c r="F33" t="s">
-        <v>129</v>
+        <v>45879</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H33" s="3">
         <v>45788</v>
       </c>
       <c r="I33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K33" s="3">
         <v>45878</v>
       </c>
       <c r="L33" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N33" s="3">
         <v>45862</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P33">
         <v>11</v>
@@ -2761,46 +2701,46 @@
         <v>45790</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D34">
         <v>6</v>
       </c>
       <c r="E34" s="3">
-        <v>45880</v>
-      </c>
-      <c r="F34" t="s">
-        <v>130</v>
+        <v>45879</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H34" s="3">
-        <v>45790</v>
+        <v>45788</v>
       </c>
       <c r="I34" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="J34">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="K34" s="3">
-        <v>45887</v>
+        <v>45878</v>
       </c>
       <c r="L34" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="N34" s="3">
         <v>45862</v>
       </c>
-      <c r="O34" t="s">
-        <v>118</v>
+      <c r="O34" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="P34">
-        <v>152</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="2:16">
@@ -2808,46 +2748,46 @@
         <v>45790</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E35" s="3">
         <v>45880</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>131</v>
+      <c r="F35" t="s">
+        <v>129</v>
       </c>
       <c r="G35">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H35" s="3">
-        <v>45790</v>
+        <v>45788</v>
       </c>
       <c r="I35" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="J35">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="K35" s="3">
-        <v>45900</v>
+        <v>45878</v>
       </c>
       <c r="L35" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="N35" s="3">
         <v>45862</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="P35">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="2:16">
@@ -2855,187 +2795,187 @@
         <v>45790</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E36" s="3">
         <v>45880</v>
       </c>
       <c r="F36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G36">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H36" s="3">
         <v>45790</v>
       </c>
       <c r="I36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J36">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="K36" s="3">
-        <v>45900</v>
+        <v>45887</v>
       </c>
       <c r="L36" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="N36" s="3">
         <v>45862</v>
       </c>
-      <c r="O36" s="4" t="s">
-        <v>119</v>
+      <c r="O36" t="s">
+        <v>118</v>
       </c>
       <c r="P36">
-        <v>63</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="2:16">
       <c r="B37" s="3">
-        <v>45798</v>
+        <v>45790</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D37">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="E37" s="3">
         <v>45880</v>
       </c>
-      <c r="F37" t="s">
-        <v>133</v>
+      <c r="F37" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H37" s="3">
         <v>45790</v>
       </c>
       <c r="I37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J37">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="K37" s="3">
         <v>45900</v>
       </c>
       <c r="L37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M37">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="N37" s="3">
-        <v>45869</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>175</v>
+        <v>45862</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="P37">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="3">
-        <v>45874</v>
+        <v>45790</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="D38">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E38" s="3">
         <v>45880</v>
       </c>
       <c r="F38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G38">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H38" s="3">
         <v>45790</v>
       </c>
       <c r="I38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J38">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K38" s="3">
         <v>45900</v>
       </c>
       <c r="L38" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N38" s="3">
-        <v>45869</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>174</v>
+        <v>45862</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="P38">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="3">
-        <v>45874</v>
+        <v>45798</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="E39" s="3">
         <v>45880</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G39">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H39" s="3">
         <v>45790</v>
       </c>
       <c r="I39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J39">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="K39" s="3">
         <v>45900</v>
       </c>
       <c r="L39" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="N39" s="3">
         <v>45869</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="P39">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="2:16">
@@ -3043,16 +2983,16 @@
         <v>45874</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E40" s="3">
         <v>45880</v>
       </c>
       <c r="F40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G40">
         <v>9</v>
@@ -3061,25 +3001,25 @@
         <v>45790</v>
       </c>
       <c r="I40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J40">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K40" s="3">
         <v>45900</v>
       </c>
       <c r="L40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N40" s="3">
         <v>45869</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="P40">
         <v>7</v>
@@ -3090,46 +3030,46 @@
         <v>45874</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E41" s="3">
         <v>45880</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>137</v>
+      <c r="F41" t="s">
+        <v>135</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H41" s="3">
         <v>45790</v>
       </c>
       <c r="I41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J41">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="K41" s="3">
-        <v>45903</v>
+        <v>45900</v>
       </c>
       <c r="L41" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N41" s="3">
         <v>45869</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="P41">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="2:16">
@@ -3137,7 +3077,7 @@
         <v>45874</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3146,37 +3086,37 @@
         <v>45880</v>
       </c>
       <c r="F42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H42" s="3">
         <v>45790</v>
       </c>
       <c r="I42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J42">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="K42" s="3">
-        <v>45903</v>
+        <v>45900</v>
       </c>
       <c r="L42" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="M42">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N42" s="3">
         <v>45869</v>
       </c>
-      <c r="O42" t="s">
-        <v>176</v>
+      <c r="O42" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="P42">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="2:16">
@@ -3184,16 +3124,16 @@
         <v>45874</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E43" s="3">
         <v>45880</v>
       </c>
-      <c r="F43" t="s">
-        <v>139</v>
+      <c r="F43" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -3202,28 +3142,28 @@
         <v>45790</v>
       </c>
       <c r="I43" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="J43">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K43" s="3">
         <v>45903</v>
       </c>
       <c r="L43" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N43" s="3">
         <v>45869</v>
       </c>
-      <c r="O43" t="s">
-        <v>177</v>
+      <c r="O43" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="P43">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="2:16">
@@ -3231,25 +3171,25 @@
         <v>45874</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E44" s="3">
         <v>45880</v>
       </c>
       <c r="F44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H44" s="3">
         <v>45790</v>
       </c>
       <c r="I44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J44">
         <v>14</v>
@@ -3258,54 +3198,54 @@
         <v>45903</v>
       </c>
       <c r="L44" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="M44">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N44" s="3">
         <v>45869</v>
       </c>
-      <c r="O44" s="8" t="s">
-        <v>178</v>
+      <c r="O44" t="s">
+        <v>176</v>
       </c>
       <c r="P44">
-        <v>76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="2:16">
       <c r="B45" s="3">
-        <v>45887</v>
+        <v>45874</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>45880</v>
       </c>
       <c r="F45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G45">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>45790</v>
       </c>
       <c r="I45" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="J45">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K45" s="3">
         <v>45903</v>
       </c>
       <c r="L45" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="M45">
         <v>2</v>
@@ -3313,58 +3253,58 @@
       <c r="N45" s="3">
         <v>45869</v>
       </c>
-      <c r="O45" s="8" t="s">
-        <v>179</v>
+      <c r="O45" t="s">
+        <v>177</v>
       </c>
       <c r="P45">
-        <v>78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="2:16">
       <c r="B46" s="3">
-        <v>45887</v>
+        <v>45874</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="D46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E46" s="3">
         <v>45880</v>
       </c>
       <c r="F46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H46" s="3">
         <v>45790</v>
       </c>
       <c r="I46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J46">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K46" s="3">
         <v>45903</v>
       </c>
       <c r="L46" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="M46">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N46" s="3">
-        <v>45896</v>
-      </c>
-      <c r="O46" s="9" t="s">
-        <v>181</v>
+        <v>45869</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="P46">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="2:16">
@@ -3372,46 +3312,46 @@
         <v>45887</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D47">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E47" s="3">
         <v>45880</v>
       </c>
       <c r="F47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H47" s="3">
         <v>45790</v>
       </c>
       <c r="I47" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="J47">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="K47" s="3">
         <v>45903</v>
       </c>
       <c r="L47" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="M47">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N47" s="3">
-        <v>45896</v>
-      </c>
-      <c r="O47" s="9" t="s">
-        <v>183</v>
+        <v>45869</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="P47">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="2:16">
@@ -3419,16 +3359,16 @@
         <v>45887</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E48" s="3">
         <v>45880</v>
       </c>
       <c r="F48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G48">
         <v>4</v>
@@ -3437,7 +3377,7 @@
         <v>45790</v>
       </c>
       <c r="I48" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="J48">
         <v>6</v>
@@ -3446,19 +3386,19 @@
         <v>45903</v>
       </c>
       <c r="L48" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M48">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="N48" s="3">
         <v>45896</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P48">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="2:16">
@@ -3466,25 +3406,25 @@
         <v>45887</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="D49">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E49" s="3">
         <v>45880</v>
       </c>
       <c r="F49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G49">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="H49" s="3">
         <v>45790</v>
       </c>
       <c r="I49" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J49">
         <v>6</v>
@@ -3493,27 +3433,27 @@
         <v>45903</v>
       </c>
       <c r="L49" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N49" s="3">
         <v>45896</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P49">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="2:16">
       <c r="B50" s="3">
-        <v>45905</v>
+        <v>45887</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -3522,16 +3462,16 @@
         <v>45880</v>
       </c>
       <c r="F50" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G50">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H50" s="3">
         <v>45790</v>
       </c>
       <c r="I50" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="J50">
         <v>6</v>
@@ -3540,57 +3480,66 @@
         <v>45903</v>
       </c>
       <c r="L50" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M50">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="N50" s="3">
         <v>45896</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P50">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="2:16">
       <c r="B51" s="3">
-        <v>45905</v>
+        <v>45887</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E51" s="3">
         <v>45880</v>
       </c>
       <c r="F51" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="H51" s="3">
-        <v>45855</v>
+        <v>45790</v>
       </c>
       <c r="I51" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="J51">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="K51" s="3">
         <v>45903</v>
       </c>
       <c r="L51" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="M51">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="N51" s="3">
+        <v>45896</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="P51">
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="2:16">
@@ -3598,7 +3547,7 @@
         <v>45905</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3607,28 +3556,37 @@
         <v>45880</v>
       </c>
       <c r="F52" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G52">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H52" s="3">
-        <v>45855</v>
+        <v>45790</v>
       </c>
       <c r="I52" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="J52">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="K52" s="3">
         <v>45903</v>
       </c>
       <c r="L52" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="N52" s="3">
+        <v>45896</v>
+      </c>
+      <c r="O52" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="P52">
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="2:16">
@@ -3636,37 +3594,37 @@
         <v>45905</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="3">
         <v>45880</v>
       </c>
       <c r="F53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G53">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H53" s="3">
         <v>45855</v>
       </c>
       <c r="I53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J53">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="K53" s="3">
         <v>45903</v>
       </c>
       <c r="L53" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="M53">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="2:16">
@@ -3674,37 +3632,37 @@
         <v>45905</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E54" s="3">
         <v>45880</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="G54">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3">
+        <v>45855</v>
+      </c>
+      <c r="I54" t="s">
+        <v>110</v>
+      </c>
+      <c r="J54">
+        <v>33</v>
+      </c>
+      <c r="K54" s="3">
+        <v>45903</v>
+      </c>
+      <c r="L54" t="s">
+        <v>176</v>
+      </c>
+      <c r="M54">
         <v>1</v>
-      </c>
-      <c r="H54" s="3">
-        <v>45909</v>
-      </c>
-      <c r="I54" t="s">
-        <v>209</v>
-      </c>
-      <c r="J54">
-        <v>96</v>
-      </c>
-      <c r="K54" s="3">
-        <v>45906</v>
-      </c>
-      <c r="L54" t="s">
-        <v>189</v>
-      </c>
-      <c r="M54">
-        <v>4</v>
       </c>
     </row>
     <row r="55" spans="2:16">
@@ -3712,7 +3670,7 @@
         <v>45905</v>
       </c>
       <c r="C55" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -3720,29 +3678,29 @@
       <c r="E55" s="3">
         <v>45880</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>150</v>
+      <c r="F55" t="s">
+        <v>149</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H55" s="3">
-        <v>45909</v>
+        <v>45855</v>
       </c>
       <c r="I55" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="J55">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="K55" s="3">
-        <v>45907</v>
+        <v>45903</v>
       </c>
       <c r="L55" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M55">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="2:16">
@@ -3750,104 +3708,113 @@
         <v>45905</v>
       </c>
       <c r="C56" t="s">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E56" s="3">
         <v>45880</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>151</v>
+      <c r="F56" t="s">
+        <v>20</v>
       </c>
       <c r="G56">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="H56" s="3">
         <v>45909</v>
       </c>
       <c r="I56" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J56">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="K56" s="3">
-        <v>45907</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>168</v>
+        <v>45906</v>
+      </c>
+      <c r="L56" t="s">
+        <v>189</v>
       </c>
       <c r="M56">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="2:16">
       <c r="B57" s="3">
-        <v>45906</v>
+        <v>45905</v>
       </c>
       <c r="C57" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E57" s="3">
         <v>45880</v>
       </c>
-      <c r="F57" t="s">
-        <v>29</v>
+      <c r="F57" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H57" s="3">
-        <v>45911</v>
+        <v>45909</v>
       </c>
       <c r="I57" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="J57">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="K57" s="3">
-        <v>45909</v>
+        <v>45907</v>
       </c>
       <c r="L57" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="M57">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" ht="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16">
       <c r="B58" s="3">
-        <v>45906</v>
+        <v>45905</v>
       </c>
       <c r="C58" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E58" s="3">
         <v>45880</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>152</v>
+      <c r="F58" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="G58">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="H58" s="3">
+        <v>45909</v>
+      </c>
+      <c r="I58" t="s">
+        <v>211</v>
+      </c>
+      <c r="J58">
+        <v>200</v>
       </c>
       <c r="K58" s="3">
-        <v>45909</v>
-      </c>
-      <c r="L58" t="s">
-        <v>213</v>
+        <v>45907</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="M58">
-        <v>100</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="2:16">
@@ -3855,28 +3822,37 @@
         <v>45906</v>
       </c>
       <c r="C59" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E59" s="3">
         <v>45880</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>153</v>
+      <c r="F59" t="s">
+        <v>29</v>
       </c>
       <c r="G59">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="H59" s="3">
+        <v>45911</v>
+      </c>
+      <c r="I59" t="s">
+        <v>224</v>
+      </c>
+      <c r="J59">
+        <v>142</v>
       </c>
       <c r="K59" s="3">
-        <v>45910</v>
+        <v>45909</v>
       </c>
       <c r="L59" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="M59">
-        <v>3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="2:16">
@@ -3884,28 +3860,28 @@
         <v>45906</v>
       </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="3">
         <v>45880</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>154</v>
+      <c r="F60" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K60" s="3">
-        <v>45910</v>
+        <v>45909</v>
       </c>
       <c r="L60" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="M60">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="2:16">
@@ -3913,25 +3889,25 @@
         <v>45906</v>
       </c>
       <c r="C61" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E61" s="3">
-        <v>45881</v>
-      </c>
-      <c r="F61" t="s">
-        <v>156</v>
+        <v>45880</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="G61">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="K61" s="3">
         <v>45910</v>
       </c>
       <c r="L61" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="M61">
         <v>3</v>
@@ -3942,25 +3918,25 @@
         <v>45906</v>
       </c>
       <c r="C62" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E62" s="3">
-        <v>45881</v>
-      </c>
-      <c r="F62" t="s">
-        <v>133</v>
+        <v>45880</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="G62">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="K62" s="3">
         <v>45910</v>
       </c>
       <c r="L62" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="M62">
         <v>3</v>
@@ -3971,7 +3947,7 @@
         <v>45906</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="D63">
         <v>5</v>
@@ -3980,19 +3956,19 @@
         <v>45881</v>
       </c>
       <c r="F63" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="G63">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="K63" s="3">
         <v>45910</v>
       </c>
       <c r="L63" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="M63">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="2:16">
@@ -4000,28 +3976,28 @@
         <v>45906</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64" s="3">
         <v>45881</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>152</v>
+      <c r="F64" t="s">
+        <v>133</v>
       </c>
       <c r="G64">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K64" s="3">
         <v>45910</v>
       </c>
       <c r="L64" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="2:13">
@@ -4029,28 +4005,28 @@
         <v>45906</v>
       </c>
       <c r="C65" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E65" s="3">
         <v>45881</v>
       </c>
       <c r="F65" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G65">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="K65" s="3">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="L65" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="M65">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="2:13">
@@ -4058,28 +4034,28 @@
         <v>45906</v>
       </c>
       <c r="C66" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E66" s="3">
         <v>45881</v>
       </c>
-      <c r="F66" t="s">
-        <v>157</v>
+      <c r="F66" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="G66">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="K66" s="3">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="L66" t="s">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="M66">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="2:13">
@@ -4087,25 +4063,25 @@
         <v>45906</v>
       </c>
       <c r="C67" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D67">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E67" s="3">
-        <v>45882</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>158</v>
+        <v>45881</v>
+      </c>
+      <c r="F67" t="s">
+        <v>142</v>
       </c>
       <c r="G67">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="K67" s="3">
         <v>45911</v>
       </c>
       <c r="L67" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="M67">
         <v>10</v>
@@ -4116,16 +4092,16 @@
         <v>45906</v>
       </c>
       <c r="C68" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D68">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E68" s="3">
-        <v>45882</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>159</v>
+        <v>45881</v>
+      </c>
+      <c r="F68" t="s">
+        <v>157</v>
       </c>
       <c r="G68">
         <v>16</v>
@@ -4134,10 +4110,10 @@
         <v>45911</v>
       </c>
       <c r="L68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M68">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="2:13">
@@ -4145,28 +4121,28 @@
         <v>45906</v>
       </c>
       <c r="C69" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="D69">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E69" s="3">
         <v>45882</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G69">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="K69" s="3">
         <v>45911</v>
       </c>
       <c r="L69" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="2:13">
@@ -4174,28 +4150,28 @@
         <v>45906</v>
       </c>
       <c r="C70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E70" s="3">
         <v>45882</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G70">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K70" s="3">
         <v>45911</v>
       </c>
-      <c r="L70" s="7" t="s">
-        <v>168</v>
+      <c r="L70" t="s">
+        <v>220</v>
       </c>
       <c r="M70">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="2:13">
@@ -4203,28 +4179,28 @@
         <v>45906</v>
       </c>
       <c r="C71" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="D71">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E71" s="3">
         <v>45882</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K71" s="3">
         <v>45911</v>
       </c>
       <c r="L71" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="M71">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="2:13">
@@ -4232,28 +4208,28 @@
         <v>45906</v>
       </c>
       <c r="C72" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D72">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="E72" s="3">
         <v>45882</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="G72">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K72" s="3">
         <v>45911</v>
       </c>
-      <c r="L72" t="s">
-        <v>182</v>
+      <c r="L72" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="M72">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="2:13">
@@ -4261,28 +4237,28 @@
         <v>45906</v>
       </c>
       <c r="C73" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D73">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E73" s="3">
         <v>45882</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K73" s="3">
         <v>45911</v>
       </c>
       <c r="L73" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="2:13">
@@ -4290,54 +4266,54 @@
         <v>45906</v>
       </c>
       <c r="C74" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D74">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E74" s="3">
         <v>45882</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K74" s="3">
         <v>45911</v>
       </c>
       <c r="L74" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M74">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="2:13">
       <c r="B75" s="3">
-        <v>45910</v>
+        <v>45906</v>
       </c>
       <c r="C75" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D75">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E75" s="3">
         <v>45882</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K75" s="3">
         <v>45911</v>
       </c>
       <c r="L75" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M75">
         <v>4</v>
@@ -4345,31 +4321,31 @@
     </row>
     <row r="76" spans="2:13">
       <c r="B76" s="3">
-        <v>45910</v>
+        <v>45906</v>
       </c>
       <c r="C76" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D76">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E76" s="3">
-        <v>45883</v>
+        <v>45882</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K76" s="3">
         <v>45911</v>
       </c>
       <c r="L76" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="M76">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="2:13">
@@ -4377,28 +4353,28 @@
         <v>45910</v>
       </c>
       <c r="C77" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="E77" s="3">
-        <v>45883</v>
+        <v>45882</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G77">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K77" s="3">
         <v>45911</v>
       </c>
       <c r="L77" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="M77">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="2:13">
@@ -4406,28 +4382,28 @@
         <v>45910</v>
       </c>
       <c r="C78" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="E78" s="3">
         <v>45883</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K78" s="3">
         <v>45911</v>
       </c>
       <c r="L78" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M78">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="2:13">
@@ -4435,28 +4411,28 @@
         <v>45910</v>
       </c>
       <c r="C79" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D79">
-        <v>230</v>
+        <v>4</v>
       </c>
       <c r="E79" s="3">
         <v>45883</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G79">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K79" s="3">
         <v>45911</v>
       </c>
       <c r="L79" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="2:13">
@@ -4464,268 +4440,304 @@
         <v>45910</v>
       </c>
       <c r="C80" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80" s="3">
         <v>45883</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="G80">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11">
+        <v>3</v>
+      </c>
+      <c r="K80" s="3">
+        <v>45911</v>
+      </c>
+      <c r="L80" t="s">
+        <v>223</v>
+      </c>
+      <c r="M80">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13">
       <c r="B81" s="3">
         <v>45910</v>
       </c>
       <c r="C81" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="E81" s="3">
         <v>45883</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="G81">
-        <v>6</v>
-      </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="2:11">
+        <v>30</v>
+      </c>
+      <c r="K81" s="3">
+        <v>45911</v>
+      </c>
+      <c r="L81" t="s">
+        <v>130</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13">
       <c r="B82" s="3">
         <v>45910</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E82" s="3">
         <v>45883</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="G82">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13">
       <c r="B83" s="3">
         <v>45910</v>
       </c>
       <c r="C83" t="s">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="D83">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>45883</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="G83">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11">
+        <v>6</v>
+      </c>
+      <c r="K83" s="3"/>
+    </row>
+    <row r="84" spans="2:13">
       <c r="B84" s="3">
         <v>45910</v>
       </c>
       <c r="C84" t="s">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="D84">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E84" s="3">
         <v>45883</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G84">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13">
       <c r="B85" s="3">
         <v>45910</v>
       </c>
       <c r="C85" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D85">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E85" s="3">
         <v>45883</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="G85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13">
       <c r="B86" s="3">
         <v>45910</v>
       </c>
       <c r="C86" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D86">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E86" s="3">
         <v>45883</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G86">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13">
       <c r="B87" s="3">
         <v>45910</v>
       </c>
       <c r="C87" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D87">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E87" s="3">
         <v>45883</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="G87">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:13">
       <c r="B88" s="3">
         <v>45910</v>
       </c>
       <c r="C88" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="D88">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E88" s="3">
         <v>45883</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G88">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13">
+      <c r="B89" s="3">
+        <v>45910</v>
+      </c>
+      <c r="C89" t="s">
+        <v>218</v>
+      </c>
+      <c r="D89">
+        <v>6</v>
+      </c>
       <c r="E89" s="3">
         <v>45883</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="G89">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13">
+      <c r="B90" s="3">
+        <v>45910</v>
+      </c>
+      <c r="C90" t="s">
+        <v>124</v>
+      </c>
+      <c r="D90">
+        <v>47</v>
+      </c>
       <c r="E90" s="3">
         <v>45883</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="G90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13">
       <c r="E91" s="3">
         <v>45883</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G91">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13">
       <c r="E92" s="3">
         <v>45883</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13">
       <c r="E93" s="3">
         <v>45883</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G93">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13">
       <c r="E94" s="3">
         <v>45883</v>
       </c>
       <c r="F94" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13">
+      <c r="E95" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13">
+      <c r="E96" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F96" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G94">
+      <c r="G96">
         <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11">
-      <c r="E95" s="3">
-        <v>45895</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11">
-      <c r="E96" s="3">
-        <v>45895</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G96">
-        <v>6</v>
       </c>
     </row>
     <row r="97" spans="5:7">
@@ -4733,10 +4745,10 @@
         <v>45895</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="5:7">
@@ -4744,10 +4756,10 @@
         <v>45895</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G98">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="5:7">
@@ -4755,10 +4767,10 @@
         <v>45895</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="5:7">
@@ -4766,10 +4778,10 @@
         <v>45895</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="G100">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="5:7">
@@ -4777,10 +4789,10 @@
         <v>45895</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="5:7">
@@ -4788,10 +4800,10 @@
         <v>45895</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="G102">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="5:7">
@@ -4799,32 +4811,32 @@
         <v>45895</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="G103">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" s="3">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" s="3">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="G105">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="5:7">
@@ -4832,10 +4844,10 @@
         <v>45896</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G106">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="5:7">
@@ -4843,10 +4855,10 @@
         <v>45896</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="G107">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="5:7">
@@ -4854,10 +4866,10 @@
         <v>45896</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="G108">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="5:7">
@@ -4865,31 +4877,53 @@
         <v>45896</v>
       </c>
       <c r="F109" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G109">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="5:7">
+      <c r="E110" s="3">
+        <v>45896</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="5:7">
+      <c r="E111" s="3">
+        <v>45896</v>
+      </c>
+      <c r="F111" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G109">
+      <c r="G111">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="5:7">
-      <c r="E110" s="3"/>
-      <c r="F110" s="8"/>
-    </row>
-    <row r="111" spans="5:7">
-      <c r="E111" s="3"/>
-      <c r="F111" s="8"/>
     </row>
     <row r="112" spans="5:7">
       <c r="E112" s="3"/>
       <c r="F112" s="8"/>
     </row>
+    <row r="113" spans="5:6">
+      <c r="E113" s="3"/>
+      <c r="F113" s="8"/>
+    </row>
+    <row r="114" spans="5:6">
+      <c r="E114" s="3"/>
+      <c r="F114" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
